--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -575,7 +575,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45925</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,14 +809,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 7444-2023</t>
+          <t>A 44867-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44971</v>
+        <v>45190</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,39 +829,136 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.7</v>
+        <v>7.8</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>3</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5</v>
-      </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>9</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Bombmurkla
+Granticka
+Kandelabersvamp
+Granbräken
+Myskmadra
+Stor aspticka
+Enkelbeckasin
+Trana
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 44867-2023 artfynd.xlsx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 44867-2023 karta.png", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 44867-2023 FSC-klagomål.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 44867-2023 FSC-klagomål mail.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 44867-2023 tillsynsbegäran.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 44867-2023 tillsynsbegäran mail.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 44867-2023 prioriterade fågelarter.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 7444-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44971</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Apelticka
 Kärnticka
@@ -874,125 +971,28 @@
 Thomsons trägnagare</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 7444-2023 artfynd.xlsx", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 7444-2023 karta.png", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 7444-2023 FSC-klagomål.docx", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 7444-2023 FSC-klagomål mail.docx", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 7444-2023 tillsynsbegäran.docx", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 7444-2023 tillsynsbegäran mail.docx", "A 7444-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 44867-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Bombmurkla
-Granticka
-Kandelabersvamp
-Granbräken
-Myskmadra
-Stor aspticka
-Enkelbeckasin
-Trana
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 44867-2023 artfynd.xlsx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 44867-2023 karta.png", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 44867-2023 FSC-klagomål.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 44867-2023 FSC-klagomål mail.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 44867-2023 tillsynsbegäran.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 44867-2023 tillsynsbegäran mail.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 44867-2023 prioriterade fågelarter.docx", "A 44867-2023")</f>
         <v/>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         <v>45213</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45034</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1274,14 +1274,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 33770-2023</t>
+          <t>A 5455-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45133</v>
+        <v>45693</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,22 +1293,17 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>17.1</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1323,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1333,49 +1328,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Slaguggla</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 61768-2025</t>
+          <t>A 53813-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>46002.63940972222</v>
+        <v>45960</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1379,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1422,45 +1413,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Kamjordstjärna</t>
+          <t>Broskvaxing</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 53813-2025</t>
+          <t>A 16973-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45960</v>
+        <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,17 +1464,17 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -1497,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1507,45 +1498,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Broskvaxing</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 2214-2026</t>
+          <t>A 61768-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>46036</v>
+        <v>46002.63940972222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,16 +1549,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1582,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1592,49 +1583,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Kamjordstjärna</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
-        <v/>
-      </c>
-      <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 11405-2025</t>
+          <t>A 33770-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45726</v>
+        <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,23 +1633,28 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1674,52 +1666,56 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Fältgentiana</t>
+          <t>Slaguggla</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 21831-2024</t>
+          <t>A 9553-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45442</v>
+        <v>45715</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1728,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1766,45 +1762,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9553-2025 artfynd.xlsx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9553-2025 karta.png", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9553-2025 FSC-klagomål.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9553-2025 FSC-klagomål mail.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9553-2025 tillsynsbegäran.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9553-2025 tillsynsbegäran mail.docx", "A 9553-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 9553-2025</t>
+          <t>A 2214-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45715</v>
+        <v>46036</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,17 +1813,17 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -1841,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1851,45 +1847,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9553-2025 artfynd.xlsx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9553-2025 karta.png", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
+        <v/>
+      </c>
+      <c r="U15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9553-2025 FSC-klagomål.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9553-2025 FSC-klagomål mail.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9553-2025 tillsynsbegäran.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9553-2025 tillsynsbegäran mail.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 16407-2025</t>
+          <t>A 11405-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45751.45120370371</v>
+        <v>45726</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1902,23 +1902,23 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
@@ -1926,55 +1926,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fältgentiana</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 16973-2021</t>
+          <t>A 16407-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44295</v>
+        <v>45751.45120370371</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2021,45 +2021,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 5455-2025</t>
+          <t>A 21831-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45693</v>
+        <v>45442</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2072,13 +2072,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>17.1</v>
+        <v>4.5</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2106,31 +2106,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
         <v>44252</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>44313</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44308.34364583333</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44518</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44735.46880787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44342.43712962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>44673</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44271</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>44384</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44509</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44510</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44536</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>44518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44690.39451388889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3297,14 +3297,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 36470-2025</t>
+          <t>A 72966-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45869.47915509259</v>
+        <v>44548.57709490741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3354,14 +3354,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 66293-2021</t>
+          <t>A 72967-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44518</v>
+        <v>44548.58148148148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3411,14 +3411,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 72966-2021</t>
+          <t>A 34078-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44548.57709490741</v>
+        <v>44791</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3430,8 +3430,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3468,14 +3473,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 36472-2025</t>
+          <t>A 17091-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45869.48162037037</v>
+        <v>45034.53554398148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3488,7 +3493,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3525,14 +3530,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 36473-2025</t>
+          <t>A 26182-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45869.48333333333</v>
+        <v>44735</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3545,7 +3550,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3582,14 +3587,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 72967-2021</t>
+          <t>A 2628-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44548.58148148148</v>
+        <v>45675.68435185185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3602,7 +3607,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3639,14 +3644,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 32975-2021</t>
+          <t>A 17333-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44376</v>
+        <v>45414.5625462963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3659,7 +3664,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.1</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3696,14 +3701,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 13697-2024</t>
+          <t>A 11841-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45390</v>
+        <v>44995.3221412037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3715,13 +3720,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3758,14 +3758,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 57631-2025</t>
+          <t>A 11450-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45981.34748842593</v>
+        <v>44993</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3815,14 +3815,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 66284-2021</t>
+          <t>A 20902-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44518</v>
+        <v>45439.48104166667</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3872,14 +3872,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 666-2026</t>
+          <t>A 45525-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>46029.58832175926</v>
+        <v>45194</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3929,14 +3929,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 662-2026</t>
+          <t>A 26226-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>46029.58549768518</v>
+        <v>45805.55829861111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>9.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3986,14 +3986,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 53812-2025</t>
+          <t>A 16773-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45960</v>
+        <v>44673</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4043,14 +4043,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 60243-2025</t>
+          <t>A 28189-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45994.58650462963</v>
+        <v>45818.41357638889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4062,13 +4062,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2.4</v>
+        <v>7.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4105,14 +4100,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 44869-2025</t>
+          <t>A 20505-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45918.46758101852</v>
+        <v>44313</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4125,7 +4120,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>17.1</v>
+        <v>2.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4162,14 +4157,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 45453-2025</t>
+          <t>A 60018-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45922.48702546296</v>
+        <v>45642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4182,7 +4177,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4219,14 +4214,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 13040-2025</t>
+          <t>A 16396-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45734</v>
+        <v>45751.44219907407</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4238,13 +4233,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>1.6</v>
+        <v>5.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4281,14 +4271,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 2952-2026</t>
+          <t>A 44869-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>46037</v>
+        <v>45918.46758101852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4301,7 +4291,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>17.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4338,14 +4328,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 19676-2025</t>
+          <t>A 45453-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45770</v>
+        <v>45922.48702546296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4395,14 +4385,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 8343-2024</t>
+          <t>A 13040-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45352</v>
+        <v>45734</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4416,11 +4406,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4457,14 +4447,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 3016-2026</t>
+          <t>A 1791-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>46038</v>
+        <v>45307.574375</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4477,7 +4467,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4514,14 +4504,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 3015-2026</t>
+          <t>A 47803-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>46038</v>
+        <v>45931</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4534,7 +4524,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4571,14 +4561,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 47803-2025</t>
+          <t>A 33976-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45931</v>
+        <v>45843</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4591,7 +4581,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.9</v>
+        <v>6.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4628,14 +4618,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 3375-2026</t>
+          <t>A 49090-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>46042</v>
+        <v>45937</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4648,7 +4638,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4685,14 +4675,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 3824-2026</t>
+          <t>A 33974-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46043.58570601852</v>
+        <v>45843.305625</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4705,7 +4695,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4742,14 +4732,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 3836-2026</t>
+          <t>A 33975-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46043.5925</v>
+        <v>45843.30805555556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4762,7 +4752,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4799,14 +4789,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 30627-2023</t>
+          <t>A 34859-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45112</v>
+        <v>45849.43511574074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4824,7 +4814,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>6.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4861,14 +4851,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 49090-2025</t>
+          <t>A 34864-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45937</v>
+        <v>45849.44028935185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4880,8 +4870,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4918,14 +4913,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 14267-2025</t>
+          <t>A 35318-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45740.63686342593</v>
+        <v>45854.47917824074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4937,8 +4932,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4975,14 +4975,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 5276-2026</t>
+          <t>A 23239-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>46037</v>
+        <v>45075</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5032,14 +5032,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 2944-2026</t>
+          <t>A 36472-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46037</v>
+        <v>45869.48162037037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5089,14 +5089,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 11841-2023</t>
+          <t>A 36473-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44995.3221412037</v>
+        <v>45869.48333333333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5146,14 +5146,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 5908-2026</t>
+          <t>A 52666-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>46052.44399305555</v>
+        <v>45955.74299768519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5203,14 +5203,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 5910-2026</t>
+          <t>A 36470-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46052.44677083333</v>
+        <v>45869.47915509259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5260,14 +5260,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 5402-2023</t>
+          <t>A 52667-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44959</v>
+        <v>45955.74666666667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5317,14 +5317,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 52667-2025</t>
+          <t>A 66284-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45955.74666666667</v>
+        <v>44518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>6.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5374,14 +5374,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 30351-2022</t>
+          <t>A 53898-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44757</v>
+        <v>45961.43056712963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5431,14 +5431,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 52666-2025</t>
+          <t>A 32975-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45955.74299768519</v>
+        <v>44376</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.1</v>
+        <v>6.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5488,14 +5488,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 11847-2023</t>
+          <t>A 57631-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44995.33957175926</v>
+        <v>45981.34748842593</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5545,14 +5545,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 11450-2023</t>
+          <t>A 662-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44993</v>
+        <v>46029.58549768518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5602,14 +5602,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 31875-2022</t>
+          <t>A 666-2026</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44777</v>
+        <v>46029.58832175926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5659,14 +5659,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 53898-2025</t>
+          <t>A 11847-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45961.43056712963</v>
+        <v>44995.33957175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5716,14 +5716,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 1629-2024</t>
+          <t>A 53812-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45306</v>
+        <v>45960</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5735,13 +5735,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5778,14 +5773,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 23239-2023</t>
+          <t>A 60243-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45075</v>
+        <v>45994.58650462963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5797,8 +5792,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5835,14 +5835,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 60885-2021</t>
+          <t>A 3015-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44497</v>
+        <v>46038</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5892,14 +5892,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 3191-2024</t>
+          <t>A 3016-2026</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45316.67186342592</v>
+        <v>46038</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 45525-2023</t>
+          <t>A 2952-2026</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45194</v>
+        <v>46037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 16773-2022</t>
+          <t>A 3375-2026</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44673</v>
+        <v>46042</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6063,14 +6063,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 30764-2023</t>
+          <t>A 3836-2026</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45112</v>
+        <v>46043.5925</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6082,13 +6082,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6125,14 +6120,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 51849-2023</t>
+          <t>A 3824-2026</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45223.34391203704</v>
+        <v>46043.58570601852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6145,7 +6140,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>16.3</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6182,14 +6177,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 60018-2024</t>
+          <t>A 30351-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45642</v>
+        <v>44757</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6202,7 +6197,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6239,14 +6234,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 17333-2024</t>
+          <t>A 3191-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45414.5625462963</v>
+        <v>45316.67186342592</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6259,7 +6254,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6296,14 +6291,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 1791-2024</t>
+          <t>A 5276-2026</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45307.574375</v>
+        <v>46037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6316,7 +6311,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6353,14 +6348,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 66305-2021</t>
+          <t>A 2944-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44518</v>
+        <v>46037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6373,7 +6368,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>8.300000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6410,14 +6405,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 2628-2025</t>
+          <t>A 31875-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45675.68435185185</v>
+        <v>44777</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6430,7 +6425,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6467,14 +6462,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 11452-2023</t>
+          <t>A 5908-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44993</v>
+        <v>46052.44399305555</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6487,7 +6482,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6524,14 +6519,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 43908-2023</t>
+          <t>A 5402-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45187</v>
+        <v>44959</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6543,13 +6538,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6586,14 +6576,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 34078-2022</t>
+          <t>A 5910-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44791</v>
+        <v>46052.44677083333</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6605,13 +6595,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6648,14 +6633,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 26182-2022</t>
+          <t>A 51849-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44735</v>
+        <v>45223.34391203704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6668,7 +6653,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.8</v>
+        <v>16.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6705,14 +6690,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 20505-2021</t>
+          <t>A 66293-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44313</v>
+        <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6725,7 +6710,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6762,14 +6747,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 2629-2025</t>
+          <t>A 45916-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45675.6953587963</v>
+        <v>44846</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6782,7 +6767,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6819,14 +6804,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 5320-2023</t>
+          <t>A 2629-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44959</v>
+        <v>45675.6953587963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6839,7 +6824,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6876,14 +6861,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 45916-2022</t>
+          <t>A 5320-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44846</v>
+        <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6896,7 +6881,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6933,14 +6918,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 16396-2025</t>
+          <t>A 11452-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45751.44219907407</v>
+        <v>44993</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6953,7 +6938,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6990,14 +6975,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 17091-2023</t>
+          <t>A 30627-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45034.53554398148</v>
+        <v>45112</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7009,8 +6994,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7047,14 +7037,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 2171-2024</t>
+          <t>A 43908-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45309</v>
+        <v>45187</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,11 +7058,11 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7109,14 +7099,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 21130-2025</t>
+          <t>A 8343-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45778.35857638889</v>
+        <v>45352</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7128,8 +7118,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7166,14 +7161,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 794-2024</t>
+          <t>A 60885-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45300.58149305556</v>
+        <v>44497</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7186,7 +7181,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7223,14 +7218,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 20902-2024</t>
+          <t>A 19676-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45439.48104166667</v>
+        <v>45770</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7243,7 +7238,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7280,14 +7275,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 26226-2025</t>
+          <t>A 14267-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45805.55829861111</v>
+        <v>45740.63686342593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7300,7 +7295,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>9.1</v>
+        <v>3.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7337,14 +7332,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 28189-2025</t>
+          <t>A 13697-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45818.41357638889</v>
+        <v>45390</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7356,8 +7351,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>7.6</v>
+        <v>1.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7394,14 +7394,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 33975-2025</t>
+          <t>A 66305-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45843.30805555556</v>
+        <v>44518</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7451,14 +7451,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 33974-2025</t>
+          <t>A 1629-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45843.305625</v>
+        <v>45306</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7470,8 +7470,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7508,14 +7513,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 33976-2025</t>
+          <t>A 30764-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45843</v>
+        <v>45112</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7527,8 +7532,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>6.1</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7565,14 +7575,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 34859-2025</t>
+          <t>A 2171-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45849.43511574074</v>
+        <v>45309</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7590,7 +7600,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>6.1</v>
+        <v>3.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7627,14 +7637,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 34864-2025</t>
+          <t>A 21130-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45849.44028935185</v>
+        <v>45778.35857638889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7646,13 +7656,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7689,14 +7694,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 35318-2025</t>
+          <t>A 794-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45854.47917824074</v>
+        <v>45300.58149305556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7708,13 +7713,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -575,7 +575,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45925</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>45190</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45213</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45034</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45693</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>45960</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>46002.63940972222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45715</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>46036</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>45726</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>45751.45120370371</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45442</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>44252</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>44313</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44308.34364583333</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44518</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44735.46880787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44342.43712962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>44673</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44271</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>44384</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44509</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44510</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44536</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>44518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44690.39451388889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44548.57709490741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44548.58148148148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44791</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45034.53554398148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44735</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>45675.68435185185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>45414.5625462963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>44995.3221412037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44993</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>45439.48104166667</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>45194</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>45805.55829861111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>44673</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>45818.41357638889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44313</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>45751.44219907407</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>45918.46758101852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>45922.48702546296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>45734</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45307.574375</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>45931</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>45843</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>45937</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45843.305625</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45843.30805555556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45849.43511574074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>45849.44028935185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>45854.47917824074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>45075</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>45869.48162037037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>45869.48333333333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>45955.74299768519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>45869.47915509259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>45955.74666666667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>45961.43056712963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>44376</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>45981.34748842593</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>46029.58549768518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>46029.58832175926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44995.33957175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>45960</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45994.58650462963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>46038</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>46038</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>46037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>46042</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>46043.5925</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>46043.58570601852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>44757</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>45316.67186342592</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>46037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>46037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>44777</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>46052.44399305555</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44959</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>46052.44677083333</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>45223.34391203704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44846</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>45675.6953587963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>44993</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>45112</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>45187</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>45352</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44497</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>45770</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>45740.63686342593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>45390</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44518</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>45306</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>45112</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>45309</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>45778.35857638889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>45300.58149305556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -575,7 +575,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45925</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>45190</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45213</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45034</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45693</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>45960</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>46002.63940972222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45715</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>46036</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>45726</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>45751.45120370371</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45442</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>44252</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>44313</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44308.34364583333</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44518</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44735.46880787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44342.43712962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>44673</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44271</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>44384</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44509</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44510</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44536</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>44518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44690.39451388889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44548.57709490741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44548.58148148148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44791</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45034.53554398148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44735</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>45675.68435185185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>45414.5625462963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>44995.3221412037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44993</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>45439.48104166667</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>45194</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>45805.55829861111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>44673</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>45818.41357638889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44313</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>45751.44219907407</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>45918.46758101852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>45922.48702546296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>45734</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45307.574375</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>45931</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>45843</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>45937</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45843.305625</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45843.30805555556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45849.43511574074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>45849.44028935185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>45854.47917824074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>45075</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>45869.48162037037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>45869.48333333333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>45955.74299768519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>45869.47915509259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>45955.74666666667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>45961.43056712963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>44376</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>45981.34748842593</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>46029.58549768518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>46029.58832175926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44995.33957175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>45960</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45994.58650462963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>46038</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>46038</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>46037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>46042</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>46043.5925</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>46043.58570601852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>44757</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>45316.67186342592</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>46037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>46037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>44777</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>46052.44399305555</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44959</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>46052.44677083333</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>45223.34391203704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44846</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>45675.6953587963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>44993</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>45112</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>45187</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>45352</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44497</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>45770</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>45740.63686342593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>45390</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44518</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>45306</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>45112</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>45309</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>45778.35857638889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>45300.58149305556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -575,7 +575,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45925</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,14 +809,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 44867-2023</t>
+          <t>A 7444-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45190</v>
+        <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,19 +829,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>7.8</v>
+        <v>0.7</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -853,15 +853,108 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
         <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>9</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Apelticka
+Kärnticka
+Rostorangelav
+Kandelabersvamp
+Lunglav
+Granbarkgnagare
+Platt fjädermossa
+Stekelbock
+Thomsons trägnagare</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 7444-2023 artfynd.xlsx", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 7444-2023 karta.png", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 7444-2023 FSC-klagomål.docx", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 7444-2023 FSC-klagomål mail.docx", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 7444-2023 tillsynsbegäran.docx", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 7444-2023 tillsynsbegäran mail.docx", "A 7444-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 44867-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Bombmurkla
 Granticka
@@ -874,125 +967,32 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 44867-2023 artfynd.xlsx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 44867-2023 karta.png", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 44867-2023 FSC-klagomål.docx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 44867-2023 FSC-klagomål mail.docx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 44867-2023 tillsynsbegäran.docx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 44867-2023 tillsynsbegäran mail.docx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 44867-2023 prioriterade fågelarter.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 7444-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44971</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Apelticka
-Kärnticka
-Rostorangelav
-Kandelabersvamp
-Lunglav
-Granbarkgnagare
-Platt fjädermossa
-Stekelbock
-Thomsons trägnagare</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 7444-2023 artfynd.xlsx", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 7444-2023 karta.png", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 7444-2023 FSC-klagomål.docx", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 7444-2023 FSC-klagomål mail.docx", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 7444-2023 tillsynsbegäran.docx", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 7444-2023 tillsynsbegäran mail.docx", "A 7444-2023")</f>
         <v/>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         <v>45213</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45034</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1274,14 +1274,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 5455-2025</t>
+          <t>A 11405-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45693</v>
+        <v>45726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,23 +1294,23 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>17.1</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
@@ -1318,55 +1318,55 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Fältgentiana</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 53813-2025</t>
+          <t>A 33770-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45960</v>
+        <v>45133</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,18 +1378,23 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1403,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1413,45 +1418,49 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Broskvaxing</t>
+          <t>Slaguggla</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 16973-2021</t>
+          <t>A 53813-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44295</v>
+        <v>45960</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,16 +1473,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1488,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1498,45 +1507,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Broskvaxing</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 61768-2025</t>
+          <t>A 21831-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>46002.63940972222</v>
+        <v>45442</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1549,13 +1558,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1583,45 +1592,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Kamjordstjärna</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 33770-2023</t>
+          <t>A 61768-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45133</v>
+        <v>46002.63940972222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,22 +1642,17 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1663,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1673,35 +1677,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Slaguggla</t>
+          <t>Kamjordstjärna</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
         <v>45715</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1793,14 +1793,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 2214-2026</t>
+          <t>A 16407-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46036</v>
+        <v>45751.45120370371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1847,49 +1847,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
-        <v/>
-      </c>
-      <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 11405-2025</t>
+          <t>A 2214-2026</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45726</v>
+        <v>46036</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1902,7 +1898,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>4.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1911,13 +1907,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1929,52 +1925,56 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Fältgentiana</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
+        <v/>
+      </c>
+      <c r="U16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 16407-2025</t>
+          <t>A 16973-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45751.45120370371</v>
+        <v>44295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1987,17 +1987,17 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2021,45 +2021,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 21831-2024</t>
+          <t>A 5455-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45442</v>
+        <v>45693</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2072,13 +2072,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.5</v>
+        <v>17.1</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2106,31 +2106,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
         <v>44252</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>44313</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44308.34364583333</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44518</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44735.46880787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44342.43712962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>44673</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44271</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>44384</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44509</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44510</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2950,14 +2950,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 47652-2021</t>
+          <t>A 70275-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44448</v>
+        <v>44536</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,8 +2969,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3007,14 +3012,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47654-2021</t>
+          <t>A 47652-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>44448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3027,7 +3032,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3064,14 +3069,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 70275-2021</t>
+          <t>A 47654-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44536</v>
+        <v>44448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,13 +3088,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>44518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44690.39451388889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44548.57709490741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44548.58148148148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3411,14 +3411,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 34078-2022</t>
+          <t>A 32975-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44791</v>
+        <v>44376</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3430,13 +3430,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>1.8</v>
+        <v>6.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3473,14 +3468,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 17091-2023</t>
+          <t>A 13697-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45034.53554398148</v>
+        <v>45390</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3492,8 +3487,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3530,14 +3530,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 26182-2022</t>
+          <t>A 14267-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44735</v>
+        <v>45740.63686342593</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3587,14 +3587,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 2628-2025</t>
+          <t>A 28189-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45675.68435185185</v>
+        <v>45818.41357638889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.9</v>
+        <v>7.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3644,14 +3644,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 17333-2024</t>
+          <t>A 11841-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45414.5625462963</v>
+        <v>44995.3221412037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3701,14 +3701,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 11841-2023</t>
+          <t>A 30351-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44995.3221412037</v>
+        <v>44757</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3758,14 +3758,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 11450-2023</t>
+          <t>A 11847-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44993</v>
+        <v>44995.33957175926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3815,14 +3815,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 20902-2024</t>
+          <t>A 11450-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45439.48104166667</v>
+        <v>44993</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3872,14 +3872,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 45525-2023</t>
+          <t>A 31875-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45194</v>
+        <v>44777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3929,14 +3929,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 26226-2025</t>
+          <t>A 33975-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45805.55829861111</v>
+        <v>45843.30805555556</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>9.1</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3986,14 +3986,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 16773-2022</t>
+          <t>A 33974-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44673</v>
+        <v>45843.305625</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4043,14 +4043,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 28189-2025</t>
+          <t>A 33976-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45818.41357638889</v>
+        <v>45843</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>7.6</v>
+        <v>6.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4100,14 +4100,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 20505-2021</t>
+          <t>A 34859-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44313</v>
+        <v>45849.43511574074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4119,8 +4119,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>2.9</v>
+        <v>6.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4157,14 +4162,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 60018-2024</t>
+          <t>A 34864-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45642</v>
+        <v>45849.44028935185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4176,8 +4181,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4214,14 +4224,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 16396-2025</t>
+          <t>A 35318-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45751.44219907407</v>
+        <v>45854.47917824074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4233,8 +4243,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4271,14 +4286,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 44869-2025</t>
+          <t>A 23239-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45918.46758101852</v>
+        <v>45075</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4291,7 +4306,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>17.1</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4328,14 +4343,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 45453-2025</t>
+          <t>A 36470-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45922.48702546296</v>
+        <v>45869.47915509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4348,7 +4363,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4385,14 +4400,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 13040-2025</t>
+          <t>A 36472-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45734</v>
+        <v>45869.48162037037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4404,13 +4419,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4447,14 +4457,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 1791-2024</t>
+          <t>A 36473-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45307.574375</v>
+        <v>45869.48333333333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4504,14 +4514,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 47803-2025</t>
+          <t>A 44869-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45931</v>
+        <v>45918.46758101852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4524,7 +4534,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.9</v>
+        <v>17.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4561,14 +4571,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 33976-2025</t>
+          <t>A 45453-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45843</v>
+        <v>45922.48702546296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4581,7 +4591,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6.1</v>
+        <v>0.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4618,14 +4628,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 49090-2025</t>
+          <t>A 13040-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45937</v>
+        <v>45734</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4637,8 +4647,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4675,14 +4690,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 33974-2025</t>
+          <t>A 47803-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45843.305625</v>
+        <v>45931</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4695,7 +4710,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4732,14 +4747,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 33975-2025</t>
+          <t>A 66293-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45843.30805555556</v>
+        <v>44518</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4752,7 +4767,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4789,14 +4804,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 34859-2025</t>
+          <t>A 49090-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45849.43511574074</v>
+        <v>45937</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4808,13 +4823,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>6.1</v>
+        <v>4.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4851,14 +4861,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 34864-2025</t>
+          <t>A 52667-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45849.44028935185</v>
+        <v>45955.74666666667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4870,13 +4880,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4913,14 +4918,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 35318-2025</t>
+          <t>A 52666-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45854.47917824074</v>
+        <v>45955.74299768519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4932,13 +4937,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4975,14 +4975,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 23239-2023</t>
+          <t>A 66284-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45075</v>
+        <v>44518</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>6.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5032,14 +5032,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 36472-2025</t>
+          <t>A 53898-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45869.48162037037</v>
+        <v>45961.43056712963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5089,14 +5089,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 36473-2025</t>
+          <t>A 19676-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45869.48333333333</v>
+        <v>45770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5146,14 +5146,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 52666-2025</t>
+          <t>A 8343-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45955.74299768519</v>
+        <v>45352</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5165,8 +5165,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5203,14 +5208,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 36470-2025</t>
+          <t>A 30627-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45869.47915509259</v>
+        <v>45112</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5222,8 +5227,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5260,14 +5270,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 52667-2025</t>
+          <t>A 1629-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45955.74666666667</v>
+        <v>45306</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5279,8 +5289,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5317,14 +5332,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 66284-2021</t>
+          <t>A 60885-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44518</v>
+        <v>44497</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5337,7 +5352,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>6.9</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5374,14 +5389,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 53898-2025</t>
+          <t>A 57631-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45961.43056712963</v>
+        <v>45981.34748842593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5394,7 +5409,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5431,14 +5446,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 32975-2021</t>
+          <t>A 666-2026</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44376</v>
+        <v>46029.58832175926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5451,7 +5466,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.1</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5488,14 +5503,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 57631-2025</t>
+          <t>A 662-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45981.34748842593</v>
+        <v>46029.58549768518</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5508,7 +5523,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5545,14 +5560,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 662-2026</t>
+          <t>A 53812-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46029.58549768518</v>
+        <v>45960</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5565,7 +5580,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>5.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5602,14 +5617,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 666-2026</t>
+          <t>A 60243-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46029.58832175926</v>
+        <v>45994.58650462963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5621,8 +5636,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5659,14 +5679,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 11847-2023</t>
+          <t>A 3191-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44995.33957175926</v>
+        <v>45316.67186342592</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5679,7 +5699,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5716,14 +5736,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 53812-2025</t>
+          <t>A 45525-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45960</v>
+        <v>45194</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5736,7 +5756,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5773,14 +5793,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 60243-2025</t>
+          <t>A 2952-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45994.58650462963</v>
+        <v>46037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5792,13 +5812,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5835,14 +5850,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 3015-2026</t>
+          <t>A 16773-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46038</v>
+        <v>44673</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5855,7 +5870,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5892,14 +5907,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 3016-2026</t>
+          <t>A 30764-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46038</v>
+        <v>45112</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5909,6 +5924,11 @@
       <c r="E84" t="inlineStr">
         <is>
           <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -5949,14 +5969,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 2952-2026</t>
+          <t>A 3016-2026</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5969,7 +5989,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6006,14 +6026,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 3375-2026</t>
+          <t>A 3015-2026</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46042</v>
+        <v>46038</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6026,7 +6046,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6063,14 +6083,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 3836-2026</t>
+          <t>A 51849-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46043.5925</v>
+        <v>45223.34391203704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6083,7 +6103,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.7</v>
+        <v>16.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6120,14 +6140,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 3824-2026</t>
+          <t>A 60018-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46043.58570601852</v>
+        <v>45642</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6140,7 +6160,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6177,14 +6197,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 30351-2022</t>
+          <t>A 3375-2026</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44757</v>
+        <v>46042</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6197,7 +6217,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.7</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6234,14 +6254,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 3191-2024</t>
+          <t>A 3824-2026</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45316.67186342592</v>
+        <v>46043.58570601852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6254,7 +6274,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6291,14 +6311,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 5276-2026</t>
+          <t>A 3836-2026</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46037</v>
+        <v>46043.5925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6311,7 +6331,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6348,14 +6368,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 2944-2026</t>
+          <t>A 17333-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46037</v>
+        <v>45414.5625462963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6368,7 +6388,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6405,14 +6425,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 31875-2022</t>
+          <t>A 1791-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44777</v>
+        <v>45307.574375</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6425,7 +6445,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6462,14 +6482,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 5908-2026</t>
+          <t>A 5276-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46052.44399305555</v>
+        <v>46037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6482,7 +6502,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6519,14 +6539,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 5402-2023</t>
+          <t>A 2944-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44959</v>
+        <v>46037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6539,7 +6559,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6576,14 +6596,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 5910-2026</t>
+          <t>A 5908-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46052.44677083333</v>
+        <v>46052.44399305555</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6596,7 +6616,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6633,14 +6653,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 51849-2023</t>
+          <t>A 5910-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45223.34391203704</v>
+        <v>46052.44677083333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6653,7 +6673,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>16.3</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6690,14 +6710,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 66293-2021</t>
+          <t>A 5402-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44518</v>
+        <v>44959</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6710,7 +6730,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6747,14 +6767,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 45916-2022</t>
+          <t>A 66305-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44846</v>
+        <v>44518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6767,7 +6787,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6804,14 +6824,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 2629-2025</t>
+          <t>A 2628-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45675.6953587963</v>
+        <v>45675.68435185185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6824,7 +6844,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6861,14 +6881,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 5320-2023</t>
+          <t>A 11452-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44959</v>
+        <v>44993</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6881,7 +6901,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6918,14 +6938,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 11452-2023</t>
+          <t>A 43908-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44993</v>
+        <v>45187</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6937,8 +6957,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6975,14 +7000,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 30627-2023</t>
+          <t>A 34078-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45112</v>
+        <v>44791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6996,11 +7021,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7037,14 +7062,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 43908-2023</t>
+          <t>A 26182-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45187</v>
+        <v>44735</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7056,13 +7081,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7099,14 +7119,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 8343-2024</t>
+          <t>A 20505-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45352</v>
+        <v>44313</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7118,13 +7138,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7161,14 +7176,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 60885-2021</t>
+          <t>A 2629-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44497</v>
+        <v>45675.6953587963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7181,7 +7196,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7218,14 +7233,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 19676-2025</t>
+          <t>A 5320-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45770</v>
+        <v>44959</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7238,7 +7253,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7275,14 +7290,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 14267-2025</t>
+          <t>A 45916-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45740.63686342593</v>
+        <v>44846</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7295,7 +7310,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7332,14 +7347,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 13697-2024</t>
+          <t>A 16396-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45390</v>
+        <v>45751.44219907407</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7351,13 +7366,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7394,14 +7404,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 66305-2021</t>
+          <t>A 17091-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44518</v>
+        <v>45034.53554398148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7414,7 +7424,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>8.300000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7451,14 +7461,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 1629-2024</t>
+          <t>A 2171-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7476,7 +7486,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7513,14 +7523,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 30764-2023</t>
+          <t>A 21130-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45112</v>
+        <v>45778.35857638889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7532,13 +7542,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7575,14 +7580,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 2171-2024</t>
+          <t>A 794-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45309</v>
+        <v>45300.58149305556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7594,13 +7599,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7637,14 +7637,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 21130-2025</t>
+          <t>A 20902-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45778.35857638889</v>
+        <v>45439.48104166667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7694,14 +7694,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 794-2024</t>
+          <t>A 26226-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45300.58149305556</v>
+        <v>45805.55829861111</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.6</v>
+        <v>9.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -575,7 +575,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45925</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,14 +809,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 7444-2023</t>
+          <t>A 44867-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44971</v>
+        <v>45190</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,39 +829,136 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.7</v>
+        <v>7.8</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>3</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5</v>
-      </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>9</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Bombmurkla
+Granticka
+Kandelabersvamp
+Granbräken
+Myskmadra
+Stor aspticka
+Enkelbeckasin
+Trana
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 44867-2023 artfynd.xlsx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 44867-2023 karta.png", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 44867-2023 FSC-klagomål.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 44867-2023 FSC-klagomål mail.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 44867-2023 tillsynsbegäran.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 44867-2023 tillsynsbegäran mail.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 44867-2023 prioriterade fågelarter.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 7444-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44971</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Apelticka
 Kärnticka
@@ -874,125 +971,28 @@
 Thomsons trägnagare</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 7444-2023 artfynd.xlsx", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 7444-2023 karta.png", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 7444-2023 FSC-klagomål.docx", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 7444-2023 FSC-klagomål mail.docx", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 7444-2023 tillsynsbegäran.docx", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 7444-2023 tillsynsbegäran mail.docx", "A 7444-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 44867-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Bombmurkla
-Granticka
-Kandelabersvamp
-Granbräken
-Myskmadra
-Stor aspticka
-Enkelbeckasin
-Trana
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 44867-2023 artfynd.xlsx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 44867-2023 karta.png", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 44867-2023 FSC-klagomål.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 44867-2023 FSC-klagomål mail.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 44867-2023 tillsynsbegäran.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 44867-2023 tillsynsbegäran mail.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 44867-2023 prioriterade fågelarter.docx", "A 44867-2023")</f>
         <v/>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         <v>45213</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45034</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1274,14 +1274,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 11405-2025</t>
+          <t>A 5455-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45726</v>
+        <v>45693</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>17.1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1318,55 +1318,55 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Fältgentiana</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 33770-2023</t>
+          <t>A 21831-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45133</v>
+        <v>45442</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,13 +1378,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1393,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1408,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1418,49 +1413,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Slaguggla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 53813-2025</t>
+          <t>A 16973-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45960</v>
+        <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,17 +1464,17 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -1497,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1507,45 +1498,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Broskvaxing</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 21831-2024</t>
+          <t>A 53813-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45442</v>
+        <v>45960</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,13 +1549,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1592,31 +1583,31 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Broskvaxing</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
     </row>
@@ -1630,7 +1621,7 @@
         <v>46002.63940972222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1708,14 +1699,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 9553-2025</t>
+          <t>A 33770-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45715</v>
+        <v>45133</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,8 +1718,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1737,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1752,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1762,45 +1758,49 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Slaguggla</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9553-2025 artfynd.xlsx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9553-2025 karta.png", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9553-2025 FSC-klagomål.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9553-2025 FSC-klagomål mail.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9553-2025 tillsynsbegäran.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9553-2025 tillsynsbegäran mail.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 16407-2025</t>
+          <t>A 9553-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45751.45120370371</v>
+        <v>45715</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1847,31 +1847,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9553-2025 artfynd.xlsx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9553-2025 karta.png", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9553-2025 FSC-klagomål.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9553-2025 FSC-klagomål mail.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9553-2025 tillsynsbegäran.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9553-2025 tillsynsbegäran mail.docx", "A 9553-2025")</f>
         <v/>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
         <v>46036</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,14 +1967,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 16973-2021</t>
+          <t>A 11405-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44295</v>
+        <v>45726</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1996,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2014,52 +2014,52 @@
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Fältgentiana</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 5455-2025</t>
+          <t>A 16407-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45693</v>
+        <v>45751.45120370371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2072,13 +2072,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>17.1</v>
+        <v>1.1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2106,31 +2106,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
         <v>44252</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>44313</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44308.34364583333</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44518</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44735.46880787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44342.43712962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>44673</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44271</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>44384</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44509</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44510</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2950,14 +2950,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 70275-2021</t>
+          <t>A 47652-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44536</v>
+        <v>44448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,13 +2969,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3012,14 +3007,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47652-2021</t>
+          <t>A 47654-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>44448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3032,7 +3027,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3069,14 +3064,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 47654-2021</t>
+          <t>A 70275-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44448</v>
+        <v>44536</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3088,8 +3083,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>44518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44690.39451388889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44548.57709490741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44548.58148148148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3411,14 +3411,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 32975-2021</t>
+          <t>A 34078-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44376</v>
+        <v>44791</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3430,8 +3430,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>6.1</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3475,7 +3480,7 @@
         <v>45390</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3530,14 +3535,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 14267-2025</t>
+          <t>A 66305-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45740.63686342593</v>
+        <v>44518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3550,7 +3555,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3587,14 +3592,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 28189-2025</t>
+          <t>A 17091-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45818.41357638889</v>
+        <v>45034.53554398148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3607,7 +3612,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>7.6</v>
+        <v>0.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3644,14 +3649,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 11841-2023</t>
+          <t>A 1629-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44995.3221412037</v>
+        <v>45306</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3663,8 +3668,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3701,14 +3711,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 30351-2022</t>
+          <t>A 26182-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44757</v>
+        <v>44735</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3721,7 +3731,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3758,14 +3768,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 11847-2023</t>
+          <t>A 2628-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44995.33957175926</v>
+        <v>45675.68435185185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3778,7 +3788,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3815,14 +3825,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 11450-2023</t>
+          <t>A 30764-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44993</v>
+        <v>45112</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3834,8 +3844,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3872,14 +3887,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 31875-2022</t>
+          <t>A 17333-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44777</v>
+        <v>45414.5625462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3892,7 +3907,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3929,14 +3944,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 33975-2025</t>
+          <t>A 2171-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45843.30805555556</v>
+        <v>45309</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3948,8 +3963,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3986,14 +4006,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 33974-2025</t>
+          <t>A 21130-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45843.305625</v>
+        <v>45778.35857638889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4006,7 +4026,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4043,14 +4063,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 33976-2025</t>
+          <t>A 794-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45843</v>
+        <v>45300.58149305556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4063,7 +4083,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>6.1</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4100,14 +4120,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 34859-2025</t>
+          <t>A 11841-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45849.43511574074</v>
+        <v>44995.3221412037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4119,13 +4139,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>6.1</v>
+        <v>3.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4162,14 +4177,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 34864-2025</t>
+          <t>A 11450-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45849.44028935185</v>
+        <v>44993</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4181,13 +4196,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4224,14 +4234,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 35318-2025</t>
+          <t>A 45525-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45854.47917824074</v>
+        <v>45194</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4243,13 +4253,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4286,14 +4291,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 23239-2023</t>
+          <t>A 44869-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45075</v>
+        <v>45918.46758101852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4306,7 +4311,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>17.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4343,14 +4348,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 36470-2025</t>
+          <t>A 20902-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45869.47915509259</v>
+        <v>45439.48104166667</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4363,7 +4368,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4400,14 +4405,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 36472-2025</t>
+          <t>A 45453-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45869.48162037037</v>
+        <v>45922.48702546296</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4420,7 +4425,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4457,14 +4462,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 36473-2025</t>
+          <t>A 26226-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45869.48333333333</v>
+        <v>45805.55829861111</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4477,7 +4482,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.4</v>
+        <v>9.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4514,14 +4519,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 44869-2025</t>
+          <t>A 16773-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45918.46758101852</v>
+        <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4534,7 +4539,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>17.1</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4571,14 +4576,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 45453-2025</t>
+          <t>A 13040-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45922.48702546296</v>
+        <v>45734</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4590,8 +4595,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4628,14 +4638,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 13040-2025</t>
+          <t>A 20505-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45734</v>
+        <v>44313</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4647,13 +4657,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4690,14 +4695,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 47803-2025</t>
+          <t>A 60018-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45931</v>
+        <v>45642</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4710,7 +4715,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4747,14 +4752,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 66293-2021</t>
+          <t>A 28189-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44518</v>
+        <v>45818.41357638889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4767,7 +4772,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.6</v>
+        <v>7.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4804,14 +4809,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 49090-2025</t>
+          <t>A 16396-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45937</v>
+        <v>45751.44219907407</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4824,7 +4829,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4861,14 +4866,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 52667-2025</t>
+          <t>A 47803-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45955.74666666667</v>
+        <v>45931</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4881,7 +4886,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4918,14 +4923,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 52666-2025</t>
+          <t>A 1791-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45955.74299768519</v>
+        <v>45307.574375</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4938,7 +4943,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4975,14 +4980,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 66284-2021</t>
+          <t>A 33976-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44518</v>
+        <v>45843</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4995,7 +5000,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5032,14 +5037,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 53898-2025</t>
+          <t>A 33974-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45961.43056712963</v>
+        <v>45843.305625</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5052,7 +5057,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5089,14 +5094,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 19676-2025</t>
+          <t>A 33975-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45770</v>
+        <v>45843.30805555556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5109,7 +5114,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5146,14 +5151,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 8343-2024</t>
+          <t>A 34859-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45352</v>
+        <v>45849.43511574074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5171,7 +5176,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.4</v>
+        <v>6.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5208,14 +5213,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 30627-2023</t>
+          <t>A 34864-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45112</v>
+        <v>45849.44028935185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5233,7 +5238,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5270,14 +5275,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 1629-2024</t>
+          <t>A 49090-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45306</v>
+        <v>45937</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5289,13 +5294,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5332,14 +5332,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 60885-2021</t>
+          <t>A 35318-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44497</v>
+        <v>45854.47917824074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5351,8 +5351,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5389,14 +5394,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 57631-2025</t>
+          <t>A 36472-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45981.34748842593</v>
+        <v>45869.48162037037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5409,7 +5414,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5446,14 +5451,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 666-2026</t>
+          <t>A 36473-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46029.58832175926</v>
+        <v>45869.48333333333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5466,7 +5471,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5503,14 +5508,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 662-2026</t>
+          <t>A 36470-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46029.58549768518</v>
+        <v>45869.47915509259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5523,7 +5528,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5560,14 +5565,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 53812-2025</t>
+          <t>A 23239-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45960</v>
+        <v>45075</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5580,7 +5585,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5.8</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5617,14 +5622,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 60243-2025</t>
+          <t>A 66284-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45994.58650462963</v>
+        <v>44518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5636,13 +5641,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>6.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5679,14 +5679,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 3191-2024</t>
+          <t>A 52666-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45316.67186342592</v>
+        <v>45955.74299768519</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5736,14 +5736,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 45525-2023</t>
+          <t>A 52667-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45194</v>
+        <v>45955.74666666667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5793,14 +5793,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 2952-2026</t>
+          <t>A 32975-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46037</v>
+        <v>44376</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5850,14 +5850,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 16773-2022</t>
+          <t>A 53898-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44673</v>
+        <v>45961.43056712963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5907,14 +5907,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 30764-2023</t>
+          <t>A 57631-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45112</v>
+        <v>45981.34748842593</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5926,13 +5926,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5969,14 +5964,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 3016-2026</t>
+          <t>A 11847-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46038</v>
+        <v>44995.33957175926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5989,7 +5984,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6026,14 +6021,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 3015-2026</t>
+          <t>A 662-2026</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46038</v>
+        <v>46029.58549768518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6046,7 +6041,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6083,14 +6078,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 51849-2023</t>
+          <t>A 666-2026</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45223.34391203704</v>
+        <v>46029.58832175926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6103,7 +6098,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>16.3</v>
+        <v>1.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6140,14 +6135,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 60018-2024</t>
+          <t>A 53812-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45642</v>
+        <v>45960</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6160,7 +6155,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6197,14 +6192,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 3375-2026</t>
+          <t>A 60243-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46042</v>
+        <v>45994.58650462963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6216,8 +6211,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6254,14 +6254,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 3824-2026</t>
+          <t>A 3015-2026</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46043.58570601852</v>
+        <v>46038</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6311,14 +6311,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 3836-2026</t>
+          <t>A 3016-2026</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46043.5925</v>
+        <v>46038</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6368,14 +6368,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 17333-2024</t>
+          <t>A 2952-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45414.5625462963</v>
+        <v>46037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6425,14 +6425,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 1791-2024</t>
+          <t>A 3375-2026</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45307.574375</v>
+        <v>46042</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6482,14 +6482,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 5276-2026</t>
+          <t>A 3836-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46037</v>
+        <v>46043.5925</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6539,14 +6539,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 2944-2026</t>
+          <t>A 3824-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46037</v>
+        <v>46043.58570601852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6596,14 +6596,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 5908-2026</t>
+          <t>A 30351-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46052.44399305555</v>
+        <v>44757</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6653,14 +6653,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 5910-2026</t>
+          <t>A 3191-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46052.44677083333</v>
+        <v>45316.67186342592</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6710,14 +6710,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 5402-2023</t>
+          <t>A 31875-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44959</v>
+        <v>44777</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6767,14 +6767,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 66305-2021</t>
+          <t>A 5276-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44518</v>
+        <v>46037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>8.300000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6824,14 +6824,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 2628-2025</t>
+          <t>A 51849-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45675.68435185185</v>
+        <v>45223.34391203704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.9</v>
+        <v>16.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6881,14 +6881,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 11452-2023</t>
+          <t>A 2944-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44993</v>
+        <v>46037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6938,14 +6938,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43908-2023</t>
+          <t>A 5908-2026</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45187</v>
+        <v>46052.44399305555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6957,13 +6957,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7000,14 +6995,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 34078-2022</t>
+          <t>A 5402-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44791</v>
+        <v>44959</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7019,13 +7014,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7062,14 +7052,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 26182-2022</t>
+          <t>A 5910-2026</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44735</v>
+        <v>46052.44677083333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7072,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7119,14 +7109,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 20505-2021</t>
+          <t>A 66293-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44313</v>
+        <v>44518</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7129,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7176,14 +7166,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 2629-2025</t>
+          <t>A 45916-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45675.6953587963</v>
+        <v>44846</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7186,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7233,14 +7223,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 5320-2023</t>
+          <t>A 2629-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44959</v>
+        <v>45675.6953587963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7243,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7290,14 +7280,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 45916-2022</t>
+          <t>A 5320-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44846</v>
+        <v>44959</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7300,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7347,14 +7337,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 16396-2025</t>
+          <t>A 11452-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45751.44219907407</v>
+        <v>44993</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7367,7 +7357,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7404,14 +7394,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 17091-2023</t>
+          <t>A 30627-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45034.53554398148</v>
+        <v>45112</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7423,8 +7413,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7461,14 +7456,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 2171-2024</t>
+          <t>A 43908-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45309</v>
+        <v>45187</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7482,11 +7477,11 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7523,14 +7518,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 21130-2025</t>
+          <t>A 8343-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45778.35857638889</v>
+        <v>45352</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7542,8 +7537,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7580,14 +7580,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 794-2024</t>
+          <t>A 60885-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45300.58149305556</v>
+        <v>44497</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7637,14 +7637,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 20902-2024</t>
+          <t>A 19676-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45439.48104166667</v>
+        <v>45770</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7694,14 +7694,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 26226-2025</t>
+          <t>A 14267-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45805.55829861111</v>
+        <v>45740.63686342593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>9.1</v>
+        <v>3.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -575,7 +575,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45925</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,14 +809,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 44867-2023</t>
+          <t>A 7444-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45190</v>
+        <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,19 +829,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>7.8</v>
+        <v>0.7</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -853,15 +853,108 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
         <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>9</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Apelticka
+Kärnticka
+Rostorangelav
+Kandelabersvamp
+Lunglav
+Granbarkgnagare
+Platt fjädermossa
+Stekelbock
+Thomsons trägnagare</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 7444-2023 artfynd.xlsx", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 7444-2023 karta.png", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 7444-2023 FSC-klagomål.docx", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 7444-2023 FSC-klagomål mail.docx", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 7444-2023 tillsynsbegäran.docx", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 7444-2023 tillsynsbegäran mail.docx", "A 7444-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 44867-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Bombmurkla
 Granticka
@@ -874,125 +967,32 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 44867-2023 artfynd.xlsx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 44867-2023 karta.png", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 44867-2023 FSC-klagomål.docx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 44867-2023 FSC-klagomål mail.docx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 44867-2023 tillsynsbegäran.docx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 44867-2023 tillsynsbegäran mail.docx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 44867-2023 prioriterade fågelarter.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 7444-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44971</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Apelticka
-Kärnticka
-Rostorangelav
-Kandelabersvamp
-Lunglav
-Granbarkgnagare
-Platt fjädermossa
-Stekelbock
-Thomsons trägnagare</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 7444-2023 artfynd.xlsx", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 7444-2023 karta.png", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 7444-2023 FSC-klagomål.docx", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 7444-2023 FSC-klagomål mail.docx", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 7444-2023 tillsynsbegäran.docx", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 7444-2023 tillsynsbegäran mail.docx", "A 7444-2023")</f>
         <v/>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         <v>45213</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45034</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1274,14 +1274,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 5455-2025</t>
+          <t>A 21831-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45693</v>
+        <v>45442</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>17.1</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1328,45 +1328,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 21831-2024</t>
+          <t>A 16973-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45442</v>
+        <v>44295</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,17 +1379,17 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1413,45 +1413,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 16973-2021</t>
+          <t>A 9553-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44295</v>
+        <v>45715</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,16 +1464,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1498,45 +1498,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9553-2025 artfynd.xlsx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9553-2025 karta.png", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9553-2025 FSC-klagomål.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9553-2025 FSC-klagomål mail.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9553-2025 tillsynsbegäran.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9553-2025 tillsynsbegäran mail.docx", "A 9553-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 53813-2025</t>
+          <t>A 11405-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45960</v>
+        <v>45726</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1549,23 +1549,23 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
@@ -1573,55 +1573,55 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Broskvaxing</t>
+          <t>Fältgentiana</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 61768-2025</t>
+          <t>A 16407-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46002.63940972222</v>
+        <v>45751.45120370371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,13 +1634,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1668,31 +1668,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Kamjordstjärna</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
         <v>45133</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1793,14 +1793,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 9553-2025</t>
+          <t>A 5455-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45715</v>
+        <v>45693</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1813,13 +1813,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>17.1</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1847,45 +1847,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9553-2025 artfynd.xlsx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9553-2025 karta.png", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9553-2025 FSC-klagomål.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9553-2025 FSC-klagomål mail.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9553-2025 tillsynsbegäran.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9553-2025 tillsynsbegäran mail.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 2214-2026</t>
+          <t>A 53813-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>46036</v>
+        <v>45960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1898,16 +1898,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1932,49 +1932,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Broskvaxing</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
-        <v/>
-      </c>
-      <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 11405-2025</t>
+          <t>A 61768-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45726</v>
+        <v>46002.63940972222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1987,13 +1983,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2011,55 +2007,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Fältgentiana</t>
+          <t>Kamjordstjärna</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 16407-2025</t>
+          <t>A 2214-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45751.45120370371</v>
+        <v>46036</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2072,17 +2068,17 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2096,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2106,31 +2102,35 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
+        <v/>
+      </c>
+      <c r="U18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
         <v>44252</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>44313</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44308.34364583333</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44518</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44735.46880787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44342.43712962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>44673</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44271</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>44384</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2836,14 +2836,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 62451-2021</t>
+          <t>A 18820-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44509</v>
+        <v>44690.39451388889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2893,14 +2893,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 64044-2021</t>
+          <t>A 62451-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2950,14 +2950,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 47652-2021</t>
+          <t>A 66256-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44448</v>
+        <v>44518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3007,14 +3007,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47654-2021</t>
+          <t>A 64044-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44448</v>
+        <v>44510</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3064,14 +3064,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 70275-2021</t>
+          <t>A 47652-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44536</v>
+        <v>44448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,13 +3083,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3126,14 +3121,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 66256-2021</t>
+          <t>A 47654-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44518</v>
+        <v>44448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3146,7 +3141,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3183,14 +3178,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 18820-2022</t>
+          <t>A 62441-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44690.39451388889</v>
+        <v>44503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3203,7 +3198,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3240,14 +3235,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 62441-2021</t>
+          <t>A 70275-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44503</v>
+        <v>44536</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3259,8 +3254,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         <v>44548.57709490741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44548.58148148148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3411,14 +3411,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 34078-2022</t>
+          <t>A 32975-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44791</v>
+        <v>44376</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3430,13 +3430,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>1.8</v>
+        <v>6.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3473,14 +3468,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 13697-2024</t>
+          <t>A 66284-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45390</v>
+        <v>44518</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3492,13 +3487,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>1.3</v>
+        <v>6.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3535,14 +3525,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 66305-2021</t>
+          <t>A 13697-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44518</v>
+        <v>45390</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3554,8 +3544,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>8.300000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3592,14 +3587,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 17091-2023</t>
+          <t>A 19676-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45034.53554398148</v>
+        <v>45770</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3612,7 +3607,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3649,14 +3644,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 1629-2024</t>
+          <t>A 8343-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45306</v>
+        <v>45352</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3674,7 +3669,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3711,14 +3706,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 26182-2022</t>
+          <t>A 30627-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44735</v>
+        <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3730,8 +3725,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3768,14 +3768,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 2628-2025</t>
+          <t>A 14267-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45675.68435185185</v>
+        <v>45740.63686342593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3825,14 +3825,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 30764-2023</t>
+          <t>A 1629-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45112</v>
+        <v>45306</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3887,14 +3887,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 17333-2024</t>
+          <t>A 26226-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45414.5625462963</v>
+        <v>45805.55829861111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.9</v>
+        <v>9.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3944,14 +3944,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 2171-2024</t>
+          <t>A 11841-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45309</v>
+        <v>44995.3221412037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3963,13 +3963,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4006,14 +4001,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 21130-2025</t>
+          <t>A 60885-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45778.35857638889</v>
+        <v>44497</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4026,7 +4021,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4063,14 +4058,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 794-2024</t>
+          <t>A 30351-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45300.58149305556</v>
+        <v>44757</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4083,7 +4078,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4120,14 +4115,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 11841-2023</t>
+          <t>A 11847-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44995.3221412037</v>
+        <v>44995.33957175926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4140,7 +4135,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4184,7 +4179,7 @@
         <v>44993</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,14 +4229,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 45525-2023</t>
+          <t>A 28189-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45194</v>
+        <v>45818.41357638889</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4254,7 +4249,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>7.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4291,14 +4286,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 44869-2025</t>
+          <t>A 31875-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45918.46758101852</v>
+        <v>44777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4311,7 +4306,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>17.1</v>
+        <v>0.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4348,14 +4343,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 20902-2024</t>
+          <t>A 34078-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45439.48104166667</v>
+        <v>44791</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4367,8 +4362,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4405,14 +4405,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 45453-2025</t>
+          <t>A 23239-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45922.48702546296</v>
+        <v>45075</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4462,14 +4462,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 26226-2025</t>
+          <t>A 3191-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45805.55829861111</v>
+        <v>45316.67186342592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>9.1</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4519,14 +4519,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 16773-2022</t>
+          <t>A 45525-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44673</v>
+        <v>45194</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4576,14 +4576,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 13040-2025</t>
+          <t>A 26182-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45734</v>
+        <v>44735</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4595,13 +4595,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4638,14 +4633,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 20505-2021</t>
+          <t>A 33975-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44313</v>
+        <v>45843.30805555556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4658,7 +4653,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4695,14 +4690,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 60018-2024</t>
+          <t>A 33974-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45642</v>
+        <v>45843.305625</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4715,7 +4710,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4752,14 +4747,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 28189-2025</t>
+          <t>A 20505-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45818.41357638889</v>
+        <v>44313</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4772,7 +4767,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>7.6</v>
+        <v>2.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4809,14 +4804,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 16396-2025</t>
+          <t>A 16773-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45751.44219907407</v>
+        <v>44673</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4829,7 +4824,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4866,14 +4861,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 47803-2025</t>
+          <t>A 33976-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45931</v>
+        <v>45843</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4886,7 +4881,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.9</v>
+        <v>6.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4923,14 +4918,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 1791-2024</t>
+          <t>A 30764-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45307.574375</v>
+        <v>45112</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4942,8 +4937,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4980,14 +4980,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 33976-2025</t>
+          <t>A 51849-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45843</v>
+        <v>45223.34391203704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6.1</v>
+        <v>16.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5037,14 +5037,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 33974-2025</t>
+          <t>A 60018-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45843.305625</v>
+        <v>45642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5094,14 +5094,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 33975-2025</t>
+          <t>A 34859-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45843.30805555556</v>
+        <v>45849.43511574074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5113,8 +5113,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>6.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5151,14 +5156,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 34859-2025</t>
+          <t>A 34864-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45849.43511574074</v>
+        <v>45849.44028935185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5176,7 +5181,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>6.1</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5213,14 +5218,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 34864-2025</t>
+          <t>A 35318-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45849.44028935185</v>
+        <v>45854.47917824074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5238,7 +5243,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5275,14 +5280,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 49090-2025</t>
+          <t>A 36470-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45937</v>
+        <v>45869.47915509259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5295,7 +5300,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5332,14 +5337,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 35318-2025</t>
+          <t>A 17333-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45854.47917824074</v>
+        <v>45414.5625462963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5351,13 +5356,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5401,7 +5401,7 @@
         <v>45869.48162037037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>45869.48333333333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5508,14 +5508,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 36470-2025</t>
+          <t>A 1791-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45869.47915509259</v>
+        <v>45307.574375</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5565,14 +5565,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23239-2023</t>
+          <t>A 66293-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45075</v>
+        <v>44518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5622,14 +5622,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 66284-2021</t>
+          <t>A 66305-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
         <v>44518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5679,14 +5679,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 52666-2025</t>
+          <t>A 2628-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45955.74299768519</v>
+        <v>45675.68435185185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5736,14 +5736,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 52667-2025</t>
+          <t>A 2629-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45955.74666666667</v>
+        <v>45675.6953587963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5793,14 +5793,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 32975-2021</t>
+          <t>A 5320-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44376</v>
+        <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>6.1</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5850,14 +5850,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 53898-2025</t>
+          <t>A 11452-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45961.43056712963</v>
+        <v>44993</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5907,14 +5907,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 57631-2025</t>
+          <t>A 43908-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45981.34748842593</v>
+        <v>45187</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5926,8 +5926,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5964,14 +5969,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 11847-2023</t>
+          <t>A 45916-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44995.33957175926</v>
+        <v>44846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5984,7 +5989,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6021,14 +6026,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 662-2026</t>
+          <t>A 16396-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46029.58549768518</v>
+        <v>45751.44219907407</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6041,7 +6046,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.4</v>
+        <v>5.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6078,14 +6083,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 666-2026</t>
+          <t>A 17091-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46029.58832175926</v>
+        <v>45034.53554398148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6098,7 +6103,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6135,14 +6140,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 53812-2025</t>
+          <t>A 44869-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45960</v>
+        <v>45918.46758101852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6155,7 +6160,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5.8</v>
+        <v>17.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6192,14 +6197,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 60243-2025</t>
+          <t>A 45453-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45994.58650462963</v>
+        <v>45922.48702546296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6211,13 +6216,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6254,14 +6254,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 3015-2026</t>
+          <t>A 13040-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46038</v>
+        <v>45734</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6273,8 +6273,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6311,14 +6316,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 3016-2026</t>
+          <t>A 2171-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46038</v>
+        <v>45309</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6330,8 +6335,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6368,14 +6378,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 2952-2026</t>
+          <t>A 21130-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46037</v>
+        <v>45778.35857638889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6388,7 +6398,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6425,14 +6435,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 3375-2026</t>
+          <t>A 47803-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46042</v>
+        <v>45931</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6445,7 +6455,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6482,14 +6492,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 3836-2026</t>
+          <t>A 794-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46043.5925</v>
+        <v>45300.58149305556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6502,7 +6512,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6539,14 +6549,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 3824-2026</t>
+          <t>A 49090-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46043.58570601852</v>
+        <v>45937</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6559,7 +6569,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6596,14 +6606,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 30351-2022</t>
+          <t>A 52667-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44757</v>
+        <v>45955.74666666667</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6616,7 +6626,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6653,14 +6663,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 3191-2024</t>
+          <t>A 52666-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45316.67186342592</v>
+        <v>45955.74299768519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6673,7 +6683,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6710,14 +6720,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 31875-2022</t>
+          <t>A 53898-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44777</v>
+        <v>45961.43056712963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6730,7 +6740,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6767,14 +6777,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 5276-2026</t>
+          <t>A 20902-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46037</v>
+        <v>45439.48104166667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6787,7 +6797,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6824,14 +6834,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 51849-2023</t>
+          <t>A 57631-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45223.34391203704</v>
+        <v>45981.34748842593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6844,7 +6854,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>16.3</v>
+        <v>3.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6881,14 +6891,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 2944-2026</t>
+          <t>A 666-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46037</v>
+        <v>46029.58832175926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6901,7 +6911,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6938,14 +6948,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 5908-2026</t>
+          <t>A 662-2026</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46052.44399305555</v>
+        <v>46029.58549768518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6958,7 +6968,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6995,14 +7005,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 5402-2023</t>
+          <t>A 53812-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44959</v>
+        <v>45960</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7015,7 +7025,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7052,14 +7062,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 5910-2026</t>
+          <t>A 60243-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46052.44677083333</v>
+        <v>45994.58650462963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7071,8 +7081,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7109,14 +7124,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 66293-2021</t>
+          <t>A 2952-2026</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44518</v>
+        <v>46037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7129,7 +7144,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7166,14 +7181,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 45916-2022</t>
+          <t>A 3016-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44846</v>
+        <v>46038</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7186,7 +7201,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7223,14 +7238,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 2629-2025</t>
+          <t>A 3015-2026</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45675.6953587963</v>
+        <v>46038</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7243,7 +7258,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7280,14 +7295,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 5320-2023</t>
+          <t>A 3375-2026</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44959</v>
+        <v>46042</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7300,7 +7315,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7337,14 +7352,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 11452-2023</t>
+          <t>A 3824-2026</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44993</v>
+        <v>46043.58570601852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7357,7 +7372,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7394,14 +7409,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 30627-2023</t>
+          <t>A 3836-2026</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45112</v>
+        <v>46043.5925</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7413,13 +7428,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7456,14 +7466,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 43908-2023</t>
+          <t>A 5276-2026</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45187</v>
+        <v>46037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7475,13 +7485,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7518,14 +7523,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 8343-2024</t>
+          <t>A 2944-2026</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45352</v>
+        <v>46037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7537,13 +7542,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7580,14 +7580,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 60885-2021</t>
+          <t>A 5908-2026</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44497</v>
+        <v>46052.44399305555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7637,14 +7637,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 19676-2025</t>
+          <t>A 5910-2026</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45770</v>
+        <v>46052.44677083333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7694,14 +7694,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 14267-2025</t>
+          <t>A 5402-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45740.63686342593</v>
+        <v>44959</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -575,7 +575,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45925</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,14 +809,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 7444-2023</t>
+          <t>A 44867-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44971</v>
+        <v>45190</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,39 +829,136 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.7</v>
+        <v>7.8</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>3</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5</v>
-      </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>9</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Bombmurkla
+Granticka
+Kandelabersvamp
+Granbräken
+Myskmadra
+Stor aspticka
+Enkelbeckasin
+Trana
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 44867-2023 artfynd.xlsx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 44867-2023 karta.png", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 44867-2023 FSC-klagomål.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 44867-2023 FSC-klagomål mail.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 44867-2023 tillsynsbegäran.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 44867-2023 tillsynsbegäran mail.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 44867-2023 prioriterade fågelarter.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 7444-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44971</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Apelticka
 Kärnticka
@@ -874,125 +971,28 @@
 Thomsons trägnagare</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 7444-2023 artfynd.xlsx", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 7444-2023 karta.png", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 7444-2023 FSC-klagomål.docx", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 7444-2023 FSC-klagomål mail.docx", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 7444-2023 tillsynsbegäran.docx", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 7444-2023 tillsynsbegäran mail.docx", "A 7444-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 44867-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Bombmurkla
-Granticka
-Kandelabersvamp
-Granbräken
-Myskmadra
-Stor aspticka
-Enkelbeckasin
-Trana
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 44867-2023 artfynd.xlsx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 44867-2023 karta.png", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 44867-2023 FSC-klagomål.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 44867-2023 FSC-klagomål mail.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 44867-2023 tillsynsbegäran.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 44867-2023 tillsynsbegäran mail.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 44867-2023 prioriterade fågelarter.docx", "A 44867-2023")</f>
         <v/>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         <v>45213</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45034</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1274,14 +1274,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 21831-2024</t>
+          <t>A 5455-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45442</v>
+        <v>45693</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.5</v>
+        <v>17.1</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1328,45 +1328,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 16973-2021</t>
+          <t>A 2214-2026</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44295</v>
+        <v>46036</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1413,45 +1413,49 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
+        <v/>
+      </c>
+      <c r="U10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 9553-2025</t>
+          <t>A 16973-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45715</v>
+        <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,17 +1468,17 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -1488,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1498,45 +1502,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9553-2025 artfynd.xlsx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9553-2025 karta.png", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9553-2025 FSC-klagomål.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9553-2025 FSC-klagomål mail.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9553-2025 tillsynsbegäran.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9553-2025 tillsynsbegäran mail.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 11405-2025</t>
+          <t>A 53813-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45726</v>
+        <v>45960</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1549,13 +1553,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1564,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1573,55 +1577,55 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Fältgentiana</t>
+          <t>Broskvaxing</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 16407-2025</t>
+          <t>A 33770-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45751.45120370371</v>
+        <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,8 +1637,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1643,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1658,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1668,45 +1677,49 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Slaguggla</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 33770-2023</t>
+          <t>A 9553-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45133</v>
+        <v>45715</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,13 +1731,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1733,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1748,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1758,49 +1766,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Slaguggla</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9553-2025 artfynd.xlsx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9553-2025 karta.png", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9553-2025 FSC-klagomål.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9553-2025 FSC-klagomål mail.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9553-2025 tillsynsbegäran.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9553-2025 tillsynsbegäran mail.docx", "A 9553-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 5455-2025</t>
+          <t>A 61768-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45693</v>
+        <v>46002.63940972222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1813,7 +1817,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>17.1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1847,45 +1851,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Kamjordstjärna</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 53813-2025</t>
+          <t>A 11405-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45960</v>
+        <v>45726</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1898,23 +1902,23 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
@@ -1922,55 +1926,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Broskvaxing</t>
+          <t>Fältgentiana</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 61768-2025</t>
+          <t>A 16407-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>46002.63940972222</v>
+        <v>45751.45120370371</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1983,13 +1987,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2017,45 +2021,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Kamjordstjärna</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 2214-2026</t>
+          <t>A 21831-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46036</v>
+        <v>45442</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2068,16 +2072,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2092,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2102,35 +2106,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
-        <v/>
-      </c>
-      <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
         <v>44252</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>44313</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44308.34364583333</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44518</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44735.46880787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44342.43712962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>44673</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44271</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>44384</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2836,14 +2836,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 18820-2022</t>
+          <t>A 62451-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44690.39451388889</v>
+        <v>44509</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2893,14 +2893,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 62451-2021</t>
+          <t>A 64044-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2950,14 +2950,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 66256-2021</t>
+          <t>A 47652-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44518</v>
+        <v>44448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3007,14 +3007,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 64044-2021</t>
+          <t>A 47654-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44510</v>
+        <v>44448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3064,14 +3064,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 47652-2021</t>
+          <t>A 70275-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44448</v>
+        <v>44536</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,8 +3083,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3121,14 +3126,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 47654-2021</t>
+          <t>A 66256-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44448</v>
+        <v>44518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3141,7 +3146,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3178,14 +3183,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 62441-2021</t>
+          <t>A 18820-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44503</v>
+        <v>44690.39451388889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3198,7 +3203,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3235,14 +3240,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 70275-2021</t>
+          <t>A 62441-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44536</v>
+        <v>44503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,13 +3259,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         <v>44548.57709490741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44548.58148148148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3411,14 +3411,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 32975-2021</t>
+          <t>A 34078-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44376</v>
+        <v>44791</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3430,8 +3430,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>6.1</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3468,14 +3473,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 66284-2021</t>
+          <t>A 17091-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44518</v>
+        <v>45034.53554398148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3488,7 +3493,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6.9</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3525,14 +3530,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 13697-2024</t>
+          <t>A 2628-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45390</v>
+        <v>45675.68435185185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3544,13 +3549,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3587,14 +3587,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 19676-2025</t>
+          <t>A 26182-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45770</v>
+        <v>44735</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3644,14 +3644,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 8343-2024</t>
+          <t>A 17333-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45352</v>
+        <v>45414.5625462963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3663,13 +3663,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3706,14 +3701,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 30627-2023</t>
+          <t>A 11841-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45112</v>
+        <v>44995.3221412037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3725,13 +3720,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3768,14 +3758,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 14267-2025</t>
+          <t>A 20902-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45740.63686342593</v>
+        <v>45439.48104166667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3788,7 +3778,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3825,14 +3815,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 1629-2024</t>
+          <t>A 11450-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45306</v>
+        <v>44993</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3844,13 +3834,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3887,14 +3872,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 26226-2025</t>
+          <t>A 45525-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45805.55829861111</v>
+        <v>45194</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3907,7 +3892,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>9.1</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3944,14 +3929,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 11841-2023</t>
+          <t>A 26226-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44995.3221412037</v>
+        <v>45805.55829861111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3964,7 +3949,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.9</v>
+        <v>9.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4001,14 +3986,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 60885-2021</t>
+          <t>A 28189-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44497</v>
+        <v>45818.41357638889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4021,7 +4006,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>7.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4058,14 +4043,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 30351-2022</t>
+          <t>A 16773-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44757</v>
+        <v>44673</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4078,7 +4063,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5.7</v>
+        <v>1.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4115,14 +4100,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 11847-2023</t>
+          <t>A 20505-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44995.33957175926</v>
+        <v>44313</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4135,7 +4120,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4172,14 +4157,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 11450-2023</t>
+          <t>A 60018-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44993</v>
+        <v>45642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4192,7 +4177,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4229,14 +4214,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 28189-2025</t>
+          <t>A 16396-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45818.41357638889</v>
+        <v>45751.44219907407</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4249,7 +4234,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>7.6</v>
+        <v>5.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4286,14 +4271,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 31875-2022</t>
+          <t>A 33976-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44777</v>
+        <v>45843</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4306,7 +4291,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.7</v>
+        <v>6.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4343,14 +4328,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 34078-2022</t>
+          <t>A 33974-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44791</v>
+        <v>45843.305625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4362,13 +4347,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4405,14 +4385,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 23239-2023</t>
+          <t>A 33975-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45075</v>
+        <v>45843.30805555556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4425,7 +4405,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4462,14 +4442,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 3191-2024</t>
+          <t>A 34859-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45316.67186342592</v>
+        <v>45849.43511574074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4481,8 +4461,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4519,14 +4504,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 45525-2023</t>
+          <t>A 34864-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45194</v>
+        <v>45849.44028935185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4538,8 +4523,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4576,14 +4566,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 26182-2022</t>
+          <t>A 1791-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44735</v>
+        <v>45307.574375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4596,7 +4586,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4633,14 +4623,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 33975-2025</t>
+          <t>A 35318-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45843.30805555556</v>
+        <v>45854.47917824074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4652,8 +4642,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4690,14 +4685,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 33974-2025</t>
+          <t>A 36472-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45843.305625</v>
+        <v>45869.48162037037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4710,7 +4705,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4747,14 +4742,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 20505-2021</t>
+          <t>A 36473-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44313</v>
+        <v>45869.48333333333</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4767,7 +4762,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4804,14 +4799,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 16773-2022</t>
+          <t>A 36470-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44673</v>
+        <v>45869.47915509259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4824,7 +4819,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4861,14 +4856,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 33976-2025</t>
+          <t>A 23239-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45843</v>
+        <v>45075</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4881,7 +4876,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6.1</v>
+        <v>1.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4918,14 +4913,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 30764-2023</t>
+          <t>A 44869-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45112</v>
+        <v>45918.46758101852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4937,13 +4932,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>17.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4980,14 +4970,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 51849-2023</t>
+          <t>A 45453-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45223.34391203704</v>
+        <v>45922.48702546296</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5000,7 +4990,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>16.3</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5037,14 +5027,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 60018-2024</t>
+          <t>A 13040-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45642</v>
+        <v>45734</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5056,8 +5046,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5094,14 +5089,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 34859-2025</t>
+          <t>A 47803-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45849.43511574074</v>
+        <v>45931</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5113,13 +5108,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>6.1</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5156,14 +5146,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 34864-2025</t>
+          <t>A 66284-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45849.44028935185</v>
+        <v>44518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5175,13 +5165,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>6.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5218,14 +5203,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 35318-2025</t>
+          <t>A 32975-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45854.47917824074</v>
+        <v>44376</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5237,13 +5222,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2.2</v>
+        <v>6.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5280,14 +5260,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 36470-2025</t>
+          <t>A 49090-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45869.47915509259</v>
+        <v>45937</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5300,7 +5280,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5337,14 +5317,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 17333-2024</t>
+          <t>A 11847-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45414.5625462963</v>
+        <v>44995.33957175926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5357,7 +5337,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5394,14 +5374,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 36472-2025</t>
+          <t>A 52666-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45869.48162037037</v>
+        <v>45955.74299768519</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5414,7 +5394,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5451,14 +5431,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 36473-2025</t>
+          <t>A 52667-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45869.48333333333</v>
+        <v>45955.74666666667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5471,7 +5451,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5508,14 +5488,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 1791-2024</t>
+          <t>A 53898-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45307.574375</v>
+        <v>45961.43056712963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5528,7 +5508,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5565,14 +5545,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 66293-2021</t>
+          <t>A 57631-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44518</v>
+        <v>45981.34748842593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5585,7 +5565,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5622,14 +5602,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 66305-2021</t>
+          <t>A 30351-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44518</v>
+        <v>44757</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5642,7 +5622,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>8.300000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5679,14 +5659,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 2628-2025</t>
+          <t>A 3191-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45675.68435185185</v>
+        <v>45316.67186342592</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5699,7 +5679,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5736,14 +5716,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 2629-2025</t>
+          <t>A 662-2026</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45675.6953587963</v>
+        <v>46029.58549768518</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5756,7 +5736,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5793,14 +5773,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 5320-2023</t>
+          <t>A 666-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44959</v>
+        <v>46029.58832175926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5813,7 +5793,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5850,14 +5830,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 11452-2023</t>
+          <t>A 31875-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44993</v>
+        <v>44777</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5870,7 +5850,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5907,14 +5887,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 43908-2023</t>
+          <t>A 53812-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45187</v>
+        <v>45960</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5926,13 +5906,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>1.7</v>
+        <v>5.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5969,14 +5944,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 45916-2022</t>
+          <t>A 51849-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44846</v>
+        <v>45223.34391203704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5989,7 +5964,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.8</v>
+        <v>16.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6026,14 +6001,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 16396-2025</t>
+          <t>A 66293-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45751.44219907407</v>
+        <v>44518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6046,7 +6021,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6083,14 +6058,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 17091-2023</t>
+          <t>A 60243-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45034.53554398148</v>
+        <v>45994.58650462963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6102,8 +6077,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6140,14 +6120,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 44869-2025</t>
+          <t>A 45916-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45918.46758101852</v>
+        <v>44846</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6160,7 +6140,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>17.1</v>
+        <v>3.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6197,14 +6177,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 45453-2025</t>
+          <t>A 3015-2026</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45922.48702546296</v>
+        <v>46038</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6217,7 +6197,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6254,14 +6234,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 13040-2025</t>
+          <t>A 3016-2026</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45734</v>
+        <v>46038</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6273,13 +6253,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6316,14 +6291,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 2171-2024</t>
+          <t>A 2952-2026</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45309</v>
+        <v>46037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6335,13 +6310,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6378,14 +6348,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 21130-2025</t>
+          <t>A 3375-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45778.35857638889</v>
+        <v>46042</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6368,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6435,14 +6405,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 47803-2025</t>
+          <t>A 2629-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45931</v>
+        <v>45675.6953587963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6425,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6492,14 +6462,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 794-2024</t>
+          <t>A 5320-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45300.58149305556</v>
+        <v>44959</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6482,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6549,14 +6519,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 49090-2025</t>
+          <t>A 3836-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45937</v>
+        <v>46043.5925</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6539,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6606,14 +6576,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 52667-2025</t>
+          <t>A 3824-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45955.74666666667</v>
+        <v>46043.58570601852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6596,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6663,14 +6633,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 52666-2025</t>
+          <t>A 5276-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45955.74299768519</v>
+        <v>46037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6653,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6720,14 +6690,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 53898-2025</t>
+          <t>A 2944-2026</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45961.43056712963</v>
+        <v>46037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6710,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6777,14 +6747,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 20902-2024</t>
+          <t>A 5908-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45439.48104166667</v>
+        <v>46052.44399305555</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6767,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6834,14 +6804,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 57631-2025</t>
+          <t>A 5402-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45981.34748842593</v>
+        <v>44959</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6824,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6891,14 +6861,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 666-2026</t>
+          <t>A 5910-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46029.58832175926</v>
+        <v>46052.44677083333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6881,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6948,14 +6918,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 662-2026</t>
+          <t>A 11452-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46029.58549768518</v>
+        <v>44993</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6938,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7005,14 +6975,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 53812-2025</t>
+          <t>A 30627-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45960</v>
+        <v>45112</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7024,8 +6994,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7062,14 +7037,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 60243-2025</t>
+          <t>A 43908-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45994.58650462963</v>
+        <v>45187</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7083,11 +7058,11 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7124,14 +7099,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 2952-2026</t>
+          <t>A 8343-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46037</v>
+        <v>45352</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7143,8 +7118,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7181,14 +7161,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 3016-2026</t>
+          <t>A 60885-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46038</v>
+        <v>44497</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7201,7 +7181,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7238,14 +7218,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 3015-2026</t>
+          <t>A 19676-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46038</v>
+        <v>45770</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7258,7 +7238,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7295,14 +7275,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 3375-2026</t>
+          <t>A 14267-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46042</v>
+        <v>45740.63686342593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7315,7 +7295,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7352,14 +7332,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 3824-2026</t>
+          <t>A 13697-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46043.58570601852</v>
+        <v>45390</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7371,8 +7351,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7409,14 +7394,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 3836-2026</t>
+          <t>A 66305-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46043.5925</v>
+        <v>44518</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7429,7 +7414,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7466,14 +7451,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 5276-2026</t>
+          <t>A 1629-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46037</v>
+        <v>45306</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7485,8 +7470,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7523,14 +7513,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 2944-2026</t>
+          <t>A 30764-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46037</v>
+        <v>45112</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7542,8 +7532,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7580,14 +7575,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 5908-2026</t>
+          <t>A 2171-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46052.44399305555</v>
+        <v>45309</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7599,8 +7594,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7637,14 +7637,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 5910-2026</t>
+          <t>A 21130-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46052.44677083333</v>
+        <v>45778.35857638889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7694,14 +7694,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 5402-2023</t>
+          <t>A 794-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44959</v>
+        <v>45300.58149305556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -575,7 +575,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45925</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>45190</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45213</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45034</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45693</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,14 +1359,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 2214-2026</t>
+          <t>A 61768-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>46036</v>
+        <v>46002.63940972222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,16 +1379,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1413,49 +1413,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Kamjordstjärna</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 16973-2021</t>
+          <t>A 2214-2026</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44295</v>
+        <v>46036</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1464,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1502,31 +1498,35 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
         <v>45960</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1618,14 +1618,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 33770-2023</t>
+          <t>A 16973-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45133</v>
+        <v>44295</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,16 +1637,11 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1677,49 +1672,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Slaguggla</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 9553-2025</t>
+          <t>A 33770-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45715</v>
+        <v>45133</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1731,8 +1722,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1741,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1756,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1766,45 +1762,49 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Slaguggla</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9553-2025 artfynd.xlsx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9553-2025 karta.png", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9553-2025 FSC-klagomål.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9553-2025 FSC-klagomål mail.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9553-2025 tillsynsbegäran.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9553-2025 tillsynsbegäran mail.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 61768-2025</t>
+          <t>A 9553-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46002.63940972222</v>
+        <v>45715</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,13 +1817,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1851,31 +1851,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Kamjordstjärna</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9553-2025 artfynd.xlsx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9553-2025 karta.png", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9553-2025 FSC-klagomål.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9553-2025 FSC-klagomål mail.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9553-2025 tillsynsbegäran.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9553-2025 tillsynsbegäran mail.docx", "A 9553-2025")</f>
         <v/>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
         <v>45726</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>45751.45120370371</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45442</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>44252</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>44313</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44308.34364583333</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44518</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44735.46880787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44342.43712962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>44673</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44271</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>44384</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44509</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44510</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44536</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>44518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44690.39451388889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44548.57709490741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44548.58148148148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44791</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45034.53554398148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3530,14 +3530,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 2628-2025</t>
+          <t>A 26182-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45675.68435185185</v>
+        <v>44735</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3587,14 +3587,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 26182-2022</t>
+          <t>A 17333-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44735</v>
+        <v>45414.5625462963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3644,14 +3644,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 17333-2024</t>
+          <t>A 2628-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45414.5625462963</v>
+        <v>45675.68435185185</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3701,14 +3701,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 11841-2023</t>
+          <t>A 3824-2026</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44995.3221412037</v>
+        <v>46043.58570601852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>45439.48104166667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3815,14 +3815,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 11450-2023</t>
+          <t>A 11841-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44993</v>
+        <v>44995.3221412037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3872,14 +3872,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 45525-2023</t>
+          <t>A 26226-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45194</v>
+        <v>45805.55829861111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>9.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3929,14 +3929,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 26226-2025</t>
+          <t>A 11450-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45805.55829861111</v>
+        <v>44993</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>9.1</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3986,14 +3986,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 28189-2025</t>
+          <t>A 45525-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45818.41357638889</v>
+        <v>45194</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>7.6</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4043,14 +4043,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 16773-2022</t>
+          <t>A 28189-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44673</v>
+        <v>45818.41357638889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.9</v>
+        <v>7.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4100,14 +4100,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 20505-2021</t>
+          <t>A 5276-2026</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44313</v>
+        <v>46037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4157,14 +4157,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 60018-2024</t>
+          <t>A 2944-2026</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45642</v>
+        <v>46037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4214,14 +4214,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 16396-2025</t>
+          <t>A 16773-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45751.44219907407</v>
+        <v>44673</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4271,14 +4271,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 33976-2025</t>
+          <t>A 44869-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45843</v>
+        <v>45918.46758101852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>6.1</v>
+        <v>17.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4328,14 +4328,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 33974-2025</t>
+          <t>A 45453-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45843.305625</v>
+        <v>45922.48702546296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4385,14 +4385,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 33975-2025</t>
+          <t>A 5908-2026</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45843.30805555556</v>
+        <v>46052.44399305555</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4442,14 +4442,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 34859-2025</t>
+          <t>A 5402-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45849.43511574074</v>
+        <v>44959</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4461,13 +4461,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>6.1</v>
+        <v>4.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4504,14 +4499,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 34864-2025</t>
+          <t>A 20505-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45849.44028935185</v>
+        <v>44313</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4523,13 +4518,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4566,14 +4556,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 1791-2024</t>
+          <t>A 13040-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45307.574375</v>
+        <v>45734</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4585,8 +4575,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4623,14 +4618,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 35318-2025</t>
+          <t>A 60018-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45854.47917824074</v>
+        <v>45642</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4642,13 +4637,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4685,14 +4675,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 36472-2025</t>
+          <t>A 33976-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45869.48162037037</v>
+        <v>45843</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4705,7 +4695,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>6.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4742,14 +4732,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 36473-2025</t>
+          <t>A 16396-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45869.48333333333</v>
+        <v>45751.44219907407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4762,7 +4752,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>5.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4799,14 +4789,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 36470-2025</t>
+          <t>A 33974-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45869.47915509259</v>
+        <v>45843.305625</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4819,7 +4809,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4856,14 +4846,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 23239-2023</t>
+          <t>A 5910-2026</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45075</v>
+        <v>46052.44677083333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4876,7 +4866,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4913,14 +4903,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 44869-2025</t>
+          <t>A 33975-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45918.46758101852</v>
+        <v>45843.30805555556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4933,7 +4923,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>17.1</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4970,14 +4960,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 45453-2025</t>
+          <t>A 47803-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45922.48702546296</v>
+        <v>45931</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4990,7 +4980,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5027,14 +5017,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 13040-2025</t>
+          <t>A 34859-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45734</v>
+        <v>45849.43511574074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5048,11 +5038,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.6</v>
+        <v>6.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5089,14 +5079,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 47803-2025</t>
+          <t>A 34864-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45931</v>
+        <v>45849.44028935185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5108,8 +5098,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5146,14 +5141,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 66284-2021</t>
+          <t>A 35318-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44518</v>
+        <v>45854.47917824074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5165,8 +5160,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>6.9</v>
+        <v>2.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5203,14 +5203,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 32975-2021</t>
+          <t>A 49090-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44376</v>
+        <v>45937</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6.1</v>
+        <v>4.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5260,14 +5260,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 49090-2025</t>
+          <t>A 1791-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45937</v>
+        <v>45307.574375</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5317,14 +5317,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 11847-2023</t>
+          <t>A 36472-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44995.33957175926</v>
+        <v>45869.48162037037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5374,14 +5374,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 52666-2025</t>
+          <t>A 36473-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45955.74299768519</v>
+        <v>45869.48333333333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5431,14 +5431,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 52667-2025</t>
+          <t>A 36470-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45955.74666666667</v>
+        <v>45869.47915509259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5488,14 +5488,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 53898-2025</t>
+          <t>A 52666-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45961.43056712963</v>
+        <v>45955.74299768519</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5545,14 +5545,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 57631-2025</t>
+          <t>A 52667-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45981.34748842593</v>
+        <v>45955.74666666667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5602,14 +5602,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 30351-2022</t>
+          <t>A 53898-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44757</v>
+        <v>45961.43056712963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5659,14 +5659,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 3191-2024</t>
+          <t>A 23239-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45316.67186342592</v>
+        <v>45075</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5716,14 +5716,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 662-2026</t>
+          <t>A 57631-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46029.58549768518</v>
+        <v>45981.34748842593</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5773,14 +5773,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 666-2026</t>
+          <t>A 662-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46029.58832175926</v>
+        <v>46029.58549768518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5830,14 +5830,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 31875-2022</t>
+          <t>A 666-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44777</v>
+        <v>46029.58832175926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5887,14 +5887,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 53812-2025</t>
+          <t>A 66284-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45960</v>
+        <v>44518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.8</v>
+        <v>6.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5944,14 +5944,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 51849-2023</t>
+          <t>A 53812-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45223.34391203704</v>
+        <v>45960</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>16.3</v>
+        <v>5.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6001,14 +6001,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 66293-2021</t>
+          <t>A 32975-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44518</v>
+        <v>44376</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.6</v>
+        <v>6.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6065,7 +6065,7 @@
         <v>45994.58650462963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6120,14 +6120,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 45916-2022</t>
+          <t>A 3015-2026</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44846</v>
+        <v>46038</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6177,14 +6177,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 3015-2026</t>
+          <t>A 3016-2026</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
         <v>46038</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6234,14 +6234,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 3016-2026</t>
+          <t>A 2952-2026</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46038</v>
+        <v>46037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6291,14 +6291,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 2952-2026</t>
+          <t>A 3375-2026</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46037</v>
+        <v>46042</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6348,14 +6348,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 3375-2026</t>
+          <t>A 3836-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46042</v>
+        <v>46043.5925</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6405,14 +6405,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 2629-2025</t>
+          <t>A 11847-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45675.6953587963</v>
+        <v>44995.33957175926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6462,14 +6462,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 5320-2023</t>
+          <t>A 30351-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44959</v>
+        <v>44757</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>5.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6519,14 +6519,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 3836-2026</t>
+          <t>A 3191-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46043.5925</v>
+        <v>45316.67186342592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6576,14 +6576,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 3824-2026</t>
+          <t>A 31875-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46043.58570601852</v>
+        <v>44777</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6633,14 +6633,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 5276-2026</t>
+          <t>A 51849-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46037</v>
+        <v>45223.34391203704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.9</v>
+        <v>16.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6690,14 +6690,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 2944-2026</t>
+          <t>A 66293-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46037</v>
+        <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6747,14 +6747,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 5908-2026</t>
+          <t>A 45916-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46052.44399305555</v>
+        <v>44846</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6804,14 +6804,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 5402-2023</t>
+          <t>A 2629-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44959</v>
+        <v>45675.6953587963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6861,14 +6861,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 5910-2026</t>
+          <t>A 5320-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46052.44677083333</v>
+        <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6925,7 +6925,7 @@
         <v>44993</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>45112</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>45187</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>45352</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44497</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>45770</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>45740.63686342593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>45390</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44518</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>45306</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>45112</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>45309</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>45778.35857638889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>45300.58149305556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z115"/>
+  <dimension ref="A1:Z116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45925</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>45190</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45213</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45034</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45693</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,14 +1359,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 61768-2025</t>
+          <t>A 53813-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>46002.63940972222</v>
+        <v>45960</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1413,45 +1413,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Kamjordstjärna</t>
+          <t>Broskvaxing</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 2214-2026</t>
+          <t>A 61768-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>46036</v>
+        <v>46002.63940972222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,16 +1464,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1498,49 +1498,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Kamjordstjärna</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
-        <v/>
-      </c>
-      <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 53813-2025</t>
+          <t>A 16973-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45960</v>
+        <v>44295</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,17 +1549,17 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1577,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1587,45 +1583,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Broskvaxing</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 16973-2021</t>
+          <t>A 2214-2026</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44295</v>
+        <v>46036</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1638,7 +1634,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1672,45 +1668,49 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
+        <v/>
+      </c>
+      <c r="U13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 33770-2023</t>
+          <t>A 9561-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45133</v>
+        <v>46071.64916666667</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,14 +1724,14 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,49 +1762,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Slaguggla</t>
+          <t>Svartöra</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9561-2026 artfynd.xlsx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9561-2026 karta.png", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9561-2026 FSC-klagomål.docx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9561-2026 FSC-klagomål mail.docx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9561-2026 tillsynsbegäran.docx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9561-2026 tillsynsbegäran mail.docx", "A 9561-2026")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 9553-2025</t>
+          <t>A 33770-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45715</v>
+        <v>45133</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1816,8 +1812,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1826,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1841,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1851,45 +1852,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Slaguggla</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9553-2025 artfynd.xlsx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9553-2025 karta.png", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9553-2025 FSC-klagomål.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9553-2025 FSC-klagomål mail.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9553-2025 tillsynsbegäran.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9553-2025 tillsynsbegäran mail.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 11405-2025</t>
+          <t>A 9553-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45726</v>
+        <v>45715</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1902,10 +1907,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1917,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1926,55 +1931,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Fältgentiana</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9553-2025 artfynd.xlsx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9553-2025 karta.png", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9553-2025 FSC-klagomål.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9553-2025 FSC-klagomål mail.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9553-2025 tillsynsbegäran.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9553-2025 tillsynsbegäran mail.docx", "A 9553-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 16407-2025</t>
+          <t>A 11405-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45751.45120370371</v>
+        <v>45726</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1987,23 +1992,23 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
@@ -2011,55 +2016,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fältgentiana</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 21831-2024</t>
+          <t>A 16407-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45442</v>
+        <v>45751.45120370371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2072,7 +2077,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2110,41 +2115,41 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 9725-2021</t>
+          <t>A 21831-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44252</v>
+        <v>45442</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2157,10 +2162,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2187,21 +2192,49 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 19796-2021</t>
+          <t>A 9725-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44313</v>
+        <v>44252</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2214,7 +2247,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>14.6</v>
+        <v>0.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2251,14 +2284,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 18897-2021</t>
+          <t>A 19796-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44308.34364583333</v>
+        <v>44313</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2270,13 +2303,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>1.2</v>
+        <v>14.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2313,14 +2341,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 20827-2021</t>
+          <t>A 18897-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44318</v>
+        <v>44308.34364583333</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2332,8 +2360,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2370,14 +2403,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 66298-2021</t>
+          <t>A 20827-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44518</v>
+        <v>44318</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2390,7 +2423,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2427,14 +2460,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 26239-2022</t>
+          <t>A 66298-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44735.46880787037</v>
+        <v>44518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2447,7 +2480,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2484,14 +2517,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 31143-2021</t>
+          <t>A 26239-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44368</v>
+        <v>44735.46880787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2504,7 +2537,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>13.1</v>
+        <v>4.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2541,14 +2574,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 25259-2021</t>
+          <t>A 31143-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44342.43712962963</v>
+        <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2560,13 +2593,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>13.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,14 +2631,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 46149-2022</t>
+          <t>A 25259-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44847</v>
+        <v>44342.43712962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,8 +2650,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2660,14 +2693,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 16775-2022</t>
+          <t>A 46149-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44673</v>
+        <v>44847</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2680,7 +2713,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2717,14 +2750,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 12864-2021</t>
+          <t>A 16775-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44271</v>
+        <v>44673</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,13 +2769,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2779,14 +2807,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 35232-2021</t>
+          <t>A 12864-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44384</v>
+        <v>44271</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,8 +2826,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2836,14 +2869,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 62451-2021</t>
+          <t>A 35232-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44509</v>
+        <v>44384</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2856,7 +2889,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2893,14 +2926,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 64044-2021</t>
+          <t>A 62451-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2913,7 +2946,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2950,14 +2983,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 47652-2021</t>
+          <t>A 64044-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44448</v>
+        <v>44510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2970,7 +3003,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3007,14 +3040,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47654-2021</t>
+          <t>A 47652-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>44448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3027,7 +3060,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3064,14 +3097,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 70275-2021</t>
+          <t>A 47654-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44536</v>
+        <v>44448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,13 +3116,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3126,14 +3154,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 66256-2021</t>
+          <t>A 70275-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44518</v>
+        <v>44536</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3145,8 +3173,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3183,14 +3216,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 18820-2022</t>
+          <t>A 66256-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44690.39451388889</v>
+        <v>44518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3203,7 +3236,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3240,14 +3273,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 62441-2021</t>
+          <t>A 18820-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44503</v>
+        <v>44690.39451388889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3260,7 +3293,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3297,14 +3330,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 72966-2021</t>
+          <t>A 62441-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44548.57709490741</v>
+        <v>44503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3317,7 +3350,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3354,14 +3387,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 72967-2021</t>
+          <t>A 72966-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44548.58148148148</v>
+        <v>44548.57709490741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3374,7 +3407,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3411,14 +3444,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 34078-2022</t>
+          <t>A 72967-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44791</v>
+        <v>44548.58148148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3430,13 +3463,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3473,14 +3501,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 17091-2023</t>
+          <t>A 34078-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45034.53554398148</v>
+        <v>44791</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3492,8 +3520,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3530,14 +3563,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 26182-2022</t>
+          <t>A 17091-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44735</v>
+        <v>45034.53554398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3550,7 +3583,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3587,14 +3620,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 17333-2024</t>
+          <t>A 794-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45414.5625462963</v>
+        <v>45300.58149305556</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3607,7 +3640,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3644,14 +3677,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 2628-2025</t>
+          <t>A 26182-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45675.68435185185</v>
+        <v>44735</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3664,7 +3697,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3701,14 +3734,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 3824-2026</t>
+          <t>A 2628-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>46043.58570601852</v>
+        <v>45675.68435185185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3721,7 +3754,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3758,14 +3791,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 20902-2024</t>
+          <t>A 17333-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45439.48104166667</v>
+        <v>45414.5625462963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3778,7 +3811,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3815,14 +3848,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 11841-2023</t>
+          <t>A 20902-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44995.3221412037</v>
+        <v>45439.48104166667</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3835,7 +3868,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3879,7 +3912,7 @@
         <v>45805.55829861111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3929,14 +3962,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 11450-2023</t>
+          <t>A 57631-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44993</v>
+        <v>45981.34748842593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3949,7 +3982,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3986,14 +4019,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 45525-2023</t>
+          <t>A 11841-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45194</v>
+        <v>44995.3221412037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4006,7 +4039,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4043,14 +4076,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 28189-2025</t>
+          <t>A 11450-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45818.41357638889</v>
+        <v>44993</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4063,7 +4096,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>7.6</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4100,14 +4133,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 5276-2026</t>
+          <t>A 45525-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46037</v>
+        <v>45194</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4120,7 +4153,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4157,14 +4190,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 2944-2026</t>
+          <t>A 28189-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>46037</v>
+        <v>45818.41357638889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4177,7 +4210,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.7</v>
+        <v>7.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4214,14 +4247,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 16773-2022</t>
+          <t>A 44869-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44673</v>
+        <v>45918.46758101852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4234,7 +4267,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>17.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4271,14 +4304,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 44869-2025</t>
+          <t>A 45453-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45918.46758101852</v>
+        <v>45922.48702546296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4291,7 +4324,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>17.1</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4328,14 +4361,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 45453-2025</t>
+          <t>A 13040-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45922.48702546296</v>
+        <v>45734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4347,8 +4380,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4385,14 +4423,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 5908-2026</t>
+          <t>A 16773-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>46052.44399305555</v>
+        <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4405,7 +4443,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4442,14 +4480,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 5402-2023</t>
+          <t>A 47803-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44959</v>
+        <v>45931</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4462,7 +4500,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4506,7 +4544,7 @@
         <v>44313</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4556,14 +4594,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 13040-2025</t>
+          <t>A 60018-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45734</v>
+        <v>45642</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4575,13 +4613,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4618,14 +4651,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 60018-2024</t>
+          <t>A 16396-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45642</v>
+        <v>45751.44219907407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4638,7 +4671,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4675,14 +4708,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 33976-2025</t>
+          <t>A 49090-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45843</v>
+        <v>45937</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4695,7 +4728,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>6.1</v>
+        <v>4.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4732,14 +4765,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 16396-2025</t>
+          <t>A 33976-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45751.44219907407</v>
+        <v>45843</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4752,7 +4785,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4796,7 +4829,7 @@
         <v>45843.305625</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4846,14 +4879,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 5910-2026</t>
+          <t>A 33975-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>46052.44677083333</v>
+        <v>45843.30805555556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4866,7 +4899,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4903,14 +4936,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 33975-2025</t>
+          <t>A 34859-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45843.30805555556</v>
+        <v>45849.43511574074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4922,8 +4955,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>6.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4960,14 +4998,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 47803-2025</t>
+          <t>A 34864-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45931</v>
+        <v>45849.44028935185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4979,8 +5017,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5017,14 +5060,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 34859-2025</t>
+          <t>A 35318-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45849.43511574074</v>
+        <v>45854.47917824074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5042,7 +5085,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>6.1</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5079,14 +5122,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 34864-2025</t>
+          <t>A 1791-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45849.44028935185</v>
+        <v>45307.574375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5098,13 +5141,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5141,14 +5179,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 35318-2025</t>
+          <t>A 52666-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45854.47917824074</v>
+        <v>45955.74299768519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5160,13 +5198,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5203,14 +5236,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 49090-2025</t>
+          <t>A 52667-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45937</v>
+        <v>45955.74666666667</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5223,7 +5256,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5260,14 +5293,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 1791-2024</t>
+          <t>A 36472-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45307.574375</v>
+        <v>45869.48162037037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5280,7 +5313,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5317,14 +5350,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 36472-2025</t>
+          <t>A 36473-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45869.48162037037</v>
+        <v>45869.48333333333</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5337,7 +5370,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5374,14 +5407,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 36473-2025</t>
+          <t>A 36470-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45869.48333333333</v>
+        <v>45869.47915509259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5394,7 +5427,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5431,14 +5464,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 36470-2025</t>
+          <t>A 53898-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45869.47915509259</v>
+        <v>45961.43056712963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5451,7 +5484,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5488,14 +5521,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 52666-2025</t>
+          <t>A 53812-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45955.74299768519</v>
+        <v>45960</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5508,7 +5541,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5545,14 +5578,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 52667-2025</t>
+          <t>A 23239-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45955.74666666667</v>
+        <v>45075</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5565,7 +5598,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5602,14 +5635,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 53898-2025</t>
+          <t>A 60243-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45961.43056712963</v>
+        <v>45994.58650462963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5621,8 +5654,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5659,14 +5697,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 23239-2023</t>
+          <t>A 3015-2026</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45075</v>
+        <v>46038</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5679,7 +5717,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5716,14 +5754,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 57631-2025</t>
+          <t>A 3016-2026</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45981.34748842593</v>
+        <v>46038</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5736,7 +5774,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5773,14 +5811,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 662-2026</t>
+          <t>A 2952-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46029.58549768518</v>
+        <v>46037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5793,7 +5831,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5830,14 +5868,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 666-2026</t>
+          <t>A 3375-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46029.58832175926</v>
+        <v>46042</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5850,7 +5888,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5894,7 +5932,7 @@
         <v>44518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5944,14 +5982,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 53812-2025</t>
+          <t>A 3836-2026</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45960</v>
+        <v>46043.5925</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5964,7 +6002,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6001,14 +6039,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 32975-2021</t>
+          <t>A 3824-2026</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44376</v>
+        <v>46043.58570601852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6021,7 +6059,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6058,14 +6096,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 60243-2025</t>
+          <t>A 32975-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45994.58650462963</v>
+        <v>44376</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6077,13 +6115,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>2.4</v>
+        <v>6.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6120,14 +6153,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 3015-2026</t>
+          <t>A 5276-2026</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46038</v>
+        <v>46037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6140,7 +6173,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6177,14 +6210,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 3016-2026</t>
+          <t>A 2944-2026</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46038</v>
+        <v>46037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6197,7 +6230,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6234,14 +6267,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 2952-2026</t>
+          <t>A 5908-2026</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46037</v>
+        <v>46052.44399305555</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6254,7 +6287,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6291,14 +6324,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 3375-2026</t>
+          <t>A 5402-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46042</v>
+        <v>44959</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6311,7 +6344,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6348,14 +6381,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 3836-2026</t>
+          <t>A 5910-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46043.5925</v>
+        <v>46052.44677083333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6368,7 +6401,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6412,7 +6445,7 @@
         <v>44995.33957175926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6462,14 +6495,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 30351-2022</t>
+          <t>A 666-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44757</v>
+        <v>46029.58832175926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6482,7 +6515,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5.7</v>
+        <v>1.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6519,14 +6552,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 3191-2024</t>
+          <t>A 662-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45316.67186342592</v>
+        <v>46029.58549768518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6539,7 +6572,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6576,14 +6609,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 31875-2022</t>
+          <t>A 30351-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44777</v>
+        <v>44757</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6596,7 +6629,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6633,14 +6666,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 51849-2023</t>
+          <t>A 3191-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45223.34391203704</v>
+        <v>45316.67186342592</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6653,7 +6686,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>16.3</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6690,14 +6723,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 66293-2021</t>
+          <t>A 31875-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44518</v>
+        <v>44777</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6710,7 +6743,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6747,14 +6780,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 45916-2022</t>
+          <t>A 51849-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44846</v>
+        <v>45223.34391203704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6767,7 +6800,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.8</v>
+        <v>16.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6804,14 +6837,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 2629-2025</t>
+          <t>A 66293-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45675.6953587963</v>
+        <v>44518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6824,7 +6857,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6861,14 +6894,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 5320-2023</t>
+          <t>A 45916-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44959</v>
+        <v>44846</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6881,7 +6914,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6918,14 +6951,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 11452-2023</t>
+          <t>A 2629-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44993</v>
+        <v>45675.6953587963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6938,7 +6971,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6975,14 +7008,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 30627-2023</t>
+          <t>A 5320-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45112</v>
+        <v>44959</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6994,13 +7027,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7037,14 +7065,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 43908-2023</t>
+          <t>A 11452-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45187</v>
+        <v>44993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7056,13 +7084,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7099,14 +7122,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 8343-2024</t>
+          <t>A 30627-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45352</v>
+        <v>45112</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7124,7 +7147,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7161,14 +7184,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 60885-2021</t>
+          <t>A 43908-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44497</v>
+        <v>45187</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7180,8 +7203,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7218,14 +7246,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 19676-2025</t>
+          <t>A 8343-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45770</v>
+        <v>45352</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7237,8 +7265,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7275,14 +7308,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 14267-2025</t>
+          <t>A 60885-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45740.63686342593</v>
+        <v>44497</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7295,7 +7328,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7332,14 +7365,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 13697-2024</t>
+          <t>A 19676-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45390</v>
+        <v>45770</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7351,13 +7384,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7394,14 +7422,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 66305-2021</t>
+          <t>A 14267-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44518</v>
+        <v>45740.63686342593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7414,7 +7442,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>8.300000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7451,14 +7479,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 1629-2024</t>
+          <t>A 13697-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45306</v>
+        <v>45390</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7476,7 +7504,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7513,14 +7541,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 30764-2023</t>
+          <t>A 66305-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45112</v>
+        <v>44518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7532,13 +7560,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7575,14 +7598,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 2171-2024</t>
+          <t>A 1629-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45309</v>
+        <v>45306</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7600,7 +7623,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7637,116 +7660,183 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
+          <t>A 30764-2023</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" s="2" t="inlineStr"/>
+    </row>
+    <row r="115" ht="15" customHeight="1">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>A 2171-2024</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C115" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" s="2" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
           <t>A 21130-2025</t>
         </is>
       </c>
-      <c r="B114" s="1" t="n">
+      <c r="B116" s="1" t="n">
         <v>45778.35857638889</v>
       </c>
-      <c r="C114" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="G114" t="n">
+      <c r="C116" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
         <v>2.2</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>0</v>
-      </c>
-      <c r="M114" t="n">
-        <v>0</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0</v>
-      </c>
-      <c r="O114" t="n">
-        <v>0</v>
-      </c>
-      <c r="P114" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>0</v>
-      </c>
-      <c r="R114" s="2" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>A 794-2024</t>
-        </is>
-      </c>
-      <c r="B115" s="1" t="n">
-        <v>45300.58149305556</v>
-      </c>
-      <c r="C115" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0</v>
-      </c>
-      <c r="M115" t="n">
-        <v>0</v>
-      </c>
-      <c r="N115" t="n">
-        <v>0</v>
-      </c>
-      <c r="O115" t="n">
-        <v>0</v>
-      </c>
-      <c r="P115" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>0</v>
-      </c>
-      <c r="R115" s="2" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z116"/>
+  <dimension ref="A1:Z117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45925</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,14 +809,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 44867-2023</t>
+          <t>A 7444-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45190</v>
+        <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,19 +829,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>7.8</v>
+        <v>0.7</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -853,15 +853,108 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
         <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>9</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Apelticka
+Kärnticka
+Rostorangelav
+Kandelabersvamp
+Lunglav
+Granbarkgnagare
+Platt fjädermossa
+Stekelbock
+Thomsons trägnagare</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 7444-2023 artfynd.xlsx", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 7444-2023 karta.png", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 7444-2023 FSC-klagomål.docx", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 7444-2023 FSC-klagomål mail.docx", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 7444-2023 tillsynsbegäran.docx", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 7444-2023 tillsynsbegäran mail.docx", "A 7444-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 44867-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Bombmurkla
 Granticka
@@ -874,125 +967,32 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 44867-2023 artfynd.xlsx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 44867-2023 karta.png", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 44867-2023 FSC-klagomål.docx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 44867-2023 FSC-klagomål mail.docx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 44867-2023 tillsynsbegäran.docx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 44867-2023 tillsynsbegäran mail.docx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 44867-2023 prioriterade fågelarter.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 7444-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44971</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Apelticka
-Kärnticka
-Rostorangelav
-Kandelabersvamp
-Lunglav
-Granbarkgnagare
-Platt fjädermossa
-Stekelbock
-Thomsons trägnagare</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 7444-2023 artfynd.xlsx", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 7444-2023 karta.png", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 7444-2023 FSC-klagomål.docx", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 7444-2023 FSC-klagomål mail.docx", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 7444-2023 tillsynsbegäran.docx", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 7444-2023 tillsynsbegäran mail.docx", "A 7444-2023")</f>
         <v/>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         <v>45213</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45034</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1274,14 +1274,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 5455-2025</t>
+          <t>A 53813-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45693</v>
+        <v>45960</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>17.1</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1328,45 +1328,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Broskvaxing</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 53813-2025</t>
+          <t>A 11405-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45960</v>
+        <v>45726</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,23 +1379,23 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
@@ -1403,41 +1403,41 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Broskvaxing</t>
+          <t>Fältgentiana</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
         <v>46002.63940972222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1529,14 +1529,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 16973-2021</t>
+          <t>A 33770-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44295</v>
+        <v>45133</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,11 +1548,16 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1583,31 +1588,35 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Slaguggla</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
         <v/>
       </c>
     </row>
@@ -1621,7 +1630,7 @@
         <v>46036</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1710,7 +1719,7 @@
         <v>46071.64916666667</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1793,14 +1802,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 33770-2023</t>
+          <t>A 21831-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45133</v>
+        <v>45442</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1812,13 +1821,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1827,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1842,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1852,35 +1856,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Slaguggla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
         <v>45715</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1972,14 +1972,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 11405-2025</t>
+          <t>A 16407-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45726</v>
+        <v>45751.45120370371</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2016,55 +2016,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Fältgentiana</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 16407-2025</t>
+          <t>A 16973-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45751.45120370371</v>
+        <v>44295</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2077,17 +2077,17 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2111,45 +2111,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 21831-2024</t>
+          <t>A 5455-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45442</v>
+        <v>45693</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2162,13 +2162,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.5</v>
+        <v>17.1</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2196,31 +2196,31 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
         <v>44252</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>44313</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44308.34364583333</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44318</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44735.46880787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44342.43712962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>44847</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>44673</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>44271</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>44384</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>44509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>44510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>44448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>44536</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44690.39451388889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44548.57709490741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44548.58148148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3501,14 +3501,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 34078-2022</t>
+          <t>A 32975-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44791</v>
+        <v>44376</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3520,13 +3520,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>6.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3563,14 +3558,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 17091-2023</t>
+          <t>A 47803-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45034.53554398148</v>
+        <v>45931</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3583,7 +3578,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3620,14 +3615,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 794-2024</t>
+          <t>A 2171-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45300.58149305556</v>
+        <v>45309</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3639,8 +3634,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3677,14 +3677,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 26182-2022</t>
+          <t>A 13697-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44735</v>
+        <v>45390</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3696,8 +3696,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3734,14 +3739,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 2628-2025</t>
+          <t>A 21130-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45675.68435185185</v>
+        <v>45778.35857638889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3759,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3791,14 +3796,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 17333-2024</t>
+          <t>A 794-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45414.5625462963</v>
+        <v>45300.58149305556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3816,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3848,14 +3853,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 20902-2024</t>
+          <t>A 49090-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45439.48104166667</v>
+        <v>45937</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3873,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3905,14 +3910,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 26226-2025</t>
+          <t>A 52667-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45805.55829861111</v>
+        <v>45955.74666666667</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3930,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>9.1</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3962,14 +3967,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 57631-2025</t>
+          <t>A 52666-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45981.34748842593</v>
+        <v>45955.74299768519</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3987,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4019,14 +4024,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 11841-2023</t>
+          <t>A 53898-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44995.3221412037</v>
+        <v>45961.43056712963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4039,7 +4044,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4076,14 +4081,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 11450-2023</t>
+          <t>A 20902-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44993</v>
+        <v>45439.48104166667</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4096,7 +4101,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4133,14 +4138,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 45525-2023</t>
+          <t>A 26226-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45194</v>
+        <v>45805.55829861111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4153,7 +4158,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>9.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4190,14 +4195,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 28189-2025</t>
+          <t>A 44869-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45818.41357638889</v>
+        <v>45918.46758101852</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4210,7 +4215,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>7.6</v>
+        <v>17.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4247,14 +4252,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 44869-2025</t>
+          <t>A 45453-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45918.46758101852</v>
+        <v>45922.48702546296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4267,7 +4272,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>17.1</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4304,14 +4309,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 45453-2025</t>
+          <t>A 13040-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45922.48702546296</v>
+        <v>45734</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4323,8 +4328,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4361,14 +4371,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 13040-2025</t>
+          <t>A 28189-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45734</v>
+        <v>45818.41357638889</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4380,13 +4390,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>7.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4423,14 +4428,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 16773-2022</t>
+          <t>A 14267-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44673</v>
+        <v>45740.63686342593</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4443,7 +4448,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4480,14 +4485,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 47803-2025</t>
+          <t>A 11841-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45931</v>
+        <v>44995.3221412037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4500,7 +4505,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4537,14 +4542,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 20505-2021</t>
+          <t>A 57631-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44313</v>
+        <v>45981.34748842593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4557,7 +4562,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4594,14 +4599,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 60018-2024</t>
+          <t>A 30351-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45642</v>
+        <v>44757</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4614,7 +4619,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4651,14 +4656,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 16396-2025</t>
+          <t>A 11847-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45751.44219907407</v>
+        <v>44995.33957175926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4671,7 +4676,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4708,14 +4713,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 49090-2025</t>
+          <t>A 11450-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45937</v>
+        <v>44993</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4728,7 +4733,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4765,14 +4770,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 33976-2025</t>
+          <t>A 31875-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45843</v>
+        <v>44777</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4785,7 +4790,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>6.1</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4822,14 +4827,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 33974-2025</t>
+          <t>A 33975-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45843.305625</v>
+        <v>45843.30805555556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4842,7 +4847,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4879,14 +4884,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 33975-2025</t>
+          <t>A 33974-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45843.30805555556</v>
+        <v>45843.305625</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4899,7 +4904,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4936,14 +4941,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 34859-2025</t>
+          <t>A 33976-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45849.43511574074</v>
+        <v>45843</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4953,11 +4958,6 @@
       <c r="E67" t="inlineStr">
         <is>
           <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -4998,14 +4998,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 34864-2025</t>
+          <t>A 34859-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45849.44028935185</v>
+        <v>45849.43511574074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>6.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5060,14 +5060,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 35318-2025</t>
+          <t>A 34864-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45854.47917824074</v>
+        <v>45849.44028935185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5122,14 +5122,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 1791-2024</t>
+          <t>A 53812-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45307.574375</v>
+        <v>45960</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>5.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5179,14 +5179,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 52666-2025</t>
+          <t>A 35318-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45955.74299768519</v>
+        <v>45854.47917824074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5198,8 +5198,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5236,14 +5241,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 52667-2025</t>
+          <t>A 60243-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45955.74666666667</v>
+        <v>45994.58650462963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5255,8 +5260,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5293,14 +5303,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 36472-2025</t>
+          <t>A 23239-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45869.48162037037</v>
+        <v>45075</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5313,7 +5323,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5350,14 +5360,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 36473-2025</t>
+          <t>A 36470-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45869.48333333333</v>
+        <v>45869.47915509259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5370,7 +5380,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5407,14 +5417,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 36470-2025</t>
+          <t>A 36472-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45869.47915509259</v>
+        <v>45869.48162037037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5427,7 +5437,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5464,14 +5474,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 53898-2025</t>
+          <t>A 36473-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45961.43056712963</v>
+        <v>45869.48333333333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5484,7 +5494,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5521,14 +5531,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 53812-2025</t>
+          <t>A 2952-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45960</v>
+        <v>46037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5541,7 +5551,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5578,14 +5588,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23239-2023</t>
+          <t>A 3016-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45075</v>
+        <v>46038</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5598,7 +5608,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5635,14 +5645,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 60243-2025</t>
+          <t>A 3015-2026</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45994.58650462963</v>
+        <v>46038</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5654,13 +5664,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5697,14 +5702,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 3015-2026</t>
+          <t>A 3375-2026</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>46038</v>
+        <v>46042</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5717,7 +5722,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5754,14 +5759,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 3016-2026</t>
+          <t>A 3824-2026</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46038</v>
+        <v>46043.58570601852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5774,7 +5779,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5811,14 +5816,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 2952-2026</t>
+          <t>A 3836-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46037</v>
+        <v>46043.5925</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5831,7 +5836,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5868,14 +5873,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 3375-2026</t>
+          <t>A 66293-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46042</v>
+        <v>44518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5888,7 +5893,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5925,14 +5930,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 66284-2021</t>
+          <t>A 5276-2026</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44518</v>
+        <v>46037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5945,7 +5950,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>6.9</v>
+        <v>1.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5982,14 +5987,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 3836-2026</t>
+          <t>A 2944-2026</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46043.5925</v>
+        <v>46037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6002,7 +6007,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6039,14 +6044,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 3824-2026</t>
+          <t>A 5908-2026</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46043.58570601852</v>
+        <v>46052.44399305555</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6059,7 +6064,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6096,14 +6101,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 32975-2021</t>
+          <t>A 5910-2026</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44376</v>
+        <v>46052.44677083333</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6116,7 +6121,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6153,14 +6158,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 5276-2026</t>
+          <t>A 5402-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46037</v>
+        <v>44959</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6173,7 +6178,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6210,14 +6215,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 2944-2026</t>
+          <t>A 66284-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46037</v>
+        <v>44518</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6230,7 +6235,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.7</v>
+        <v>6.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6267,14 +6272,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 5908-2026</t>
+          <t>A 19676-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46052.44399305555</v>
+        <v>45770</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6324,14 +6329,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 5402-2023</t>
+          <t>A 8343-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44959</v>
+        <v>45352</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6343,8 +6348,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6381,14 +6391,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 5910-2026</t>
+          <t>A 30627-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46052.44677083333</v>
+        <v>45112</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6400,8 +6410,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6438,14 +6453,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 11847-2023</t>
+          <t>A 1629-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44995.33957175926</v>
+        <v>45306</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6457,8 +6472,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6495,14 +6515,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 666-2026</t>
+          <t>A 662-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46029.58832175926</v>
+        <v>46029.58549768518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6515,7 +6535,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6552,14 +6572,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 662-2026</t>
+          <t>A 9744-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46029.58549768518</v>
+        <v>46072.51857638889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6572,7 +6592,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6609,14 +6629,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 30351-2022</t>
+          <t>A 666-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44757</v>
+        <v>46029.58832175926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6629,7 +6649,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.7</v>
+        <v>1.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6666,14 +6686,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 3191-2024</t>
+          <t>A 60885-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45316.67186342592</v>
+        <v>44497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6686,7 +6706,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6723,14 +6743,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 31875-2022</t>
+          <t>A 3191-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44777</v>
+        <v>45316.67186342592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6743,7 +6763,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6780,14 +6800,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 51849-2023</t>
+          <t>A 45525-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45223.34391203704</v>
+        <v>45194</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6800,7 +6820,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>16.3</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6837,14 +6857,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 66293-2021</t>
+          <t>A 16773-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44518</v>
+        <v>44673</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6857,7 +6877,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6894,14 +6914,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 45916-2022</t>
+          <t>A 30764-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44846</v>
+        <v>45112</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6913,8 +6933,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6951,14 +6976,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 2629-2025</t>
+          <t>A 51849-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45675.6953587963</v>
+        <v>45223.34391203704</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6971,7 +6996,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>16.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7008,14 +7033,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 5320-2023</t>
+          <t>A 60018-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44959</v>
+        <v>45642</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7028,7 +7053,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7065,14 +7090,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 11452-2023</t>
+          <t>A 17333-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44993</v>
+        <v>45414.5625462963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7085,7 +7110,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7122,14 +7147,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 30627-2023</t>
+          <t>A 1791-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45112</v>
+        <v>45307.574375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7141,13 +7166,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7184,14 +7204,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 43908-2023</t>
+          <t>A 66305-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45187</v>
+        <v>44518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7203,13 +7223,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7246,14 +7261,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 8343-2024</t>
+          <t>A 2628-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45352</v>
+        <v>45675.68435185185</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7265,13 +7280,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7308,14 +7318,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 60885-2021</t>
+          <t>A 11452-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44497</v>
+        <v>44993</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7328,7 +7338,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7365,14 +7375,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 19676-2025</t>
+          <t>A 43908-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45770</v>
+        <v>45187</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7384,8 +7394,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7422,14 +7437,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 14267-2025</t>
+          <t>A 34078-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45740.63686342593</v>
+        <v>44791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7441,8 +7456,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7479,14 +7499,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 13697-2024</t>
+          <t>A 26182-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45390</v>
+        <v>44735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7498,13 +7518,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7541,14 +7556,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 66305-2021</t>
+          <t>A 20505-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7561,7 +7576,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>8.300000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7598,14 +7613,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 1629-2024</t>
+          <t>A 2629-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45306</v>
+        <v>45675.6953587963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7617,13 +7632,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7660,14 +7670,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 30764-2023</t>
+          <t>A 5320-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45112</v>
+        <v>44959</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7679,13 +7689,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7722,14 +7727,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 2171-2024</t>
+          <t>A 45916-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45309</v>
+        <v>44846</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7741,13 +7746,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7781,17 +7781,17 @@
       </c>
       <c r="R115" s="2" t="inlineStr"/>
     </row>
-    <row r="116">
+    <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 21130-2025</t>
+          <t>A 16396-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45778.35857638889</v>
+        <v>45751.44219907407</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7837,6 +7837,63 @@
         <v>0</v>
       </c>
       <c r="R116" s="2" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>A 17091-2023</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>45034.53554398148</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -575,7 +575,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45925</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,14 +809,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 7444-2023</t>
+          <t>A 44867-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44971</v>
+        <v>45190</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,39 +829,136 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.7</v>
+        <v>7.8</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>3</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5</v>
-      </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>9</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Bombmurkla
+Granticka
+Kandelabersvamp
+Granbräken
+Myskmadra
+Stor aspticka
+Enkelbeckasin
+Trana
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 44867-2023 artfynd.xlsx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 44867-2023 karta.png", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 44867-2023 FSC-klagomål.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 44867-2023 FSC-klagomål mail.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 44867-2023 tillsynsbegäran.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 44867-2023 tillsynsbegäran mail.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 44867-2023 prioriterade fågelarter.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 7444-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44971</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Apelticka
 Kärnticka
@@ -874,125 +971,28 @@
 Thomsons trägnagare</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 7444-2023 artfynd.xlsx", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 7444-2023 karta.png", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 7444-2023 FSC-klagomål.docx", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 7444-2023 FSC-klagomål mail.docx", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 7444-2023 tillsynsbegäran.docx", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 7444-2023 tillsynsbegäran mail.docx", "A 7444-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 44867-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Bombmurkla
-Granticka
-Kandelabersvamp
-Granbräken
-Myskmadra
-Stor aspticka
-Enkelbeckasin
-Trana
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 44867-2023 artfynd.xlsx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 44867-2023 karta.png", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 44867-2023 FSC-klagomål.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 44867-2023 FSC-klagomål mail.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 44867-2023 tillsynsbegäran.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 44867-2023 tillsynsbegäran mail.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 44867-2023 prioriterade fågelarter.docx", "A 44867-2023")</f>
         <v/>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         <v>45213</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45034</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1274,14 +1274,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 53813-2025</t>
+          <t>A 5455-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45960</v>
+        <v>45693</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>17.1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1328,45 +1328,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Broskvaxing</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 11405-2025</t>
+          <t>A 16973-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45726</v>
+        <v>44295</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1406,52 +1406,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Fältgentiana</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 61768-2025</t>
+          <t>A 53813-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>46002.63940972222</v>
+        <v>45960</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1498,45 +1498,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Kamjordstjärna</t>
+          <t>Broskvaxing</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 33770-2023</t>
+          <t>A 61768-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45133</v>
+        <v>46002.63940972222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,22 +1548,17 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1578,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1588,49 +1583,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Slaguggla</t>
+          <t>Kamjordstjärna</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 2214-2026</t>
+          <t>A 33770-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46036</v>
+        <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,11 +1633,16 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1677,49 +1673,49 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Slaguggla</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
-        <v/>
-      </c>
-      <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 9561-2026</t>
+          <t>A 9553-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46071.64916666667</v>
+        <v>45715</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1731,22 +1727,17 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1761,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1771,45 +1762,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Svartöra</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9561-2026 artfynd.xlsx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9553-2025 artfynd.xlsx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9561-2026 karta.png", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9553-2025 karta.png", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9561-2026 FSC-klagomål.docx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9553-2025 FSC-klagomål.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9561-2026 FSC-klagomål mail.docx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9553-2025 FSC-klagomål mail.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9561-2026 tillsynsbegäran.docx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9553-2025 tillsynsbegäran.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9561-2026 tillsynsbegäran mail.docx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9553-2025 tillsynsbegäran mail.docx", "A 9553-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 21831-2024</t>
+          <t>A 2214-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45442</v>
+        <v>46036</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,17 +1813,17 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -1846,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1856,45 +1847,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
+        <v/>
+      </c>
+      <c r="U15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 9553-2025</t>
+          <t>A 9561-2026</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45715</v>
+        <v>46071.64916666667</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,18 +1901,23 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1941,45 +1941,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Svartöra</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9553-2025 artfynd.xlsx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9561-2026 artfynd.xlsx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9553-2025 karta.png", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9561-2026 karta.png", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9553-2025 FSC-klagomål.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9561-2026 FSC-klagomål.docx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9553-2025 FSC-klagomål mail.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9561-2026 FSC-klagomål mail.docx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9553-2025 tillsynsbegäran.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9561-2026 tillsynsbegäran.docx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9553-2025 tillsynsbegäran mail.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9561-2026 tillsynsbegäran mail.docx", "A 9561-2026")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 16407-2025</t>
+          <t>A 11405-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45751.45120370371</v>
+        <v>45726</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1992,23 +1992,23 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
@@ -2016,55 +2016,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fältgentiana</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 16973-2021</t>
+          <t>A 16407-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44295</v>
+        <v>45751.45120370371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2077,16 +2077,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2111,45 +2111,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 5455-2025</t>
+          <t>A 21831-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45693</v>
+        <v>45442</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2162,13 +2162,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>17.1</v>
+        <v>4.5</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2196,31 +2196,31 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
         <v>44252</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>44313</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44308.34364583333</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44318</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44735.46880787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44342.43712962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>44847</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>44673</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>44271</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>44384</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>44509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>44510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>44448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>44536</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44690.39451388889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44548.57709490741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44548.58148148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3501,14 +3501,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 32975-2021</t>
+          <t>A 34078-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44376</v>
+        <v>44791</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3520,8 +3520,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>6.1</v>
+        <v>1.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3558,14 +3563,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 47803-2025</t>
+          <t>A 17091-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45931</v>
+        <v>45034.53554398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3578,7 +3583,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3615,14 +3620,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 2171-2024</t>
+          <t>A 26182-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45309</v>
+        <v>44735</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3634,13 +3639,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3677,14 +3677,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 13697-2024</t>
+          <t>A 2628-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45390</v>
+        <v>45675.68435185185</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3696,13 +3696,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3739,14 +3734,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 21130-2025</t>
+          <t>A 17333-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45778.35857638889</v>
+        <v>45414.5625462963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3759,7 +3754,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3796,14 +3791,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 794-2024</t>
+          <t>A 11841-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45300.58149305556</v>
+        <v>44995.3221412037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3816,7 +3811,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3853,14 +3848,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 49090-2025</t>
+          <t>A 11450-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45937</v>
+        <v>44993</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3873,7 +3868,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3910,14 +3905,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 52667-2025</t>
+          <t>A 45525-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45955.74666666667</v>
+        <v>45194</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3930,7 +3925,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3967,14 +3962,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 52666-2025</t>
+          <t>A 16773-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45955.74299768519</v>
+        <v>44673</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3987,7 +3982,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4024,14 +4019,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 53898-2025</t>
+          <t>A 28189-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45961.43056712963</v>
+        <v>45818.41357638889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4044,7 +4039,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.5</v>
+        <v>7.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4081,14 +4076,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 20902-2024</t>
+          <t>A 20505-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45439.48104166667</v>
+        <v>44313</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4101,7 +4096,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4138,14 +4133,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 26226-2025</t>
+          <t>A 60018-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45805.55829861111</v>
+        <v>45642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4158,7 +4153,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>9.1</v>
+        <v>4.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4195,14 +4190,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 44869-2025</t>
+          <t>A 16396-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45918.46758101852</v>
+        <v>45751.44219907407</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4215,7 +4210,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>17.1</v>
+        <v>5.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4252,14 +4247,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 45453-2025</t>
+          <t>A 33976-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45922.48702546296</v>
+        <v>45843</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4272,7 +4267,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>6.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4309,14 +4304,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 13040-2025</t>
+          <t>A 33974-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45734</v>
+        <v>45843.305625</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4328,13 +4323,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4371,14 +4361,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 28189-2025</t>
+          <t>A 1791-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45818.41357638889</v>
+        <v>45307.574375</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4391,7 +4381,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>7.6</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4428,14 +4418,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 14267-2025</t>
+          <t>A 33975-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45740.63686342593</v>
+        <v>45843.30805555556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4448,7 +4438,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4485,14 +4475,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 11841-2023</t>
+          <t>A 34859-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44995.3221412037</v>
+        <v>45849.43511574074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4504,8 +4494,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>3.9</v>
+        <v>6.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4542,14 +4537,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 57631-2025</t>
+          <t>A 34864-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45981.34748842593</v>
+        <v>45849.44028935185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4561,8 +4556,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4599,14 +4599,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 30351-2022</t>
+          <t>A 44869-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44757</v>
+        <v>45918.46758101852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.7</v>
+        <v>17.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4656,14 +4656,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 11847-2023</t>
+          <t>A 35318-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44995.33957175926</v>
+        <v>45854.47917824074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4675,8 +4675,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4713,14 +4718,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 11450-2023</t>
+          <t>A 45453-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44993</v>
+        <v>45922.48702546296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4733,7 +4738,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4770,14 +4775,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 31875-2022</t>
+          <t>A 13040-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44777</v>
+        <v>45734</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4789,8 +4794,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4827,14 +4837,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 33975-2025</t>
+          <t>A 36472-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45843.30805555556</v>
+        <v>45869.48162037037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4884,14 +4894,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 33974-2025</t>
+          <t>A 36473-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45843.305625</v>
+        <v>45869.48333333333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4904,7 +4914,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4941,14 +4951,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 33976-2025</t>
+          <t>A 36470-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45843</v>
+        <v>45869.47915509259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4961,7 +4971,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>6.1</v>
+        <v>3.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4998,14 +5008,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 34859-2025</t>
+          <t>A 47803-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45849.43511574074</v>
+        <v>45931</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5017,13 +5027,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>6.1</v>
+        <v>2.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5060,14 +5065,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 34864-2025</t>
+          <t>A 23239-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45849.44028935185</v>
+        <v>45075</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5079,13 +5084,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5122,14 +5122,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 53812-2025</t>
+          <t>A 49090-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45960</v>
+        <v>45937</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5179,14 +5179,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 35318-2025</t>
+          <t>A 66284-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45854.47917824074</v>
+        <v>44518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5198,13 +5198,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>2.2</v>
+        <v>6.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5241,14 +5236,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 60243-2025</t>
+          <t>A 52666-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45994.58650462963</v>
+        <v>45955.74299768519</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5260,13 +5255,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5303,14 +5293,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 23239-2023</t>
+          <t>A 52667-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45075</v>
+        <v>45955.74666666667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5323,7 +5313,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5360,14 +5350,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 36470-2025</t>
+          <t>A 32975-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45869.47915509259</v>
+        <v>44376</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5380,7 +5370,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.6</v>
+        <v>6.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5417,14 +5407,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 36472-2025</t>
+          <t>A 53898-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45869.48162037037</v>
+        <v>45961.43056712963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5437,7 +5427,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5474,14 +5464,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 36473-2025</t>
+          <t>A 11847-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45869.48333333333</v>
+        <v>44995.33957175926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,7 +5484,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5531,14 +5521,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 2952-2026</t>
+          <t>A 57631-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46037</v>
+        <v>45981.34748842593</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5551,7 +5541,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5588,14 +5578,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 3016-2026</t>
+          <t>A 53812-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46038</v>
+        <v>45960</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5608,7 +5598,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>5.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5645,14 +5635,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 3015-2026</t>
+          <t>A 60243-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46038</v>
+        <v>45994.58650462963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5664,8 +5654,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5702,14 +5697,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 3375-2026</t>
+          <t>A 3015-2026</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>46042</v>
+        <v>46038</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,7 +5717,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5759,14 +5754,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 3824-2026</t>
+          <t>A 3016-2026</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46043.58570601852</v>
+        <v>46038</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5779,7 +5774,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5816,14 +5811,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 3836-2026</t>
+          <t>A 2952-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46043.5925</v>
+        <v>46037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5836,7 +5831,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5873,14 +5868,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 66293-2021</t>
+          <t>A 3375-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44518</v>
+        <v>46042</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5893,7 +5888,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5930,14 +5925,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 5276-2026</t>
+          <t>A 3836-2026</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46037</v>
+        <v>46043.5925</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,7 +5945,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5987,14 +5982,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 2944-2026</t>
+          <t>A 3824-2026</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46037</v>
+        <v>46043.58570601852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,7 +6002,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6044,14 +6039,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 5908-2026</t>
+          <t>A 30351-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46052.44399305555</v>
+        <v>44757</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6059,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6101,14 +6096,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 5910-2026</t>
+          <t>A 3191-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46052.44677083333</v>
+        <v>45316.67186342592</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6158,14 +6153,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 5402-2023</t>
+          <t>A 31875-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44959</v>
+        <v>44777</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6178,7 +6173,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6215,14 +6210,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 66284-2021</t>
+          <t>A 5276-2026</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44518</v>
+        <v>46037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6235,7 +6230,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>6.9</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6272,14 +6267,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 19676-2025</t>
+          <t>A 2944-2026</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45770</v>
+        <v>46037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6292,7 +6287,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6329,14 +6324,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 8343-2024</t>
+          <t>A 51849-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45352</v>
+        <v>45223.34391203704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6348,13 +6343,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>16.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6391,14 +6381,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 30627-2023</t>
+          <t>A 5908-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45112</v>
+        <v>46052.44399305555</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6410,13 +6400,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6453,14 +6438,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 1629-2024</t>
+          <t>A 5402-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45306</v>
+        <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6472,13 +6457,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6515,14 +6495,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 662-2026</t>
+          <t>A 5910-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46029.58549768518</v>
+        <v>46052.44677083333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6535,7 +6515,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6572,14 +6552,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 9744-2026</t>
+          <t>A 66293-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46072.51857638889</v>
+        <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6592,7 +6572,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6629,14 +6609,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 666-2026</t>
+          <t>A 45916-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46029.58832175926</v>
+        <v>44846</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6649,7 +6629,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6686,14 +6666,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 60885-2021</t>
+          <t>A 2629-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44497</v>
+        <v>45675.6953587963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6706,7 +6686,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6743,14 +6723,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 3191-2024</t>
+          <t>A 5320-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45316.67186342592</v>
+        <v>44959</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6763,7 +6743,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6800,14 +6780,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 45525-2023</t>
+          <t>A 666-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45194</v>
+        <v>46029.58832175926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6820,7 +6800,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6857,14 +6837,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 16773-2022</t>
+          <t>A 662-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44673</v>
+        <v>46029.58549768518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6877,7 +6857,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6914,14 +6894,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 30764-2023</t>
+          <t>A 11452-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45112</v>
+        <v>44993</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6933,13 +6913,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6976,14 +6951,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 51849-2023</t>
+          <t>A 30627-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45223.34391203704</v>
+        <v>45112</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6995,8 +6970,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>16.3</v>
+        <v>1.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7033,14 +7013,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 60018-2024</t>
+          <t>A 9744-2026</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45642</v>
+        <v>46072.51857638889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7053,7 +7033,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7090,14 +7070,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 17333-2024</t>
+          <t>A 43908-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45414.5625462963</v>
+        <v>45187</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7109,8 +7089,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7147,14 +7132,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 1791-2024</t>
+          <t>A 8343-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45307.574375</v>
+        <v>45352</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7164,6 +7149,11 @@
       <c r="E105" t="inlineStr">
         <is>
           <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -7204,14 +7194,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 66305-2021</t>
+          <t>A 60885-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44518</v>
+        <v>44497</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7224,7 +7214,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>8.300000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7261,14 +7251,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 2628-2025</t>
+          <t>A 19676-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45675.68435185185</v>
+        <v>45770</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7281,7 +7271,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7318,14 +7308,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 11452-2023</t>
+          <t>A 14267-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44993</v>
+        <v>45740.63686342593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7338,7 +7328,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7375,14 +7365,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 43908-2023</t>
+          <t>A 13697-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45187</v>
+        <v>45390</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7396,11 +7386,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7437,14 +7427,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 34078-2022</t>
+          <t>A 66305-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44791</v>
+        <v>44518</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7456,13 +7446,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>1.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7499,14 +7484,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 26182-2022</t>
+          <t>A 1629-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44735</v>
+        <v>45306</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7518,8 +7503,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7556,14 +7546,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 20505-2021</t>
+          <t>A 30764-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44313</v>
+        <v>45112</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7575,8 +7565,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7613,14 +7608,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 2629-2025</t>
+          <t>A 2171-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45675.6953587963</v>
+        <v>45309</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7632,8 +7627,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7670,14 +7670,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 5320-2023</t>
+          <t>A 21130-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44959</v>
+        <v>45778.35857638889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7727,14 +7727,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 45916-2022</t>
+          <t>A 794-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44846</v>
+        <v>45300.58149305556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7784,14 +7784,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 16396-2025</t>
+          <t>A 20902-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45751.44219907407</v>
+        <v>45439.48104166667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7841,14 +7841,14 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 17091-2023</t>
+          <t>A 26226-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45034.53554398148</v>
+        <v>45805.55829861111</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.8</v>
+        <v>9.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -575,7 +575,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45925</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>45190</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45213</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45034</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45693</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44295</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45960</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>46002.63940972222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45715</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>46036</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>46071.64916666667</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>45726</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45751.45120370371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>45442</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44252</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>44313</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44308.34364583333</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44318</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44735.46880787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44342.43712962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>44847</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>44673</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>44271</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>44384</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>44509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>44510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>44448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>44536</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44690.39451388889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44548.57709490741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44548.58148148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44791</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>45034.53554398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44735</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>45675.68435185185</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>45414.5625462963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44995.3221412037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44993</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>45194</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44673</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>45818.41357638889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44313</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>45751.44219907407</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>45843</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>45843.305625</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>45307.574375</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>45843.30805555556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>45849.43511574074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>45849.44028935185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45918.46758101852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>45854.47917824074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45922.48702546296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45734</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         <v>45869.48162037037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>45869.48333333333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>45869.47915509259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>45931</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45075</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>45937</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>45955.74299768519</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>45955.74666666667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44376</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>45961.43056712963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44995.33957175926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>45981.34748842593</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>45960</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>45994.58650462963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>46038</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>46038</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>46037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>46042</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>46043.5925</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>46043.58570601852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44757</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>45316.67186342592</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44777</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>46037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>46037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>45223.34391203704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>46052.44399305555</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>46052.44677083333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44846</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45675.6953587963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44959</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>46029.58832175926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>46029.58549768518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44993</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>45112</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>46072.51857638889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45187</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>45352</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>44497</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>45770</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>45740.63686342593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>45390</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>44518</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>45306</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>45112</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>45309</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45778.35857638889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>45300.58149305556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>45439.48104166667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>45805.55829861111</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -575,7 +575,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45925</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>45190</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45213</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45034</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45693</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44295</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45960</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>46002.63940972222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45715</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>46036</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>46071.64916666667</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>45726</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45751.45120370371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>45442</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44252</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>44313</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44308.34364583333</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44318</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44735.46880787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44342.43712962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>44847</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>44673</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>44271</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>44384</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>44509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>44510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>44448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>44536</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44690.39451388889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44548.57709490741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44548.58148148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44791</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>45034.53554398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44735</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>45675.68435185185</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>45414.5625462963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44995.3221412037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44993</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>45194</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44673</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>45818.41357638889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44313</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>45751.44219907407</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>45843</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>45843.305625</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>45307.574375</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>45843.30805555556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>45849.43511574074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>45849.44028935185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45918.46758101852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>45854.47917824074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45922.48702546296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45734</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         <v>45869.48162037037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>45869.48333333333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>45869.47915509259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>45931</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45075</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>45937</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>45955.74299768519</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>45955.74666666667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44376</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>45961.43056712963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44995.33957175926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>45981.34748842593</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>45960</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>45994.58650462963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>46038</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>46038</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>46037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>46042</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>46043.5925</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>46043.58570601852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44757</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>45316.67186342592</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44777</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>46037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>46037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>45223.34391203704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>46052.44399305555</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>46052.44677083333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44846</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45675.6953587963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44959</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>46029.58832175926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>46029.58549768518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44993</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>45112</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>46072.51857638889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45187</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>45352</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>44497</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>45770</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>45740.63686342593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>45390</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>44518</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>45306</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>45112</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>45309</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45778.35857638889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>45300.58149305556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>45439.48104166667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>45805.55829861111</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -575,7 +575,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45925</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,14 +809,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 44867-2023</t>
+          <t>A 7444-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45190</v>
+        <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,19 +829,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>7.8</v>
+        <v>0.7</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -853,15 +853,108 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
         <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>9</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Apelticka
+Kärnticka
+Rostorangelav
+Kandelabersvamp
+Lunglav
+Granbarkgnagare
+Platt fjädermossa
+Stekelbock
+Thomsons trägnagare</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 7444-2023 artfynd.xlsx", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 7444-2023 karta.png", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 7444-2023 FSC-klagomål.docx", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 7444-2023 FSC-klagomål mail.docx", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 7444-2023 tillsynsbegäran.docx", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 7444-2023 tillsynsbegäran mail.docx", "A 7444-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 44867-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Bombmurkla
 Granticka
@@ -874,125 +967,32 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 44867-2023 artfynd.xlsx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 44867-2023 karta.png", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 44867-2023 FSC-klagomål.docx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 44867-2023 FSC-klagomål mail.docx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 44867-2023 tillsynsbegäran.docx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 44867-2023 tillsynsbegäran mail.docx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 44867-2023 prioriterade fågelarter.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 7444-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44971</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Apelticka
-Kärnticka
-Rostorangelav
-Kandelabersvamp
-Lunglav
-Granbarkgnagare
-Platt fjädermossa
-Stekelbock
-Thomsons trägnagare</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 7444-2023 artfynd.xlsx", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 7444-2023 karta.png", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 7444-2023 FSC-klagomål.docx", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 7444-2023 FSC-klagomål mail.docx", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 7444-2023 tillsynsbegäran.docx", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 7444-2023 tillsynsbegäran mail.docx", "A 7444-2023")</f>
         <v/>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         <v>45213</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45034</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1274,14 +1274,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 5455-2025</t>
+          <t>A 11405-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45693</v>
+        <v>45726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,23 +1294,23 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>17.1</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
@@ -1318,55 +1318,55 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Fältgentiana</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 16973-2021</t>
+          <t>A 33770-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44295</v>
+        <v>45133</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,11 +1378,16 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1413,45 +1418,49 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Slaguggla</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 53813-2025</t>
+          <t>A 9553-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45960</v>
+        <v>45715</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,13 +1473,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1498,45 +1507,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Broskvaxing</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9553-2025 artfynd.xlsx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9553-2025 karta.png", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9553-2025 FSC-klagomål.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9553-2025 FSC-klagomål mail.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9553-2025 tillsynsbegäran.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9553-2025 tillsynsbegäran mail.docx", "A 9553-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 61768-2025</t>
+          <t>A 21831-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>46002.63940972222</v>
+        <v>45442</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1549,13 +1558,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1583,45 +1592,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Kamjordstjärna</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 33770-2023</t>
+          <t>A 16407-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45133</v>
+        <v>45751.45120370371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,13 +1642,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1648,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1663,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1673,49 +1677,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Slaguggla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 9553-2025</t>
+          <t>A 16973-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45715</v>
+        <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,17 +1728,17 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1762,45 +1762,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9553-2025 artfynd.xlsx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9553-2025 karta.png", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9553-2025 FSC-klagomål.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9553-2025 FSC-klagomål mail.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9553-2025 tillsynsbegäran.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9553-2025 tillsynsbegäran mail.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 2214-2026</t>
+          <t>A 5455-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46036</v>
+        <v>45693</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.4</v>
+        <v>17.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1847,49 +1847,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
-        <v/>
-      </c>
-      <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 9561-2026</t>
+          <t>A 53813-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>46071.64916666667</v>
+        <v>45960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1901,22 +1897,17 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1931,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1941,45 +1932,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Svartöra</t>
+          <t>Broskvaxing</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9561-2026 artfynd.xlsx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9561-2026 karta.png", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9561-2026 FSC-klagomål.docx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9561-2026 FSC-klagomål mail.docx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9561-2026 tillsynsbegäran.docx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9561-2026 tillsynsbegäran mail.docx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 11405-2025</t>
+          <t>A 61768-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45726</v>
+        <v>46002.63940972222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1992,13 +1983,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2007,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2016,55 +2007,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Fältgentiana</t>
+          <t>Kamjordstjärna</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 16407-2025</t>
+          <t>A 2214-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45751.45120370371</v>
+        <v>46036</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2077,17 +2068,17 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2101,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2111,45 +2102,49 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
+        <v/>
+      </c>
+      <c r="U18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 21831-2024</t>
+          <t>A 9561-2026</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45442</v>
+        <v>46071.64916666667</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2161,18 +2156,23 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2196,31 +2196,31 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svartöra</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9561-2026 artfynd.xlsx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9561-2026 karta.png", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9561-2026 FSC-klagomål.docx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9561-2026 FSC-klagomål mail.docx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9561-2026 tillsynsbegäran.docx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9561-2026 tillsynsbegäran mail.docx", "A 9561-2026")</f>
         <v/>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
         <v>44252</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>44313</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44308.34364583333</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44318</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44735.46880787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2631,14 +2631,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 25259-2021</t>
+          <t>A 46149-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44342.43712962963</v>
+        <v>44847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,13 +2650,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2693,14 +2688,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 46149-2022</t>
+          <t>A 16775-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44847</v>
+        <v>44673</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2713,7 +2708,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2750,14 +2745,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 16775-2022</t>
+          <t>A 12864-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44673</v>
+        <v>44271</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2769,8 +2764,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2807,14 +2807,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 12864-2021</t>
+          <t>A 35232-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44271</v>
+        <v>44384</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2826,13 +2826,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2869,14 +2864,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 35232-2021</t>
+          <t>A 64044-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44384</v>
+        <v>44510</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2889,7 +2884,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2933,7 +2928,7 @@
         <v>44509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2983,14 +2978,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 64044-2021</t>
+          <t>A 70275-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44510</v>
+        <v>44536</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3002,8 +2997,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>44448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3154,14 +3154,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 70275-2021</t>
+          <t>A 25259-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44536</v>
+        <v>44342.43712962963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         <v>44518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44690.39451388889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44548.57709490741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44548.58148148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3501,14 +3501,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 34078-2022</t>
+          <t>A 32975-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44791</v>
+        <v>44376</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3520,13 +3520,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>6.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3563,14 +3558,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 17091-2023</t>
+          <t>A 23239-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45034.53554398148</v>
+        <v>45075</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3583,7 +3578,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3620,14 +3615,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 26182-2022</t>
+          <t>A 14267-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44735</v>
+        <v>45740.63686342593</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3640,7 +3635,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3677,14 +3672,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 2628-2025</t>
+          <t>A 13697-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45675.68435185185</v>
+        <v>45390</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3696,8 +3691,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3734,14 +3734,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 17333-2024</t>
+          <t>A 11841-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45414.5625462963</v>
+        <v>44995.3221412037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3791,14 +3791,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 11841-2023</t>
+          <t>A 66293-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44995.3221412037</v>
+        <v>44518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3848,14 +3848,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 11450-2023</t>
+          <t>A 30351-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44993</v>
+        <v>44757</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.4</v>
+        <v>5.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3905,14 +3905,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 45525-2023</t>
+          <t>A 11847-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45194</v>
+        <v>44995.33957175926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3962,14 +3962,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 16773-2022</t>
+          <t>A 11450-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44673</v>
+        <v>44993</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4019,14 +4019,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 28189-2025</t>
+          <t>A 31875-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45818.41357638889</v>
+        <v>44777</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>7.6</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4076,14 +4076,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 20505-2021</t>
+          <t>A 1629-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44313</v>
+        <v>45306</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4095,8 +4095,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4133,14 +4138,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 60018-2024</t>
+          <t>A 60885-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45642</v>
+        <v>44497</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4153,7 +4158,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4190,14 +4195,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 16396-2025</t>
+          <t>A 66284-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45751.44219907407</v>
+        <v>44518</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4210,7 +4215,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.1</v>
+        <v>6.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4247,14 +4252,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 33976-2025</t>
+          <t>A 17333-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45843</v>
+        <v>45414.5625462963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4267,7 +4272,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>6.1</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4304,14 +4309,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 33974-2025</t>
+          <t>A 19676-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45843.305625</v>
+        <v>45770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4324,7 +4329,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4361,14 +4366,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 1791-2024</t>
+          <t>A 8343-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45307.574375</v>
+        <v>45352</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4378,6 +4383,11 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -4418,14 +4428,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 33975-2025</t>
+          <t>A 1791-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45843.30805555556</v>
+        <v>45307.574375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4438,7 +4448,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4475,14 +4485,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 34859-2025</t>
+          <t>A 30627-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45849.43511574074</v>
+        <v>45112</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4500,7 +4510,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>6.1</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4537,14 +4547,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 34864-2025</t>
+          <t>A 3191-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45849.44028935185</v>
+        <v>45316.67186342592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4556,13 +4566,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4599,14 +4604,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 44869-2025</t>
+          <t>A 45525-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45918.46758101852</v>
+        <v>45194</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4619,7 +4624,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>17.1</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4656,14 +4661,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 35318-2025</t>
+          <t>A 66305-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45854.47917824074</v>
+        <v>44518</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4675,13 +4680,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>2.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4718,14 +4718,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 45453-2025</t>
+          <t>A 2628-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45922.48702546296</v>
+        <v>45675.68435185185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4775,14 +4775,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 13040-2025</t>
+          <t>A 16773-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45734</v>
+        <v>44673</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4794,13 +4794,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4837,14 +4832,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 36472-2025</t>
+          <t>A 30764-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45869.48162037037</v>
+        <v>45112</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,8 +4851,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4894,14 +4894,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 36473-2025</t>
+          <t>A 51849-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45869.48333333333</v>
+        <v>45223.34391203704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.4</v>
+        <v>16.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4951,14 +4951,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 36470-2025</t>
+          <t>A 60018-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45869.47915509259</v>
+        <v>45642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5008,14 +5008,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 47803-2025</t>
+          <t>A 11452-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45931</v>
+        <v>44993</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5065,14 +5065,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 23239-2023</t>
+          <t>A 43908-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45075</v>
+        <v>45187</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5084,8 +5084,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5122,14 +5127,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 49090-2025</t>
+          <t>A 34078-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45937</v>
+        <v>44791</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5141,8 +5146,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5179,14 +5189,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 66284-2021</t>
+          <t>A 44869-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44518</v>
+        <v>45918.46758101852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5199,7 +5209,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>6.9</v>
+        <v>17.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5236,14 +5246,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 52666-2025</t>
+          <t>A 45453-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45955.74299768519</v>
+        <v>45922.48702546296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5256,7 +5266,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5293,14 +5303,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 52667-2025</t>
+          <t>A 13040-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45955.74666666667</v>
+        <v>45734</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5312,8 +5322,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5350,14 +5365,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 32975-2021</t>
+          <t>A 26182-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44376</v>
+        <v>44735</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5370,7 +5385,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>6.1</v>
+        <v>3.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5407,14 +5422,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 53898-2025</t>
+          <t>A 20505-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45961.43056712963</v>
+        <v>44313</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5427,7 +5442,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5464,14 +5479,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 11847-2023</t>
+          <t>A 47803-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44995.33957175926</v>
+        <v>45931</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5484,7 +5499,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5521,14 +5536,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 57631-2025</t>
+          <t>A 49090-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45981.34748842593</v>
+        <v>45937</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5541,7 +5556,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5578,14 +5593,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 53812-2025</t>
+          <t>A 2629-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45960</v>
+        <v>45675.6953587963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5598,7 +5613,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5635,14 +5650,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 60243-2025</t>
+          <t>A 5320-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45994.58650462963</v>
+        <v>44959</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5654,13 +5669,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5697,14 +5707,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 3015-2026</t>
+          <t>A 45916-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>46038</v>
+        <v>44846</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5717,7 +5727,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5754,14 +5764,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 3016-2026</t>
+          <t>A 16396-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46038</v>
+        <v>45751.44219907407</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5774,7 +5784,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5811,14 +5821,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 2952-2026</t>
+          <t>A 52667-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46037</v>
+        <v>45955.74666666667</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5831,7 +5841,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5868,14 +5878,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 3375-2026</t>
+          <t>A 52666-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46042</v>
+        <v>45955.74299768519</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5888,7 +5898,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5925,14 +5935,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 3836-2026</t>
+          <t>A 53898-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46043.5925</v>
+        <v>45961.43056712963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5945,7 +5955,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5982,14 +5992,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 3824-2026</t>
+          <t>A 17091-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46043.58570601852</v>
+        <v>45034.53554398148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6002,7 +6012,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6039,14 +6049,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 30351-2022</t>
+          <t>A 57631-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44757</v>
+        <v>45981.34748842593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6059,7 +6069,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6096,14 +6106,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 3191-2024</t>
+          <t>A 2171-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45316.67186342592</v>
+        <v>45309</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6115,8 +6125,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6153,14 +6168,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 31875-2022</t>
+          <t>A 21130-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44777</v>
+        <v>45778.35857638889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6173,7 +6188,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6210,14 +6225,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 5276-2026</t>
+          <t>A 794-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46037</v>
+        <v>45300.58149305556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6230,7 +6245,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6267,14 +6282,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 2944-2026</t>
+          <t>A 53812-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46037</v>
+        <v>45960</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6287,7 +6302,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6324,14 +6339,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 51849-2023</t>
+          <t>A 60243-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45223.34391203704</v>
+        <v>45994.58650462963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6343,8 +6358,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>16.3</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6381,14 +6401,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 5908-2026</t>
+          <t>A 2952-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46052.44399305555</v>
+        <v>46037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6401,7 +6421,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6438,14 +6458,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 5402-2023</t>
+          <t>A 3016-2026</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44959</v>
+        <v>46038</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6458,7 +6478,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6495,14 +6515,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 5910-2026</t>
+          <t>A 3015-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46052.44677083333</v>
+        <v>46038</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6515,7 +6535,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6552,14 +6572,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 66293-2021</t>
+          <t>A 3375-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44518</v>
+        <v>46042</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6572,7 +6592,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6609,14 +6629,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 45916-2022</t>
+          <t>A 3824-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44846</v>
+        <v>46043.58570601852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6629,7 +6649,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6666,14 +6686,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 2629-2025</t>
+          <t>A 3836-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45675.6953587963</v>
+        <v>46043.5925</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6686,7 +6706,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6723,14 +6743,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 5320-2023</t>
+          <t>A 20902-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44959</v>
+        <v>45439.48104166667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6743,7 +6763,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6780,14 +6800,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 666-2026</t>
+          <t>A 26226-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46029.58832175926</v>
+        <v>45805.55829861111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6800,7 +6820,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.8</v>
+        <v>9.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6837,14 +6857,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 662-2026</t>
+          <t>A 5276-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46029.58549768518</v>
+        <v>46037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6857,7 +6877,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6894,14 +6914,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 11452-2023</t>
+          <t>A 2944-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44993</v>
+        <v>46037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6914,7 +6934,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6951,14 +6971,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 30627-2023</t>
+          <t>A 5908-2026</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45112</v>
+        <v>46052.44399305555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6970,13 +6990,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7013,14 +7028,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 9744-2026</t>
+          <t>A 5910-2026</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46072.51857638889</v>
+        <v>46052.44677083333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7033,7 +7048,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7070,14 +7085,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 43908-2023</t>
+          <t>A 5402-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45187</v>
+        <v>44959</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7089,13 +7104,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7132,14 +7142,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 8343-2024</t>
+          <t>A 28189-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45352</v>
+        <v>45818.41357638889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7151,13 +7161,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>7.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7194,14 +7199,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 60885-2021</t>
+          <t>A 662-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44497</v>
+        <v>46029.58549768518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7214,7 +7219,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7251,14 +7256,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 19676-2025</t>
+          <t>A 9744-2026</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45770</v>
+        <v>46072.51857638889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7271,7 +7276,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7308,14 +7313,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 14267-2025</t>
+          <t>A 666-2026</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45740.63686342593</v>
+        <v>46029.58832175926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7328,7 +7333,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7365,14 +7370,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 13697-2024</t>
+          <t>A 33975-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45390</v>
+        <v>45843.30805555556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7384,13 +7389,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7427,14 +7427,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 66305-2021</t>
+          <t>A 33974-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44518</v>
+        <v>45843.305625</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>8.300000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7484,14 +7484,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 1629-2024</t>
+          <t>A 33976-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45306</v>
+        <v>45843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7503,13 +7503,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>3.6</v>
+        <v>6.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7546,14 +7541,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 30764-2023</t>
+          <t>A 34859-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45112</v>
+        <v>45849.43511574074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7571,7 +7566,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>6.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7608,14 +7603,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 2171-2024</t>
+          <t>A 34864-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45309</v>
+        <v>45849.44028935185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7633,7 +7628,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7670,14 +7665,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 21130-2025</t>
+          <t>A 35318-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45778.35857638889</v>
+        <v>45854.47917824074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7687,6 +7682,11 @@
       <c r="E114" t="inlineStr">
         <is>
           <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -7727,14 +7727,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 794-2024</t>
+          <t>A 36470-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45300.58149305556</v>
+        <v>45869.47915509259</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7784,14 +7784,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 20902-2024</t>
+          <t>A 36472-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45439.48104166667</v>
+        <v>45869.48162037037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7841,14 +7841,14 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 26226-2025</t>
+          <t>A 36473-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45805.55829861111</v>
+        <v>45869.48333333333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>9.1</v>
+        <v>1.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -575,7 +575,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45925</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,14 +809,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 7444-2023</t>
+          <t>A 44867-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44971</v>
+        <v>45190</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,39 +829,136 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.7</v>
+        <v>7.8</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>3</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5</v>
-      </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>9</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Bombmurkla
+Granticka
+Kandelabersvamp
+Granbräken
+Myskmadra
+Stor aspticka
+Enkelbeckasin
+Trana
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 44867-2023 artfynd.xlsx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 44867-2023 karta.png", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 44867-2023 FSC-klagomål.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 44867-2023 FSC-klagomål mail.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 44867-2023 tillsynsbegäran.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 44867-2023 tillsynsbegäran mail.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 44867-2023 prioriterade fågelarter.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 7444-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44971</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Apelticka
 Kärnticka
@@ -874,125 +971,28 @@
 Thomsons trägnagare</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 7444-2023 artfynd.xlsx", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 7444-2023 karta.png", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 7444-2023 FSC-klagomål.docx", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 7444-2023 FSC-klagomål mail.docx", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 7444-2023 tillsynsbegäran.docx", "A 7444-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 7444-2023 tillsynsbegäran mail.docx", "A 7444-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 44867-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Bombmurkla
-Granticka
-Kandelabersvamp
-Granbräken
-Myskmadra
-Stor aspticka
-Enkelbeckasin
-Trana
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 44867-2023 artfynd.xlsx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 44867-2023 karta.png", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 44867-2023 FSC-klagomål.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 44867-2023 FSC-klagomål mail.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 44867-2023 tillsynsbegäran.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 44867-2023 tillsynsbegäran mail.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 44867-2023 prioriterade fågelarter.docx", "A 44867-2023")</f>
         <v/>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         <v>45213</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45034</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1274,14 +1274,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 11405-2025</t>
+          <t>A 5455-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45726</v>
+        <v>45693</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>17.1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1318,55 +1318,55 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Fältgentiana</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 33770-2023</t>
+          <t>A 53813-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45133</v>
+        <v>45960</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,22 +1378,17 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1408,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1418,49 +1413,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Slaguggla</t>
+          <t>Broskvaxing</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 9553-2025</t>
+          <t>A 16973-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45715</v>
+        <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,17 +1464,17 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -1497,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1507,45 +1498,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9553-2025 artfynd.xlsx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9553-2025 karta.png", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9553-2025 FSC-klagomål.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9553-2025 FSC-klagomål mail.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9553-2025 tillsynsbegäran.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9553-2025 tillsynsbegäran mail.docx", "A 9553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 21831-2024</t>
+          <t>A 61768-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45442</v>
+        <v>46002.63940972222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,13 +1549,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1592,45 +1583,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kamjordstjärna</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 16407-2025</t>
+          <t>A 33770-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45751.45120370371</v>
+        <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,8 +1633,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1652,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1667,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1677,45 +1673,49 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Slaguggla</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 16973-2021</t>
+          <t>A 9553-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44295</v>
+        <v>45715</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,16 +1728,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1762,45 +1762,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9553-2025 artfynd.xlsx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9553-2025 karta.png", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9553-2025 FSC-klagomål.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9553-2025 FSC-klagomål mail.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9553-2025 tillsynsbegäran.docx", "A 9553-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9553-2025 tillsynsbegäran mail.docx", "A 9553-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 5455-2025</t>
+          <t>A 2214-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45693</v>
+        <v>46036</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1813,17 +1813,17 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>17.1</v>
+        <v>4.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1847,45 +1847,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
+        <v/>
+      </c>
+      <c r="U15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 53813-2025</t>
+          <t>A 9561-2026</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45960</v>
+        <v>46071.64916666667</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1897,18 +1901,23 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
@@ -1922,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1932,45 +1941,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Broskvaxing</t>
+          <t>Svartöra</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9561-2026 artfynd.xlsx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9561-2026 karta.png", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9561-2026 FSC-klagomål.docx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9561-2026 FSC-klagomål mail.docx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9561-2026 tillsynsbegäran.docx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9561-2026 tillsynsbegäran mail.docx", "A 9561-2026")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 61768-2025</t>
+          <t>A 11405-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>46002.63940972222</v>
+        <v>45726</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1983,23 +1992,23 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
@@ -2007,55 +2016,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Kamjordstjärna</t>
+          <t>Fältgentiana</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 2214-2026</t>
+          <t>A 16407-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46036</v>
+        <v>45751.45120370371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2068,16 +2077,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2092,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2102,49 +2111,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
-        <v/>
-      </c>
-      <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 9561-2026</t>
+          <t>A 21831-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>46071.64916666667</v>
+        <v>45442</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2156,22 +2161,17 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2196,31 +2196,31 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Svartöra</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9561-2026 artfynd.xlsx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9561-2026 karta.png", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9561-2026 FSC-klagomål.docx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9561-2026 FSC-klagomål mail.docx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9561-2026 tillsynsbegäran.docx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9561-2026 tillsynsbegäran mail.docx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
         <v>44252</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>44313</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44308.34364583333</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44318</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44735.46880787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2631,14 +2631,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 46149-2022</t>
+          <t>A 25259-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44847</v>
+        <v>44342.43712962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,8 +2650,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2688,14 +2693,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 16775-2022</t>
+          <t>A 46149-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44673</v>
+        <v>44847</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2708,7 +2713,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2745,14 +2750,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 12864-2021</t>
+          <t>A 16775-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44271</v>
+        <v>44673</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,13 +2769,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2807,14 +2807,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 35232-2021</t>
+          <t>A 12864-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44384</v>
+        <v>44271</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2826,8 +2826,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2864,14 +2869,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 64044-2021</t>
+          <t>A 35232-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44510</v>
+        <v>44384</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2884,7 +2889,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2928,7 +2933,7 @@
         <v>44509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2978,14 +2983,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 70275-2021</t>
+          <t>A 64044-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44536</v>
+        <v>44510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2997,13 +3002,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3040,14 +3040,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47652-2021</t>
+          <t>A 70275-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44448</v>
+        <v>44536</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3059,8 +3059,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3097,14 +3102,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 47654-2021</t>
+          <t>A 47652-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
         <v>44448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3117,7 +3122,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3154,14 +3159,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 25259-2021</t>
+          <t>A 47654-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44342.43712962963</v>
+        <v>44448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3173,13 +3178,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         <v>44518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44690.39451388889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44548.57709490741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44548.58148148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3501,14 +3501,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 32975-2021</t>
+          <t>A 34078-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44376</v>
+        <v>44791</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3520,8 +3520,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>6.1</v>
+        <v>1.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3558,14 +3563,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 23239-2023</t>
+          <t>A 17091-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45075</v>
+        <v>45034.53554398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3578,7 +3583,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3615,14 +3620,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 14267-2025</t>
+          <t>A 2171-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45740.63686342593</v>
+        <v>45309</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3634,8 +3639,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3672,14 +3682,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 13697-2024</t>
+          <t>A 21130-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45390</v>
+        <v>45778.35857638889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3691,13 +3701,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3734,14 +3739,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 11841-2023</t>
+          <t>A 26182-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44995.3221412037</v>
+        <v>44735</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3759,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3791,14 +3796,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 66293-2021</t>
+          <t>A 2628-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44518</v>
+        <v>45675.68435185185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3816,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3848,14 +3853,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 30351-2022</t>
+          <t>A 17333-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44757</v>
+        <v>45414.5625462963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3873,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.7</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3905,14 +3910,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 11847-2023</t>
+          <t>A 794-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44995.33957175926</v>
+        <v>45300.58149305556</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3930,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3962,14 +3967,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 11450-2023</t>
+          <t>A 11841-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44993</v>
+        <v>44995.3221412037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3987,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4019,14 +4024,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 31875-2022</t>
+          <t>A 20902-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44777</v>
+        <v>45439.48104166667</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4039,7 +4044,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4076,14 +4081,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 1629-2024</t>
+          <t>A 11450-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45306</v>
+        <v>44993</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4095,13 +4100,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4138,14 +4138,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 60885-2021</t>
+          <t>A 45525-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44497</v>
+        <v>45194</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4195,14 +4195,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 66284-2021</t>
+          <t>A 26226-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44518</v>
+        <v>45805.55829861111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>6.9</v>
+        <v>9.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4252,14 +4252,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 17333-2024</t>
+          <t>A 44869-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45414.5625462963</v>
+        <v>45918.46758101852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>17.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4309,14 +4309,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 19676-2025</t>
+          <t>A 45453-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45770</v>
+        <v>45922.48702546296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4366,14 +4366,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 8343-2024</t>
+          <t>A 13040-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45352</v>
+        <v>45734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4387,11 +4387,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4428,14 +4428,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 1791-2024</t>
+          <t>A 49090-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45307.574375</v>
+        <v>45937</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4485,14 +4485,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 30627-2023</t>
+          <t>A 28189-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45112</v>
+        <v>45818.41357638889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4504,13 +4504,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>7.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4547,14 +4542,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 3191-2024</t>
+          <t>A 16773-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45316.67186342592</v>
+        <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4567,7 +4562,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4604,14 +4599,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 45525-2023</t>
+          <t>A 47803-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45194</v>
+        <v>45931</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4624,7 +4619,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4661,14 +4656,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 66305-2021</t>
+          <t>A 20505-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4681,7 +4676,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>8.300000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4718,14 +4713,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 2628-2025</t>
+          <t>A 60018-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45675.68435185185</v>
+        <v>45642</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4738,7 +4733,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4775,14 +4770,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 16773-2022</t>
+          <t>A 16396-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44673</v>
+        <v>45751.44219907407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4795,7 +4790,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4832,14 +4827,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 30764-2023</t>
+          <t>A 33976-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45112</v>
+        <v>45843</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4851,13 +4846,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>6.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4894,14 +4884,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 51849-2023</t>
+          <t>A 33974-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45223.34391203704</v>
+        <v>45843.305625</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4914,7 +4904,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>16.3</v>
+        <v>2.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4951,14 +4941,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 60018-2024</t>
+          <t>A 33975-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45642</v>
+        <v>45843.30805555556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4971,7 +4961,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5008,14 +4998,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 11452-2023</t>
+          <t>A 34859-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44993</v>
+        <v>45849.43511574074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,8 +5017,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5065,14 +5060,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 43908-2023</t>
+          <t>A 34864-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45187</v>
+        <v>45849.44028935185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,11 +5081,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5127,14 +5122,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 34078-2022</t>
+          <t>A 1791-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44791</v>
+        <v>45307.574375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5146,13 +5141,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5189,14 +5179,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 44869-2025</t>
+          <t>A 35318-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45918.46758101852</v>
+        <v>45854.47917824074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5208,8 +5198,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>17.1</v>
+        <v>2.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5246,14 +5241,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 45453-2025</t>
+          <t>A 36472-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45922.48702546296</v>
+        <v>45869.48162037037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5266,7 +5261,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5303,14 +5298,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 13040-2025</t>
+          <t>A 36473-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45734</v>
+        <v>45869.48333333333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5322,13 +5317,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5365,14 +5355,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 26182-2022</t>
+          <t>A 36470-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44735</v>
+        <v>45869.47915509259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5385,7 +5375,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5422,14 +5412,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 20505-2021</t>
+          <t>A 52666-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44313</v>
+        <v>45955.74299768519</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5442,7 +5432,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5479,14 +5469,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 47803-2025</t>
+          <t>A 52667-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45931</v>
+        <v>45955.74666666667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5499,7 +5489,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5536,14 +5526,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 49090-2025</t>
+          <t>A 53898-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45937</v>
+        <v>45961.43056712963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5556,7 +5546,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5593,14 +5583,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 2629-2025</t>
+          <t>A 23239-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45675.6953587963</v>
+        <v>45075</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5613,7 +5603,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5650,14 +5640,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 5320-2023</t>
+          <t>A 66284-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44959</v>
+        <v>44518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5670,7 +5660,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>6.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5707,14 +5697,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45916-2022</t>
+          <t>A 32975-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44846</v>
+        <v>44376</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5727,7 +5717,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.8</v>
+        <v>6.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5764,14 +5754,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 16396-2025</t>
+          <t>A 57631-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45751.44219907407</v>
+        <v>45981.34748842593</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5784,7 +5774,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5821,14 +5811,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 52667-2025</t>
+          <t>A 53812-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45955.74666666667</v>
+        <v>45960</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5841,7 +5831,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5878,14 +5868,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 52666-2025</t>
+          <t>A 60243-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45955.74299768519</v>
+        <v>45994.58650462963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5897,8 +5887,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5935,14 +5930,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 53898-2025</t>
+          <t>A 11847-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45961.43056712963</v>
+        <v>44995.33957175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5955,7 +5950,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5992,14 +5987,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 17091-2023</t>
+          <t>A 3015-2026</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45034.53554398148</v>
+        <v>46038</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6012,7 +6007,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6049,14 +6044,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 57631-2025</t>
+          <t>A 3016-2026</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45981.34748842593</v>
+        <v>46038</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6069,7 +6064,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6106,14 +6101,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 2171-2024</t>
+          <t>A 2952-2026</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45309</v>
+        <v>46037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6125,13 +6120,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6168,14 +6158,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 21130-2025</t>
+          <t>A 3375-2026</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45778.35857638889</v>
+        <v>46042</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6188,7 +6178,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6225,14 +6215,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 794-2024</t>
+          <t>A 3836-2026</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45300.58149305556</v>
+        <v>46043.5925</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6245,7 +6235,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6282,14 +6272,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 53812-2025</t>
+          <t>A 3824-2026</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45960</v>
+        <v>46043.58570601852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6302,7 +6292,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6339,14 +6329,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 60243-2025</t>
+          <t>A 5276-2026</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45994.58650462963</v>
+        <v>46037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6358,13 +6348,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6401,14 +6386,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 2952-2026</t>
+          <t>A 2944-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
         <v>46037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6421,7 +6406,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6458,14 +6443,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 3016-2026</t>
+          <t>A 5908-2026</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46038</v>
+        <v>46052.44399305555</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6515,14 +6500,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 3015-2026</t>
+          <t>A 5402-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46038</v>
+        <v>44959</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6535,7 +6520,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6572,14 +6557,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 3375-2026</t>
+          <t>A 5910-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46042</v>
+        <v>46052.44677083333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6592,7 +6577,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6629,14 +6614,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 3824-2026</t>
+          <t>A 30351-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46043.58570601852</v>
+        <v>44757</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6649,7 +6634,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6686,14 +6671,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 3836-2026</t>
+          <t>A 3191-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46043.5925</v>
+        <v>45316.67186342592</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6706,7 +6691,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6743,14 +6728,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 20902-2024</t>
+          <t>A 31875-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45439.48104166667</v>
+        <v>44777</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6763,7 +6748,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6800,14 +6785,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 26226-2025</t>
+          <t>A 51849-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45805.55829861111</v>
+        <v>45223.34391203704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6820,7 +6805,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>9.1</v>
+        <v>16.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6857,14 +6842,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 5276-2026</t>
+          <t>A 66293-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46037</v>
+        <v>44518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6877,7 +6862,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6914,14 +6899,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 2944-2026</t>
+          <t>A 45916-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46037</v>
+        <v>44846</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6934,7 +6919,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6971,14 +6956,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 5908-2026</t>
+          <t>A 666-2026</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46052.44399305555</v>
+        <v>46029.58832175926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6991,7 +6976,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7028,14 +7013,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 5910-2026</t>
+          <t>A 662-2026</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46052.44677083333</v>
+        <v>46029.58549768518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7048,7 +7033,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7085,14 +7070,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 5402-2023</t>
+          <t>A 2629-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44959</v>
+        <v>45675.6953587963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7105,7 +7090,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7142,14 +7127,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 28189-2025</t>
+          <t>A 5320-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45818.41357638889</v>
+        <v>44959</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7162,7 +7147,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7199,14 +7184,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 662-2026</t>
+          <t>A 9744-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46029.58549768518</v>
+        <v>46072.51857638889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7219,7 +7204,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7256,14 +7241,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 9744-2026</t>
+          <t>A 11452-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46072.51857638889</v>
+        <v>44993</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7276,7 +7261,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7313,14 +7298,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 666-2026</t>
+          <t>A 30627-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46029.58832175926</v>
+        <v>45112</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7332,8 +7317,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7370,14 +7360,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 33975-2025</t>
+          <t>A 43908-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45843.30805555556</v>
+        <v>45187</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7389,8 +7379,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7427,14 +7422,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 33974-2025</t>
+          <t>A 8343-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45843.305625</v>
+        <v>45352</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7446,8 +7441,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7484,14 +7484,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 33976-2025</t>
+          <t>A 60885-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45843</v>
+        <v>44497</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>6.1</v>
+        <v>1.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7541,14 +7541,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 34859-2025</t>
+          <t>A 19676-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45849.43511574074</v>
+        <v>45770</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7560,13 +7560,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>6.1</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7603,14 +7598,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 34864-2025</t>
+          <t>A 14267-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45849.44028935185</v>
+        <v>45740.63686342593</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7622,13 +7617,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7665,14 +7655,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 35318-2025</t>
+          <t>A 13697-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45854.47917824074</v>
+        <v>45390</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7690,7 +7680,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7727,14 +7717,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 36470-2025</t>
+          <t>A 66305-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45869.47915509259</v>
+        <v>44518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7747,7 +7737,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7784,14 +7774,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 36472-2025</t>
+          <t>A 1629-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45869.48162037037</v>
+        <v>45306</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7803,8 +7793,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7841,14 +7836,14 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 36473-2025</t>
+          <t>A 30764-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45869.48333333333</v>
+        <v>45112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7860,8 +7855,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z117"/>
+  <dimension ref="A1:Z116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45925</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>45190</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45213</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45034</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1274,14 +1274,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 5455-2025</t>
+          <t>A 16973-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45693</v>
+        <v>44295</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,17 +1294,17 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>17.1</v>
+        <v>5.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1328,45 +1328,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 53813-2025</t>
+          <t>A 5455-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45960</v>
+        <v>45693</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>17.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1413,45 +1413,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Broskvaxing</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 16973-2021</t>
+          <t>A 11405-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44295</v>
+        <v>45726</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1473,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1491,52 +1491,52 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Fältgentiana</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 61768-2025</t>
+          <t>A 33770-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>46002.63940972222</v>
+        <v>45133</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,18 +1548,23 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1573,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1583,45 +1588,49 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Kamjordstjärna</t>
+          <t>Slaguggla</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 33770-2023</t>
+          <t>A 21831-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45133</v>
+        <v>45442</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,13 +1642,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1648,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1663,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1673,35 +1677,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Slaguggla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
         <v>45715</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1793,14 +1793,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 2214-2026</t>
+          <t>A 53813-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46036</v>
+        <v>45960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1847,49 +1847,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Broskvaxing</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
-        <v/>
-      </c>
-      <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 9561-2026</t>
+          <t>A 16407-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>46071.64916666667</v>
+        <v>45751.45120370371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1901,22 +1897,17 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1931,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1941,45 +1932,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Svartöra</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9561-2026 artfynd.xlsx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9561-2026 karta.png", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9561-2026 FSC-klagomål.docx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9561-2026 FSC-klagomål mail.docx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9561-2026 tillsynsbegäran.docx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9561-2026 tillsynsbegäran mail.docx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 11405-2025</t>
+          <t>A 61768-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45726</v>
+        <v>46002.63940972222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1992,13 +1983,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2007,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2016,55 +2007,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Fältgentiana</t>
+          <t>Kamjordstjärna</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 16407-2025</t>
+          <t>A 2214-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45751.45120370371</v>
+        <v>46036</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2077,17 +2068,17 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2101,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2111,45 +2102,49 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16407-2025 artfynd.xlsx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16407-2025 karta.png", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
+        <v/>
+      </c>
+      <c r="U18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16407-2025 FSC-klagomål.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16407-2025 FSC-klagomål mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16407-2025 tillsynsbegäran.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16407-2025 tillsynsbegäran mail.docx", "A 16407-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 21831-2024</t>
+          <t>A 9561-2026</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45442</v>
+        <v>46071.64916666667</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2161,18 +2156,23 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2196,45 +2196,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svartöra</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9561-2026 artfynd.xlsx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9561-2026 karta.png", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9561-2026 FSC-klagomål.docx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9561-2026 FSC-klagomål mail.docx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9561-2026 tillsynsbegäran.docx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9561-2026 tillsynsbegäran mail.docx", "A 9561-2026")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 9725-2021</t>
+          <t>A 19796-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44252</v>
+        <v>44313</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>14.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2284,14 +2284,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 19796-2021</t>
+          <t>A 18897-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44313</v>
+        <v>44308.34364583333</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2303,8 +2303,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>14.6</v>
+        <v>1.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2341,14 +2346,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 18897-2021</t>
+          <t>A 20827-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44308.34364583333</v>
+        <v>44318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2360,13 +2365,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2403,14 +2403,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 20827-2021</t>
+          <t>A 66298-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44318</v>
+        <v>44518</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2460,14 +2460,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 66298-2021</t>
+          <t>A 26239-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44518</v>
+        <v>44735.46880787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2517,14 +2517,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 26239-2022</t>
+          <t>A 31143-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44735.46880787037</v>
+        <v>44368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.4</v>
+        <v>13.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2574,14 +2574,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 31143-2021</t>
+          <t>A 25259-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44368</v>
+        <v>44342.43712962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,8 +2593,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>13.1</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2631,14 +2636,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 25259-2021</t>
+          <t>A 46149-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44342.43712962963</v>
+        <v>44847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,13 +2655,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2693,14 +2693,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 46149-2022</t>
+          <t>A 16775-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44847</v>
+        <v>44673</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2750,14 +2750,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 16775-2022</t>
+          <t>A 35232-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44673</v>
+        <v>44384</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2814,7 +2814,7 @@
         <v>44271</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2869,14 +2869,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 35232-2021</t>
+          <t>A 62451-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44384</v>
+        <v>44509</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2926,14 +2926,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 62451-2021</t>
+          <t>A 47652-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44509</v>
+        <v>44448</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2983,14 +2983,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 64044-2021</t>
+          <t>A 47654-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44510</v>
+        <v>44448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>44536</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3102,14 +3102,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 47652-2021</t>
+          <t>A 64044-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44448</v>
+        <v>44510</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3159,14 +3159,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 47654-2021</t>
+          <t>A 66256-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44448</v>
+        <v>44518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3216,14 +3216,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 66256-2021</t>
+          <t>A 18820-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44518</v>
+        <v>44690.39451388889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3273,14 +3273,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 18820-2022</t>
+          <t>A 62441-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44690.39451388889</v>
+        <v>44503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3330,14 +3330,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 62441-2021</t>
+          <t>A 72967-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44503</v>
+        <v>44548.58148148148</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>44548.57709490741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3444,14 +3444,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 72967-2021</t>
+          <t>A 32975-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44548.58148148148</v>
+        <v>44376</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3501,14 +3501,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 34078-2022</t>
+          <t>A 11841-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44791</v>
+        <v>44995.3221412037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3520,13 +3520,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3563,14 +3558,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 17091-2023</t>
+          <t>A 1629-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45034.53554398148</v>
+        <v>45306</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3582,8 +3577,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3620,14 +3620,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 2171-2024</t>
+          <t>A 30351-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45309</v>
+        <v>44757</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3639,13 +3639,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3682,14 +3677,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 21130-2025</t>
+          <t>A 11847-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45778.35857638889</v>
+        <v>44995.33957175926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3702,7 +3697,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3739,14 +3734,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 26182-2022</t>
+          <t>A 11450-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44735</v>
+        <v>44993</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3759,7 +3754,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3796,14 +3791,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 2628-2025</t>
+          <t>A 26182-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45675.68435185185</v>
+        <v>44735</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3816,7 +3811,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3853,14 +3848,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 17333-2024</t>
+          <t>A 20505-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45414.5625462963</v>
+        <v>44313</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3873,7 +3868,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3910,14 +3905,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 794-2024</t>
+          <t>A 13697-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45300.58149305556</v>
+        <v>45390</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3929,8 +3924,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3967,14 +3967,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 11841-2023</t>
+          <t>A 31875-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44995.3221412037</v>
+        <v>44777</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4024,14 +4024,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 20902-2024</t>
+          <t>A 2629-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45439.48104166667</v>
+        <v>45675.6953587963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4081,14 +4081,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 11450-2023</t>
+          <t>A 23239-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44993</v>
+        <v>45075</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4138,14 +4138,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 45525-2023</t>
+          <t>A 5320-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45194</v>
+        <v>44959</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4195,14 +4195,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 26226-2025</t>
+          <t>A 45916-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45805.55829861111</v>
+        <v>44846</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>9.1</v>
+        <v>3.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4252,14 +4252,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 44869-2025</t>
+          <t>A 16396-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45918.46758101852</v>
+        <v>45751.44219907407</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>17.1</v>
+        <v>5.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4309,14 +4309,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 45453-2025</t>
+          <t>A 17091-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45922.48702546296</v>
+        <v>45034.53554398148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4366,14 +4366,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 13040-2025</t>
+          <t>A 66293-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45734</v>
+        <v>44518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4385,13 +4385,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4428,14 +4423,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 49090-2025</t>
+          <t>A 14267-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45937</v>
+        <v>45740.63686342593</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4448,7 +4443,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4485,14 +4480,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 28189-2025</t>
+          <t>A 60885-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45818.41357638889</v>
+        <v>44497</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4505,7 +4500,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4542,14 +4537,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 16773-2022</t>
+          <t>A 2171-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44673</v>
+        <v>45309</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4561,8 +4556,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4599,14 +4599,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 47803-2025</t>
+          <t>A 21130-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45931</v>
+        <v>45778.35857638889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4656,14 +4656,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 20505-2021</t>
+          <t>A 3191-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44313</v>
+        <v>45316.67186342592</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4713,14 +4713,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 60018-2024</t>
+          <t>A 794-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45642</v>
+        <v>45300.58149305556</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4770,14 +4770,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 16396-2025</t>
+          <t>A 45525-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45751.44219907407</v>
+        <v>45194</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4827,14 +4827,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 33976-2025</t>
+          <t>A 66284-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45843</v>
+        <v>44518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4884,14 +4884,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 33974-2025</t>
+          <t>A 19676-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45843.305625</v>
+        <v>45770</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4941,14 +4941,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 33975-2025</t>
+          <t>A 8343-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45843.30805555556</v>
+        <v>45352</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4960,8 +4960,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4998,14 +5003,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 34859-2025</t>
+          <t>A 30627-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45849.43511574074</v>
+        <v>45112</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5023,7 +5028,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6.1</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5060,14 +5065,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 34864-2025</t>
+          <t>A 20902-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45849.44028935185</v>
+        <v>45439.48104166667</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5079,13 +5084,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5122,14 +5122,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 1791-2024</t>
+          <t>A 44869-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45307.574375</v>
+        <v>45918.46758101852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>17.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5179,14 +5179,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 35318-2025</t>
+          <t>A 45453-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45854.47917824074</v>
+        <v>45922.48702546296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5198,13 +5198,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5241,14 +5236,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 36472-2025</t>
+          <t>A 16773-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45869.48162037037</v>
+        <v>44673</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5261,7 +5256,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5298,14 +5293,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 36473-2025</t>
+          <t>A 26226-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45869.48333333333</v>
+        <v>45805.55829861111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5318,7 +5313,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>9.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5355,14 +5350,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 36470-2025</t>
+          <t>A 13040-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45869.47915509259</v>
+        <v>45734</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5374,8 +5369,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5412,14 +5412,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 52666-2025</t>
+          <t>A 30764-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45955.74299768519</v>
+        <v>45112</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5431,8 +5431,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5469,14 +5474,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 52667-2025</t>
+          <t>A 51849-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45955.74666666667</v>
+        <v>45223.34391203704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5489,7 +5494,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>16.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5526,14 +5531,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 53898-2025</t>
+          <t>A 60018-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45961.43056712963</v>
+        <v>45642</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5546,7 +5551,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5583,14 +5588,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23239-2023</t>
+          <t>A 47803-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45075</v>
+        <v>45931</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5603,7 +5608,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5640,14 +5645,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 66284-2021</t>
+          <t>A 28189-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44518</v>
+        <v>45818.41357638889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5660,7 +5665,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5697,14 +5702,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 32975-2021</t>
+          <t>A 49090-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44376</v>
+        <v>45937</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5717,7 +5722,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6.1</v>
+        <v>4.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5754,14 +5759,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 57631-2025</t>
+          <t>A 17333-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45981.34748842593</v>
+        <v>45414.5625462963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5774,7 +5779,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5811,14 +5816,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 53812-2025</t>
+          <t>A 1791-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45960</v>
+        <v>45307.574375</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5831,7 +5836,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5868,14 +5873,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 60243-2025</t>
+          <t>A 52667-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45994.58650462963</v>
+        <v>45955.74666666667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5887,13 +5892,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5930,14 +5930,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 11847-2023</t>
+          <t>A 52666-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44995.33957175926</v>
+        <v>45955.74299768519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5987,14 +5987,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 3015-2026</t>
+          <t>A 66305-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46038</v>
+        <v>44518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6044,14 +6044,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 3016-2026</t>
+          <t>A 53898-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46038</v>
+        <v>45961.43056712963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6101,14 +6101,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 2952-2026</t>
+          <t>A 33975-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46037</v>
+        <v>45843.30805555556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6158,14 +6158,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 3375-2026</t>
+          <t>A 33974-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46042</v>
+        <v>45843.305625</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6215,14 +6215,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 3836-2026</t>
+          <t>A 33976-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46043.5925</v>
+        <v>45843</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.7</v>
+        <v>6.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6272,14 +6272,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 3824-2026</t>
+          <t>A 34859-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46043.58570601852</v>
+        <v>45849.43511574074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6291,8 +6291,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>6.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6329,14 +6334,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 5276-2026</t>
+          <t>A 34864-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46037</v>
+        <v>45849.44028935185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6348,8 +6353,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6386,14 +6396,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 2944-2026</t>
+          <t>A 35318-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46037</v>
+        <v>45854.47917824074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6405,8 +6415,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6443,14 +6458,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 5908-2026</t>
+          <t>A 2628-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46052.44399305555</v>
+        <v>45675.68435185185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6463,7 +6478,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6500,14 +6515,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 5402-2023</t>
+          <t>A 36470-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44959</v>
+        <v>45869.47915509259</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6520,7 +6535,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6557,14 +6572,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 5910-2026</t>
+          <t>A 57631-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46052.44677083333</v>
+        <v>45981.34748842593</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6577,7 +6592,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6614,14 +6629,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 30351-2022</t>
+          <t>A 36472-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44757</v>
+        <v>45869.48162037037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6634,7 +6649,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.7</v>
+        <v>1.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6671,14 +6686,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 3191-2024</t>
+          <t>A 36473-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45316.67186342592</v>
+        <v>45869.48333333333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6691,7 +6706,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6728,14 +6743,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 31875-2022</t>
+          <t>A 11452-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44777</v>
+        <v>44993</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6748,7 +6763,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6785,14 +6800,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 51849-2023</t>
+          <t>A 53812-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45223.34391203704</v>
+        <v>45960</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6805,7 +6820,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>16.3</v>
+        <v>5.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6842,14 +6857,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 66293-2021</t>
+          <t>A 60243-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44518</v>
+        <v>45994.58650462963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6861,8 +6876,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6899,14 +6919,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 45916-2022</t>
+          <t>A 43908-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44846</v>
+        <v>45187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6918,8 +6938,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6956,14 +6981,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 666-2026</t>
+          <t>A 2952-2026</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46029.58832175926</v>
+        <v>46037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6976,7 +7001,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7013,14 +7038,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 662-2026</t>
+          <t>A 3016-2026</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46029.58549768518</v>
+        <v>46038</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7033,7 +7058,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7070,14 +7095,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 2629-2025</t>
+          <t>A 3015-2026</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45675.6953587963</v>
+        <v>46038</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7090,7 +7115,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7127,14 +7152,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 5320-2023</t>
+          <t>A 34078-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44959</v>
+        <v>44791</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7146,8 +7171,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7184,14 +7214,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 9744-2026</t>
+          <t>A 3375-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46072.51857638889</v>
+        <v>46042</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7204,7 +7234,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7241,14 +7271,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 11452-2023</t>
+          <t>A 3824-2026</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44993</v>
+        <v>46043.58570601852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7261,7 +7291,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7298,14 +7328,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 30627-2023</t>
+          <t>A 3836-2026</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45112</v>
+        <v>46043.5925</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7317,13 +7347,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7360,14 +7385,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 43908-2023</t>
+          <t>A 5276-2026</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45187</v>
+        <v>46037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7379,13 +7404,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7422,14 +7442,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 8343-2024</t>
+          <t>A 2944-2026</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45352</v>
+        <v>46037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7441,13 +7461,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7484,14 +7499,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 60885-2021</t>
+          <t>A 5908-2026</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44497</v>
+        <v>46052.44399305555</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7504,7 +7519,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7541,14 +7556,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 19676-2025</t>
+          <t>A 5910-2026</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45770</v>
+        <v>46052.44677083333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7561,7 +7576,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7598,14 +7613,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 14267-2025</t>
+          <t>A 5402-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45740.63686342593</v>
+        <v>44959</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7618,7 +7633,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7655,14 +7670,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 13697-2024</t>
+          <t>A 662-2026</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45390</v>
+        <v>46029.58549768518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7674,13 +7689,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7717,14 +7727,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 66305-2021</t>
+          <t>A 9744-2026</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44518</v>
+        <v>46072.51857638889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7737,7 +7747,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>8.300000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7771,17 +7781,17 @@
       </c>
       <c r="R115" s="2" t="inlineStr"/>
     </row>
-    <row r="116" ht="15" customHeight="1">
+    <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 1629-2024</t>
+          <t>A 666-2026</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45306</v>
+        <v>46029.58832175926</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7793,13 +7803,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7832,68 +7837,6 @@
         <v>0</v>
       </c>
       <c r="R116" s="2" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>A 30764-2023</t>
-        </is>
-      </c>
-      <c r="B117" s="1" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C117" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
-      <c r="G117" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M117" t="n">
-        <v>0</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O117" t="n">
-        <v>0</v>
-      </c>
-      <c r="P117" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>0</v>
-      </c>
-      <c r="R117" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -575,7 +575,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45925</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,14 +809,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 44867-2023</t>
+          <t>A 7444-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45190</v>
+        <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,19 +829,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>7.8</v>
+        <v>0.7</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -853,15 +853,108 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
         <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>9</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Apelticka
+Kärnticka
+Rostorangelav
+Kandelabersvamp
+Lunglav
+Granbarkgnagare
+Platt fjädermossa
+Stekelbock
+Thomsons trägnagare</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 7444-2023 artfynd.xlsx", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 7444-2023 karta.png", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 7444-2023 FSC-klagomål.docx", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 7444-2023 FSC-klagomål mail.docx", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 7444-2023 tillsynsbegäran.docx", "A 7444-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 7444-2023 tillsynsbegäran mail.docx", "A 7444-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 44867-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Bombmurkla
 Granticka
@@ -874,125 +967,32 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 44867-2023 artfynd.xlsx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 44867-2023 karta.png", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 44867-2023 FSC-klagomål.docx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 44867-2023 FSC-klagomål mail.docx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 44867-2023 tillsynsbegäran.docx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 44867-2023 tillsynsbegäran mail.docx", "A 44867-2023")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 44867-2023 prioriterade fågelarter.docx", "A 44867-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 7444-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44971</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Apelticka
-Kärnticka
-Rostorangelav
-Kandelabersvamp
-Lunglav
-Granbarkgnagare
-Platt fjädermossa
-Stekelbock
-Thomsons trägnagare</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 7444-2023 artfynd.xlsx", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 7444-2023 karta.png", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 7444-2023 FSC-klagomål.docx", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 7444-2023 FSC-klagomål mail.docx", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 7444-2023 tillsynsbegäran.docx", "A 7444-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 7444-2023 tillsynsbegäran mail.docx", "A 7444-2023")</f>
         <v/>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         <v>45213</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45034</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1274,14 +1274,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 16973-2021</t>
+          <t>A 11405-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44295</v>
+        <v>45726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1321,52 +1321,52 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Fältgentiana</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 5455-2025</t>
+          <t>A 33770-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45693</v>
+        <v>45133</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,18 +1378,23 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>17.1</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1403,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1413,45 +1418,49 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Slaguggla</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 11405-2025</t>
+          <t>A 53813-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45726</v>
+        <v>45960</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,13 +1473,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1479,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1488,55 +1497,55 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Fältgentiana</t>
+          <t>Broskvaxing</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 11405-2025 artfynd.xlsx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 11405-2025 karta.png", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 11405-2025 FSC-klagomål.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 11405-2025 FSC-klagomål mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 11405-2025 tillsynsbegäran.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 11405-2025 tillsynsbegäran mail.docx", "A 11405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 33770-2023</t>
+          <t>A 21831-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45133</v>
+        <v>45442</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,13 +1557,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1563,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1578,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1588,49 +1592,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Slaguggla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 33770-2023 artfynd.xlsx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 33770-2023 karta.png", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 33770-2023 FSC-klagomål.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 33770-2023 FSC-klagomål mail.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 33770-2023 tillsynsbegäran.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 33770-2023 tillsynsbegäran mail.docx", "A 33770-2023")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/fåglar/A 33770-2023 prioriterade fågelarter.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 21831-2024</t>
+          <t>A 61768-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45442</v>
+        <v>46002.63940972222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1677,31 +1677,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kamjordstjärna</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 21831-2024 artfynd.xlsx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 21831-2024 karta.png", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 21831-2024 FSC-klagomål.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 21831-2024 FSC-klagomål mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 21831-2024 tillsynsbegäran.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 21831-2024 tillsynsbegäran mail.docx", "A 21831-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
         <v/>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
         <v>45715</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1793,14 +1793,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 53813-2025</t>
+          <t>A 2214-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45960</v>
+        <v>46036</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1813,17 +1813,17 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1847,31 +1847,35 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Broskvaxing</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 53813-2025 artfynd.xlsx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 53813-2025 karta.png", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
+        <v/>
+      </c>
+      <c r="U15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 53813-2025 FSC-klagomål.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 53813-2025 FSC-klagomål mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 53813-2025 tillsynsbegäran.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 53813-2025 tillsynsbegäran mail.docx", "A 53813-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
         <v/>
       </c>
     </row>
@@ -1885,7 +1889,7 @@
         <v>45751.45120370371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,14 +1967,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 61768-2025</t>
+          <t>A 9561-2026</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>46002.63940972222</v>
+        <v>46071.64916666667</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1982,18 +1986,23 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
@@ -2007,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2017,45 +2026,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Kamjordstjärna</t>
+          <t>Svartöra</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 61768-2025 artfynd.xlsx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9561-2026 artfynd.xlsx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 61768-2025 karta.png", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9561-2026 karta.png", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 61768-2025 FSC-klagomål.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9561-2026 FSC-klagomål.docx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 61768-2025 FSC-klagomål mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9561-2026 FSC-klagomål mail.docx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 61768-2025 tillsynsbegäran.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9561-2026 tillsynsbegäran.docx", "A 9561-2026")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 61768-2025 tillsynsbegäran mail.docx", "A 61768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9561-2026 tillsynsbegäran mail.docx", "A 9561-2026")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 2214-2026</t>
+          <t>A 16973-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46036</v>
+        <v>44295</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2068,7 +2077,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2102,49 +2111,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 2214-2026 artfynd.xlsx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 16973-2021 artfynd.xlsx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 2214-2026 karta.png", "A 2214-2026")</f>
-        <v/>
-      </c>
-      <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/knärot/A 2214-2026 karta knärot.png", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 16973-2021 karta.png", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 2214-2026 FSC-klagomål.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 16973-2021 FSC-klagomål.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 2214-2026 FSC-klagomål mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 16973-2021 FSC-klagomål mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 2214-2026 tillsynsbegäran.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 16973-2021 tillsynsbegäran.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 2214-2026 tillsynsbegäran mail.docx", "A 2214-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 16973-2021 tillsynsbegäran mail.docx", "A 16973-2021")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 9561-2026</t>
+          <t>A 5455-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>46071.64916666667</v>
+        <v>45693</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2156,22 +2161,17 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>17.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2196,31 +2196,31 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Svartöra</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 9561-2026 artfynd.xlsx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/artfynd/A 5455-2025 artfynd.xlsx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 9561-2026 karta.png", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/kartor/A 5455-2025 karta.png", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 9561-2026 FSC-klagomål.docx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomål/A 5455-2025 FSC-klagomål.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 9561-2026 FSC-klagomål mail.docx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/klagomålsmail/A 5455-2025 FSC-klagomål mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 9561-2026 tillsynsbegäran.docx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsyn/A 5455-2025 tillsynsbegäran.docx", "A 5455-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 9561-2026 tillsynsbegäran mail.docx", "A 9561-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0330/tillsynsmail/A 5455-2025 tillsynsbegäran mail.docx", "A 5455-2025")</f>
         <v/>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
         <v>44313</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>44308.34364583333</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44518</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44735.46880787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44342.43712962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>44847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>44673</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2750,14 +2750,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 35232-2021</t>
+          <t>A 12864-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44384</v>
+        <v>44271</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2769,8 +2769,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2807,14 +2812,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 12864-2021</t>
+          <t>A 35232-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44271</v>
+        <v>44384</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2826,13 +2831,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>44509</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2926,14 +2926,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 47652-2021</t>
+          <t>A 64044-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44448</v>
+        <v>44510</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2983,14 +2983,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 47654-2021</t>
+          <t>A 47652-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>44448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3040,14 +3040,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 70275-2021</t>
+          <t>A 47654-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44536</v>
+        <v>44448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3059,13 +3059,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3102,14 +3097,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 64044-2021</t>
+          <t>A 70275-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44510</v>
+        <v>44536</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3121,8 +3116,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>44518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44690.39451388889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44503</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3330,14 +3330,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 72967-2021</t>
+          <t>A 72966-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44548.58148148148</v>
+        <v>44548.57709490741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3387,14 +3387,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 72966-2021</t>
+          <t>A 72967-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44548.57709490741</v>
+        <v>44548.58148148148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3451,7 +3451,7 @@
         <v>44376</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3501,14 +3501,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 11841-2023</t>
+          <t>A 13697-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44995.3221412037</v>
+        <v>45390</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3520,8 +3520,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3558,14 +3563,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 1629-2024</t>
+          <t>A 26226-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45306</v>
+        <v>45805.55829861111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3577,13 +3582,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>3.6</v>
+        <v>9.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3620,14 +3620,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 30351-2022</t>
+          <t>A 14267-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44757</v>
+        <v>45740.63686342593</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3677,14 +3677,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 11847-2023</t>
+          <t>A 28189-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44995.33957175926</v>
+        <v>45818.41357638889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>7.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3734,14 +3734,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 11450-2023</t>
+          <t>A 11841-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44993</v>
+        <v>44995.3221412037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3791,14 +3791,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 26182-2022</t>
+          <t>A 30351-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44735</v>
+        <v>44757</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3848,14 +3848,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 20505-2021</t>
+          <t>A 11847-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44313</v>
+        <v>44995.33957175926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3905,14 +3905,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 13697-2024</t>
+          <t>A 11450-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45390</v>
+        <v>44993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3924,13 +3924,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3974,7 +3969,7 @@
         <v>44777</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4024,14 +4019,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 2629-2025</t>
+          <t>A 33975-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45675.6953587963</v>
+        <v>45843.30805555556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4044,7 +4039,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4081,14 +4076,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 23239-2023</t>
+          <t>A 33974-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45075</v>
+        <v>45843.305625</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4101,7 +4096,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4138,14 +4133,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 5320-2023</t>
+          <t>A 33976-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44959</v>
+        <v>45843</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4158,7 +4153,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>6.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4195,14 +4190,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 45916-2022</t>
+          <t>A 23239-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44846</v>
+        <v>45075</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4215,7 +4210,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4252,14 +4247,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 16396-2025</t>
+          <t>A 34859-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45751.44219907407</v>
+        <v>45849.43511574074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,8 +4266,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4309,14 +4309,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 17091-2023</t>
+          <t>A 34864-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45034.53554398148</v>
+        <v>45849.44028935185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4328,8 +4328,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4366,14 +4371,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 66293-2021</t>
+          <t>A 35318-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44518</v>
+        <v>45854.47917824074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4385,8 +4390,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4423,14 +4433,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 14267-2025</t>
+          <t>A 44869-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45740.63686342593</v>
+        <v>45918.46758101852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4443,7 +4453,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.9</v>
+        <v>17.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4480,14 +4490,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 60885-2021</t>
+          <t>A 45453-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44497</v>
+        <v>45922.48702546296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4500,7 +4510,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4537,14 +4547,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 2171-2024</t>
+          <t>A 13040-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45309</v>
+        <v>45734</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4558,11 +4568,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4599,14 +4609,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 21130-2025</t>
+          <t>A 36470-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45778.35857638889</v>
+        <v>45869.47915509259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4619,7 +4629,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4656,14 +4666,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 3191-2024</t>
+          <t>A 36472-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45316.67186342592</v>
+        <v>45869.48162037037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4676,7 +4686,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4713,14 +4723,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 794-2024</t>
+          <t>A 36473-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45300.58149305556</v>
+        <v>45869.48333333333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4733,7 +4743,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4770,14 +4780,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 45525-2023</t>
+          <t>A 47803-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45194</v>
+        <v>45931</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4790,7 +4800,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4827,14 +4837,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 66284-2021</t>
+          <t>A 66293-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
         <v>44518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4847,7 +4857,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.9</v>
+        <v>2.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4884,14 +4894,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 19676-2025</t>
+          <t>A 49090-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45770</v>
+        <v>45937</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4904,7 +4914,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4941,14 +4951,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 8343-2024</t>
+          <t>A 52667-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45352</v>
+        <v>45955.74666666667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4960,13 +4970,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5003,14 +5008,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 30627-2023</t>
+          <t>A 52666-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45112</v>
+        <v>45955.74299768519</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5022,13 +5027,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5065,14 +5065,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 20902-2024</t>
+          <t>A 66284-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45439.48104166667</v>
+        <v>44518</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>6.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5122,14 +5122,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 44869-2025</t>
+          <t>A 53898-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45918.46758101852</v>
+        <v>45961.43056712963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>17.1</v>
+        <v>4.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5179,14 +5179,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 45453-2025</t>
+          <t>A 19676-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45922.48702546296</v>
+        <v>45770</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5236,14 +5236,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 16773-2022</t>
+          <t>A 8343-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44673</v>
+        <v>45352</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5255,8 +5255,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5293,14 +5298,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 26226-2025</t>
+          <t>A 30627-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45805.55829861111</v>
+        <v>45112</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5312,8 +5317,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>9.1</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5350,14 +5360,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 13040-2025</t>
+          <t>A 1629-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45734</v>
+        <v>45306</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,11 +5381,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5412,14 +5422,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 30764-2023</t>
+          <t>A 57631-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45112</v>
+        <v>45981.34748842593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5431,13 +5441,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5474,14 +5479,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 51849-2023</t>
+          <t>A 60885-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45223.34391203704</v>
+        <v>44497</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,7 +5499,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>16.3</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5531,14 +5536,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 60018-2024</t>
+          <t>A 53812-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45642</v>
+        <v>45960</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5551,7 +5556,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5588,14 +5593,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 47803-2025</t>
+          <t>A 60243-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45931</v>
+        <v>45994.58650462963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5607,8 +5612,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5645,14 +5655,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 28189-2025</t>
+          <t>A 3191-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45818.41357638889</v>
+        <v>45316.67186342592</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5665,7 +5675,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>7.6</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5702,14 +5712,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 49090-2025</t>
+          <t>A 45525-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45937</v>
+        <v>45194</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,7 +5732,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5759,14 +5769,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 17333-2024</t>
+          <t>A 3375-2026</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45414.5625462963</v>
+        <v>46042</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5779,7 +5789,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5816,14 +5826,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 1791-2024</t>
+          <t>A 3824-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45307.574375</v>
+        <v>46043.58570601852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5836,7 +5846,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5873,14 +5883,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 52667-2025</t>
+          <t>A 3836-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45955.74666666667</v>
+        <v>46043.5925</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5893,7 +5903,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5930,14 +5940,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 52666-2025</t>
+          <t>A 16773-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45955.74299768519</v>
+        <v>44673</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,7 +5960,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5987,14 +5997,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 66305-2021</t>
+          <t>A 30764-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44518</v>
+        <v>45112</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6006,8 +6016,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6044,14 +6059,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 53898-2025</t>
+          <t>A 51849-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45961.43056712963</v>
+        <v>45223.34391203704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6079,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.5</v>
+        <v>16.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6101,14 +6116,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 33975-2025</t>
+          <t>A 60018-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45843.30805555556</v>
+        <v>45642</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6121,7 +6136,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6158,14 +6173,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 33974-2025</t>
+          <t>A 5908-2026</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45843.305625</v>
+        <v>46052.44399305555</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6178,7 +6193,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6215,14 +6230,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 33976-2025</t>
+          <t>A 5910-2026</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45843</v>
+        <v>46052.44677083333</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6235,7 +6250,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6272,14 +6287,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 34859-2025</t>
+          <t>A 5402-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45849.43511574074</v>
+        <v>44959</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6291,13 +6306,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>6.1</v>
+        <v>4.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6334,14 +6344,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 34864-2025</t>
+          <t>A 17333-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45849.44028935185</v>
+        <v>45414.5625462963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6353,13 +6363,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6396,14 +6401,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 35318-2025</t>
+          <t>A 1791-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45854.47917824074</v>
+        <v>45307.574375</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6415,13 +6420,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6458,14 +6458,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 2628-2025</t>
+          <t>A 66305-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45675.68435185185</v>
+        <v>44518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6515,14 +6515,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 36470-2025</t>
+          <t>A 662-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45869.47915509259</v>
+        <v>46029.58549768518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6572,14 +6572,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 57631-2025</t>
+          <t>A 2628-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45981.34748842593</v>
+        <v>45675.68435185185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6629,14 +6629,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 36472-2025</t>
+          <t>A 9744-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45869.48162037037</v>
+        <v>46072.51857638889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6686,14 +6686,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 36473-2025</t>
+          <t>A 666-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45869.48333333333</v>
+        <v>46029.58832175926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6750,7 +6750,7 @@
         <v>44993</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6800,14 +6800,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 53812-2025</t>
+          <t>A 43908-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45960</v>
+        <v>45187</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6819,8 +6819,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6857,14 +6862,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 60243-2025</t>
+          <t>A 2952-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45994.58650462963</v>
+        <v>46037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6876,13 +6881,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6919,14 +6919,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 43908-2023</t>
+          <t>A 3016-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45187</v>
+        <v>46038</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6938,13 +6938,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6981,14 +6976,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 2952-2026</t>
+          <t>A 5276-2026</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
         <v>46037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7001,7 +6996,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7038,14 +7033,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 3016-2026</t>
+          <t>A 3015-2026</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
         <v>46038</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7058,7 +7053,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7095,14 +7090,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 3015-2026</t>
+          <t>A 34078-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46038</v>
+        <v>44791</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7114,8 +7109,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7152,14 +7152,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 34078-2022</t>
+          <t>A 2944-2026</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44791</v>
+        <v>46037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7171,13 +7171,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7214,14 +7209,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 3375-2026</t>
+          <t>A 26182-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46042</v>
+        <v>44735</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7234,7 +7229,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7271,14 +7266,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 3824-2026</t>
+          <t>A 20505-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46043.58570601852</v>
+        <v>44313</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7291,7 +7286,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7328,14 +7323,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 3836-2026</t>
+          <t>A 2629-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46043.5925</v>
+        <v>45675.6953587963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7348,7 +7343,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7385,14 +7380,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 5276-2026</t>
+          <t>A 5320-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46037</v>
+        <v>44959</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7405,7 +7400,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7442,14 +7437,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 2944-2026</t>
+          <t>A 45916-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46037</v>
+        <v>44846</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7462,7 +7457,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7499,14 +7494,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 5908-2026</t>
+          <t>A 16396-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46052.44399305555</v>
+        <v>45751.44219907407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7519,7 +7514,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7556,14 +7551,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 5910-2026</t>
+          <t>A 17091-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46052.44677083333</v>
+        <v>45034.53554398148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7576,7 +7571,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7613,14 +7608,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 5402-2023</t>
+          <t>A 2171-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44959</v>
+        <v>45309</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7632,8 +7627,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7670,14 +7670,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 662-2026</t>
+          <t>A 21130-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46029.58549768518</v>
+        <v>45778.35857638889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7727,14 +7727,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 9744-2026</t>
+          <t>A 794-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46072.51857638889</v>
+        <v>45300.58149305556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7784,14 +7784,14 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 666-2026</t>
+          <t>A 20902-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46029.58832175926</v>
+        <v>45439.48104166667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
